--- a/Code/Data/DJI/Efficient Portfolios with Prediction/Manual Recurrence/input 250/DJI_efficient_portfolios_and_returns_with_prediction_semester.xlsx
+++ b/Code/Data/DJI/Efficient Portfolios with Prediction/Manual Recurrence/input 250/DJI_efficient_portfolios_and_returns_with_prediction_semester.xlsx
@@ -620,94 +620,94 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1889707158786023</v>
+        <v>0.2146411925062609</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03516527734889931</v>
+        <v>0.07330940592965456</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02772690149060437</v>
+        <v>0.02179818566507775</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0013217496802474</v>
+        <v>0.009830488497337076</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06485847484253195</v>
+        <v>0.04619330449655612</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06911486634942937</v>
+        <v>0.06285948295819187</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0007589278582549675</v>
+        <v>0.02130708092038824</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05231812993516502</v>
+        <v>0.001879784859499091</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01500919341740741</v>
+        <v>0.008041789954915354</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01705875701250726</v>
+        <v>0.01615657831380064</v>
       </c>
       <c r="O2" t="n">
-        <v>0.003853358660288128</v>
+        <v>0.06147980800001098</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03690810712287119</v>
+        <v>0.02128456029737679</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.06557493288763433</v>
+        <v>0.05760153255548924</v>
       </c>
       <c r="R2" t="n">
-        <v>0.04175834095718104</v>
+        <v>0.0034583802351868</v>
       </c>
       <c r="S2" t="n">
-        <v>0.008800561034724404</v>
+        <v>0.06354414528901699</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0313429072745792</v>
+        <v>0.05932547860684211</v>
       </c>
       <c r="U2" t="n">
-        <v>0.002008903995842819</v>
+        <v>0.05352182987380782</v>
       </c>
       <c r="V2" t="n">
-        <v>0.005991297294248909</v>
+        <v>0.003658978383921267</v>
       </c>
       <c r="W2" t="n">
-        <v>0.006515394484354921</v>
+        <v>0.004115518905431998</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0291945802703554</v>
+        <v>0.06730627599033139</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.05511233438441749</v>
+        <v>0.05169923940416028</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.05413376108452503</v>
+        <v>0.04534069885440619</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0004688329168814223</v>
+        <v>0.008268505285089607</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.07084145211793237</v>
+        <v>0.02931690032635093</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.04276374081995188</v>
+        <v>0.04050893236592683</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.06188779570301854</v>
+        <v>0.05380801747943346</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.06548365735251657</v>
+        <v>0.005619756344753027</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0713302011944914</v>
+        <v>0.04112311000875292</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.06269756250913783</v>
+        <v>0.06764223019829069</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.05532524480433523</v>
+        <v>0.08088487903417277</v>
       </c>
     </row>
     <row r="3">
@@ -730,94 +730,94 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.4724407950471956</v>
+        <v>0.4698872663854097</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04597476221012203</v>
+        <v>0.02813025690848578</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02499168243995361</v>
+        <v>0.0762195450038389</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002428243633459159</v>
+        <v>0.0002512694329819618</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05695235358184621</v>
+        <v>0.05757418657382541</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001533045681904767</v>
+        <v>0.009921244127476128</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02336296951023565</v>
+        <v>0.01799365568853074</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07659204362608917</v>
+        <v>0.03516492480797709</v>
       </c>
       <c r="M3" t="n">
-        <v>0.008329845369912806</v>
+        <v>0.01199061213396178</v>
       </c>
       <c r="N3" t="n">
-        <v>0.03979047957758829</v>
+        <v>0.08318689477094642</v>
       </c>
       <c r="O3" t="n">
-        <v>0.07028381082903866</v>
+        <v>0.002775194045656735</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01838166957379915</v>
+        <v>0.032311197517093</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.007138298359987052</v>
+        <v>0.05977974835843228</v>
       </c>
       <c r="R3" t="n">
-        <v>0.02440267948486238</v>
+        <v>0.0367441621250808</v>
       </c>
       <c r="S3" t="n">
-        <v>0.06866668322929068</v>
+        <v>0.04987703452772291</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0235008582858432</v>
+        <v>0.05357506834421315</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02107012638256841</v>
+        <v>0.02377873508606928</v>
       </c>
       <c r="V3" t="n">
-        <v>0.01970607011501649</v>
+        <v>0.02711211161673997</v>
       </c>
       <c r="W3" t="n">
-        <v>0.02458045077421768</v>
+        <v>0.01565531641103562</v>
       </c>
       <c r="X3" t="n">
-        <v>0.07839041867610423</v>
+        <v>0.02531438482682945</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.005417650456382337</v>
+        <v>0.02450684039327904</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.04641670031818623</v>
+        <v>0.05577306107519527</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.08008935164090536</v>
+        <v>0.07877760416147626</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0438006769908032</v>
+        <v>0.04564322286684356</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02745380487308126</v>
+        <v>0.04202810693082296</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.05022021532506095</v>
+        <v>0.05279451366787009</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.06736741296965093</v>
+        <v>0.01941998258320448</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.008681158799412687</v>
+        <v>0.0155392556637821</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.03447653728467742</v>
+        <v>0.01816187035062886</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.06931430455433833</v>
+        <v>0.04648364403733309</v>
       </c>
     </row>
     <row r="4">
@@ -840,94 +840,94 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1267638425570211</v>
+        <v>0.1226465734461477</v>
       </c>
       <c r="F4" t="n">
-        <v>0.004030379600682084</v>
+        <v>0.006058125823200556</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02083017644976815</v>
+        <v>0.04394688580844291</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01489445554570414</v>
+        <v>0.0502704392761101</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04009721877786925</v>
+        <v>0.05202587222673174</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02540104525335068</v>
+        <v>0.011918197411905</v>
       </c>
       <c r="K4" t="n">
-        <v>0.008862502596229045</v>
+        <v>0.04657601715637127</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06295660772211006</v>
+        <v>0.002285832341316451</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04845612756633501</v>
+        <v>0.02283858957754557</v>
       </c>
       <c r="N4" t="n">
-        <v>0.004957813068575647</v>
+        <v>0.01146312713455634</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03072524991264971</v>
+        <v>0.05486728997095372</v>
       </c>
       <c r="P4" t="n">
-        <v>0.04885579145259138</v>
+        <v>0.0680945692196504</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.002248025999254555</v>
+        <v>0.06457053595768103</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0516935103317922</v>
+        <v>0.05477676675738764</v>
       </c>
       <c r="S4" t="n">
-        <v>0.029620158738255</v>
+        <v>0.02260938471114755</v>
       </c>
       <c r="T4" t="n">
-        <v>0.06755885523434738</v>
+        <v>0.04412758165183158</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06210047414519064</v>
+        <v>0.02761346092833515</v>
       </c>
       <c r="V4" t="n">
-        <v>0.07087002416505117</v>
+        <v>0.01606716659460341</v>
       </c>
       <c r="W4" t="n">
-        <v>0.002520873907887476</v>
+        <v>0.02475650758764721</v>
       </c>
       <c r="X4" t="n">
-        <v>0.04811946754121565</v>
+        <v>0.03605159128056374</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.001725089906074997</v>
+        <v>0.002580968291471334</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.05021965941737052</v>
+        <v>0.05881096145665519</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.03934235892245237</v>
+        <v>0.04001196994717844</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.04702402615651553</v>
+        <v>0.07733527549048863</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.04736986408140342</v>
+        <v>0.05222628440569489</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.04317792887160488</v>
+        <v>0.01374290647801537</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.01113775757786688</v>
+        <v>0.005350682436569342</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.04611399936822067</v>
+        <v>0.01843168214512302</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.06909055768963146</v>
+        <v>0.07059132793282229</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.005303964501578559</v>
+        <v>0.01041997640085395</v>
       </c>
     </row>
     <row r="5">
@@ -950,94 +950,94 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.2782351530946645</v>
+        <v>0.2335840924407017</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05604657223808338</v>
+        <v>0.01798565483073125</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01320920811393162</v>
+        <v>0.008568868198773404</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03459758528822922</v>
+        <v>0.06738600297979276</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00597173478742931</v>
+        <v>0.04921693686010847</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02375998137785474</v>
+        <v>0.00952498427756494</v>
       </c>
       <c r="K5" t="n">
-        <v>0.005933761037723566</v>
+        <v>0.04645972946756675</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07991652113139687</v>
+        <v>0.065904280878574</v>
       </c>
       <c r="M5" t="n">
-        <v>0.06986338535746435</v>
+        <v>0.06469491882809789</v>
       </c>
       <c r="N5" t="n">
-        <v>0.06882127558843802</v>
+        <v>0.05811508752935179</v>
       </c>
       <c r="O5" t="n">
-        <v>0.08185045362340736</v>
+        <v>0.07253488271622066</v>
       </c>
       <c r="P5" t="n">
-        <v>0.02213396327171703</v>
+        <v>0.009643193641040092</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.02207155523083875</v>
+        <v>0.01858985580096797</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0190650555542967</v>
+        <v>0.01125510119383182</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01284515085204925</v>
+        <v>0.008174809843188805</v>
       </c>
       <c r="T5" t="n">
-        <v>0.03737377210958025</v>
+        <v>0.003946083544210837</v>
       </c>
       <c r="U5" t="n">
-        <v>0.07775252807832221</v>
+        <v>0.04091556385040831</v>
       </c>
       <c r="V5" t="n">
-        <v>0.07721869869757493</v>
+        <v>0.06717965278596388</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01714979693066959</v>
+        <v>0.02891864295823078</v>
       </c>
       <c r="X5" t="n">
-        <v>0.019296064472782</v>
+        <v>0.07401154862049732</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.005138243695932335</v>
+        <v>0.03312322469456117</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.0778612795470366</v>
+        <v>0.01466571158291688</v>
       </c>
       <c r="AA5" t="n">
-        <v>5.586873253223255e-05</v>
+        <v>0.05457098882063963</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.00685991366914915</v>
+        <v>0.04541468775019298</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.03434601954987643</v>
+        <v>0.01335591625389602</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.0108195247636966</v>
+        <v>0.00318671893599464</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.0338082112660032</v>
+        <v>0.03506395452794298</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.008083252966705231</v>
+        <v>0.002510510655611405</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.07815062206727903</v>
+        <v>0.07508248797312268</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.03437478439981392</v>
+        <v>0.03246892077533953</v>
       </c>
     </row>
     <row r="6">
@@ -1060,94 +1060,94 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.1956919415456396</v>
+        <v>0.2027858886577188</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06574751685413609</v>
+        <v>0.03882177086402094</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07614075299381666</v>
+        <v>0.07133623679935512</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04475980451788582</v>
+        <v>0.04456226218094361</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04346248635024589</v>
+        <v>0.05693895073235144</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01653789849358459</v>
+        <v>0.02902569473193436</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0003067571846576373</v>
+        <v>0.0007420809797514666</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01434336737481705</v>
+        <v>0.07274217102966075</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01050699581517753</v>
+        <v>0.04682491965765879</v>
       </c>
       <c r="N6" t="n">
-        <v>0.07096419338824606</v>
+        <v>0.06744912315687251</v>
       </c>
       <c r="O6" t="n">
-        <v>0.07989338176876369</v>
+        <v>0.05866787012589177</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0741114566790043</v>
+        <v>0.005615693677385561</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.008026673391059995</v>
+        <v>0.005938254763231642</v>
       </c>
       <c r="R6" t="n">
-        <v>0.03367731306653957</v>
+        <v>0.05135804861457201</v>
       </c>
       <c r="S6" t="n">
-        <v>0.02928455596957992</v>
+        <v>0.020673961828089</v>
       </c>
       <c r="T6" t="n">
-        <v>0.001842593476947094</v>
+        <v>0.01030819801131526</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0367617956245362</v>
+        <v>0.005821494997938572</v>
       </c>
       <c r="V6" t="n">
-        <v>0.004578206584055801</v>
+        <v>0.01080474925129025</v>
       </c>
       <c r="W6" t="n">
-        <v>0.04420653647500643</v>
+        <v>0.04190705037413035</v>
       </c>
       <c r="X6" t="n">
-        <v>0.02866102438868654</v>
+        <v>0.074321468232267</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.03413866919012302</v>
+        <v>0.05606869086507422</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.07228312399894575</v>
+        <v>0.03364734616540354</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.01193688102209436</v>
+        <v>0.001711055775708946</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.01000015770629724</v>
+        <v>0.007895585600918156</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.002852537529971457</v>
+        <v>0.05829709667419718</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.04519571618960733</v>
+        <v>0.02778058366729802</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.00601115742225655</v>
+        <v>0.03232702344450158</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.06517312016011799</v>
+        <v>0.04487891808869711</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.06859532638383953</v>
+        <v>0.02353369970954091</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0.1363331812848963</v>
+        <v>-0.1326978706845083</v>
       </c>
     </row>
     <row r="7">
@@ -1170,94 +1170,94 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.6886356152516186</v>
+        <v>0.8950643148119665</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08831569388369549</v>
+        <v>0.06982813411772648</v>
       </c>
       <c r="G7" t="n">
-        <v>0.005331793845629007</v>
+        <v>0.01876776593630624</v>
       </c>
       <c r="H7" t="n">
-        <v>0.007980891926046492</v>
+        <v>0.0151637096138017</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005913471293282747</v>
+        <v>0.009041573329290002</v>
       </c>
       <c r="J7" t="n">
-        <v>0.045167632934888</v>
+        <v>0.003254823141292788</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03930741724900352</v>
+        <v>0.05879310769045432</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05328541373334635</v>
+        <v>0.01528508644464718</v>
       </c>
       <c r="M7" t="n">
-        <v>0.08653256346676884</v>
+        <v>0.06961748496055194</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0557236291286422</v>
+        <v>0.008866821095078734</v>
       </c>
       <c r="O7" t="n">
-        <v>0.004999403416474288</v>
+        <v>0.01545596117547999</v>
       </c>
       <c r="P7" t="n">
-        <v>0.04550571570815795</v>
+        <v>0.007507588661078416</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0006598159224107148</v>
+        <v>0.01728762677578717</v>
       </c>
       <c r="R7" t="n">
-        <v>0.04178760822986871</v>
+        <v>0.07917235738386662</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01400589478812802</v>
+        <v>0.0470144606210876</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0007492786195312623</v>
+        <v>0.006488796374276629</v>
       </c>
       <c r="U7" t="n">
-        <v>0.04758495989660956</v>
+        <v>0.01927257153486079</v>
       </c>
       <c r="V7" t="n">
-        <v>0.08490966764427657</v>
+        <v>0.06390584997594684</v>
       </c>
       <c r="W7" t="n">
-        <v>0.003086437587330951</v>
+        <v>0.006648650449088041</v>
       </c>
       <c r="X7" t="n">
-        <v>0.001338108115295511</v>
+        <v>0.04922550790510995</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.001977200157663561</v>
+        <v>0.04882397357234166</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.02938614255050379</v>
+        <v>0.04339544695901352</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.07905933716063941</v>
+        <v>0.03166449158674876</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.02452010329968472</v>
+        <v>0.07756097553163324</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.00438730336379811</v>
+        <v>0.06019094957563283</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.08093040417960785</v>
+        <v>0.01426014721647704</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.06445457289849674</v>
+        <v>0.06015407980934642</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.03995029544267044</v>
+        <v>0.05250949616637075</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.04314924355754927</v>
+        <v>0.03084256239670443</v>
       </c>
       <c r="AH7" t="n">
-        <v>-0.1300190672821843</v>
+        <v>-0.1097200994837305</v>
       </c>
     </row>
     <row r="8">
@@ -1280,94 +1280,94 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.1692128324830873</v>
+        <v>0.1667122547082864</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00345545087835838</v>
+        <v>0.003831155478177116</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05267544142245812</v>
+        <v>0.01922186198929375</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0006938623883787357</v>
+        <v>0.03754574521663498</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05399042554561904</v>
+        <v>0.07206431701916011</v>
       </c>
       <c r="J8" t="n">
-        <v>0.005728685958253116</v>
+        <v>0.03759603172475133</v>
       </c>
       <c r="K8" t="n">
-        <v>0.003018413826689077</v>
+        <v>0.01499134176063511</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03514881592230754</v>
+        <v>7.352098976625579e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>0.006303025218213866</v>
+        <v>0.009084369642762888</v>
       </c>
       <c r="N8" t="n">
-        <v>0.05261860406289938</v>
+        <v>0.04037695207217343</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02148987466275627</v>
+        <v>0.001114509045319803</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01553353977866638</v>
+        <v>0.06853547479636983</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.02145610756337242</v>
+        <v>0.04443709740007643</v>
       </c>
       <c r="R8" t="n">
-        <v>0.04020770619088271</v>
+        <v>0.01685970481829602</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01411335018543754</v>
+        <v>0.05481876662522859</v>
       </c>
       <c r="T8" t="n">
-        <v>0.05611262899897313</v>
+        <v>0.03189354113331993</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03325321935468083</v>
+        <v>0.06723687299192992</v>
       </c>
       <c r="V8" t="n">
-        <v>0.04326121076676473</v>
+        <v>0.06419620781763927</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0474459837251583</v>
+        <v>0.008640312880781766</v>
       </c>
       <c r="X8" t="n">
-        <v>0.03441067142527854</v>
+        <v>0.06105883947994799</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.03431173654336477</v>
+        <v>0.01788791331701539</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.06144828109648596</v>
+        <v>0.02507651739587204</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.05453680247138468</v>
+        <v>0.0605743049628586</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.0578409723221034</v>
+        <v>0.06807194862789719</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.03813531241113531</v>
+        <v>0.05698271651846575</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.02959280403155592</v>
+        <v>0.0003516306655426057</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.06347392829589275</v>
+        <v>0.03116637645926013</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.05604319373461702</v>
+        <v>0.01507540209935048</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.0636999512183121</v>
+        <v>0.0712365670714732</v>
       </c>
       <c r="AH8" t="n">
-        <v>-0.1661291887496081</v>
+        <v>-0.206562490752058</v>
       </c>
     </row>
     <row r="9">
@@ -1390,94 +1390,94 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.5053052555459873</v>
+        <v>0.6066012918055997</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08302913618279868</v>
+        <v>0.08382759751727539</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03900673482831821</v>
+        <v>0.03153005739683358</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01212253132290939</v>
+        <v>0.001372945724452038</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00545506332850965</v>
+        <v>0.0004421969582197313</v>
       </c>
       <c r="J9" t="n">
-        <v>0.002802495463363841</v>
+        <v>0.000602555909071279</v>
       </c>
       <c r="K9" t="n">
-        <v>0.07929065128909346</v>
+        <v>0.08401595155557542</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05692210196771434</v>
+        <v>0.006681078090081646</v>
       </c>
       <c r="M9" t="n">
-        <v>0.07661436209472372</v>
+        <v>0.05670714467037026</v>
       </c>
       <c r="N9" t="n">
-        <v>0.002963598694080637</v>
+        <v>0.07235507770683618</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02879915173716958</v>
+        <v>0.006955077427649562</v>
       </c>
       <c r="P9" t="n">
-        <v>0.04736372940526829</v>
+        <v>0.02408750949773612</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.03581912522891827</v>
+        <v>0.07115137788964684</v>
       </c>
       <c r="R9" t="n">
-        <v>0.07163843108450693</v>
+        <v>0.03550578000359255</v>
       </c>
       <c r="S9" t="n">
-        <v>0.03350774715783415</v>
+        <v>0.03539233864673094</v>
       </c>
       <c r="T9" t="n">
-        <v>0.01501569847953638</v>
+        <v>0.02818738739850948</v>
       </c>
       <c r="U9" t="n">
-        <v>0.06892707920522449</v>
+        <v>0.07274380276113232</v>
       </c>
       <c r="V9" t="n">
-        <v>0.01896172587682027</v>
+        <v>0.02155921303231751</v>
       </c>
       <c r="W9" t="n">
-        <v>0.03059356601590723</v>
+        <v>0.06573938443580606</v>
       </c>
       <c r="X9" t="n">
-        <v>0.005571082890053495</v>
+        <v>0.06007063022111398</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.001463868914491242</v>
+        <v>0.004334017514146503</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.07722182189294029</v>
+        <v>0.07757015390903443</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.01252178542930413</v>
+        <v>0.03301113594324398</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.05425056685466711</v>
+        <v>0.002068127106331578</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.01985741793842497</v>
+        <v>0.03032044023092184</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.003102573182113651</v>
+        <v>0.02770910325383202</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.04265934922461508</v>
+        <v>0.01206608319530597</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.001850277460773258</v>
+        <v>0.03337998910215949</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.07266832684991915</v>
+        <v>0.02061384290207345</v>
       </c>
       <c r="AH9" t="n">
-        <v>-0.2841922234864883</v>
+        <v>-0.2820681065344315</v>
       </c>
     </row>
     <row r="10">
@@ -1500,94 +1500,94 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.2562571058764803</v>
+        <v>0.2558748088968226</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06213573572189135</v>
+        <v>0.07288354961155984</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01094761847907506</v>
+        <v>0.01819849560627154</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001766146133296628</v>
+        <v>0.02468867104397311</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05181788420524409</v>
+        <v>0.02541962826328192</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02785134150881839</v>
+        <v>0.06703602286890645</v>
       </c>
       <c r="K10" t="n">
-        <v>0.005520915036857599</v>
+        <v>0.01049700602108218</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02007742985189066</v>
+        <v>0.01605804094721864</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02518737600660784</v>
+        <v>0.01984842746694048</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02337424646474553</v>
+        <v>0.03606481250526194</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01010255024884386</v>
+        <v>0.002127402162289713</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0554599147022254</v>
+        <v>0.03816220575584962</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.05658541149546358</v>
+        <v>0.04045531511690145</v>
       </c>
       <c r="R10" t="n">
-        <v>0.05622070508678246</v>
+        <v>0.04036651264381527</v>
       </c>
       <c r="S10" t="n">
-        <v>0.008481468877789942</v>
+        <v>0.0608734806375632</v>
       </c>
       <c r="T10" t="n">
-        <v>0.001074493321384595</v>
+        <v>0.03279298964871932</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01999573262876009</v>
+        <v>0.008123362628738555</v>
       </c>
       <c r="V10" t="n">
-        <v>0.07111364563739382</v>
+        <v>0.06953976184843191</v>
       </c>
       <c r="W10" t="n">
-        <v>0.05144350599821267</v>
+        <v>0.07340644635350209</v>
       </c>
       <c r="X10" t="n">
-        <v>0.03299613733739315</v>
+        <v>0.02662324010862353</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.06820769089990418</v>
+        <v>0.06746004275018846</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.02387699815242453</v>
+        <v>0.01177080543727</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.007406137265525267</v>
+        <v>0.005524811808144421</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.05802794397948888</v>
+        <v>0.03505670737765649</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.05084820198038743</v>
+        <v>0.03844969523899819</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.06257988078999591</v>
+        <v>0.03555323518461007</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.05804789057786885</v>
+        <v>0.01068455551166734</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.01236652693476928</v>
+        <v>0.05609793573631459</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.06648647067695884</v>
+        <v>0.05623683971621968</v>
       </c>
       <c r="AH10" t="n">
-        <v>-0.01441332789077251</v>
+        <v>-0.002526207210898152</v>
       </c>
     </row>
     <row r="11">
@@ -1610,94 +1610,94 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.3110365703200241</v>
+        <v>0.3448223126369212</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07383410527975361</v>
+        <v>0.04536621679309796</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06235775736080081</v>
+        <v>0.03113404474851457</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05997550547751734</v>
+        <v>0.07862697748191674</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0484843133360796</v>
+        <v>0.03772692731162171</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0693117560002182</v>
+        <v>0.003982054483350333</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01554862514549313</v>
+        <v>0.04790945459554315</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02274538023691372</v>
+        <v>0.07684478145447336</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0514421366725095</v>
+        <v>0.06201320243736264</v>
       </c>
       <c r="N11" t="n">
-        <v>0.001478316227465235</v>
+        <v>0.001748813517136666</v>
       </c>
       <c r="O11" t="n">
-        <v>0.03359488367626098</v>
+        <v>0.03581188738090865</v>
       </c>
       <c r="P11" t="n">
-        <v>0.06110512176272172</v>
+        <v>0.06518420734602552</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.000930502560408309</v>
+        <v>0.007767491830366122</v>
       </c>
       <c r="R11" t="n">
-        <v>0.04071338061154914</v>
+        <v>0.0393769754116107</v>
       </c>
       <c r="S11" t="n">
-        <v>0.02321026786292749</v>
+        <v>0.01640872616413679</v>
       </c>
       <c r="T11" t="n">
-        <v>0.01097285073714285</v>
+        <v>0.04868700057954541</v>
       </c>
       <c r="U11" t="n">
-        <v>0.02150296752226684</v>
+        <v>0.07931002511489636</v>
       </c>
       <c r="V11" t="n">
-        <v>0.03362632188979405</v>
+        <v>0.02326400266466347</v>
       </c>
       <c r="W11" t="n">
-        <v>0.06444480752919007</v>
+        <v>0.02163826537114611</v>
       </c>
       <c r="X11" t="n">
-        <v>0.01935451170287123</v>
+        <v>0.01701494443035553</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.008453926940205076</v>
+        <v>0.001465355772551717</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.0544630376148664</v>
+        <v>0.04202724306534431</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.06313356585415596</v>
+        <v>0.07468380785345766</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.06628838562260107</v>
+        <v>0.04591656866780723</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.002702436942378587</v>
+        <v>0.01534400889072399</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.001477321642288312</v>
+        <v>0.01348551785786519</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.007144046037555214</v>
+        <v>0.0112376227163071</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.02442156332000597</v>
+        <v>0.02414839475717974</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.05728220443405969</v>
+        <v>0.03187548130209126</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.0190105017607291</v>
+        <v>0.0529763427952776</v>
       </c>
     </row>
     <row r="12">
@@ -1720,94 +1720,94 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.2788859697914098</v>
+        <v>0.2824620993797241</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0302787505050203</v>
+        <v>0.01953967817974728</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03896576071600284</v>
+        <v>0.0730906366298507</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03306014846388183</v>
+        <v>0.02171341085254365</v>
       </c>
       <c r="I12" t="n">
-        <v>0.07262036177372119</v>
+        <v>0.04671937686075882</v>
       </c>
       <c r="J12" t="n">
-        <v>0.006136152372537199</v>
+        <v>0.0204812265985431</v>
       </c>
       <c r="K12" t="n">
-        <v>0.04188938377468904</v>
+        <v>0.03896709351893923</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0103400478351789</v>
+        <v>0.006361434865835824</v>
       </c>
       <c r="M12" t="n">
-        <v>0.008163861934363064</v>
+        <v>0.01536488407502726</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0001352091772163227</v>
+        <v>0.005524470717668785</v>
       </c>
       <c r="O12" t="n">
-        <v>0.001196660270738174</v>
+        <v>0.02692153454600139</v>
       </c>
       <c r="P12" t="n">
-        <v>0.05741837739091386</v>
+        <v>0.001647229413165922</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.08223291470575503</v>
+        <v>0.04822359072136649</v>
       </c>
       <c r="R12" t="n">
-        <v>0.03230701032627147</v>
+        <v>0.02853240196293741</v>
       </c>
       <c r="S12" t="n">
-        <v>0.02059724659838456</v>
+        <v>0.02923544893881622</v>
       </c>
       <c r="T12" t="n">
-        <v>0.04385565882531172</v>
+        <v>0.05550093363293281</v>
       </c>
       <c r="U12" t="n">
-        <v>0.002751024274877086</v>
+        <v>0.001095843552711443</v>
       </c>
       <c r="V12" t="n">
-        <v>0.0579713105211454</v>
+        <v>0.06973086734111732</v>
       </c>
       <c r="W12" t="n">
-        <v>0.03963137670220047</v>
+        <v>0.07370981387030383</v>
       </c>
       <c r="X12" t="n">
-        <v>0.05657925937788462</v>
+        <v>0.05697426765505686</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.02494675266704549</v>
+        <v>0.04500411079309072</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.02396678103946579</v>
+        <v>0.01014315492262203</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.01532862069555106</v>
+        <v>0.01676613889807387</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.07090496362633088</v>
+        <v>0.01314560031875458</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.01183708333721974</v>
+        <v>0.05541837004574689</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.0323429573479633</v>
+        <v>0.03681425635135398</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.06056723710209285</v>
+        <v>0.07240155001675458</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.06645069475597014</v>
+        <v>0.05349356159497882</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.05752439388226754</v>
+        <v>0.05747911312530002</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.2194962391590601</v>
+        <v>0.2045921078074739</v>
       </c>
     </row>
     <row r="13">
@@ -1830,94 +1830,94 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.3798626932643708</v>
+        <v>0.4250474164146134</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02208731867505751</v>
+        <v>0.01493700986456827</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06674285869968594</v>
+        <v>0.0449047060836782</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07775130448234795</v>
+        <v>0.03921104671117157</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01409344944410802</v>
+        <v>0.01238863960932099</v>
       </c>
       <c r="J13" t="n">
-        <v>0.006592307720501597</v>
+        <v>0.07610661463939788</v>
       </c>
       <c r="K13" t="n">
-        <v>0.001062158227534377</v>
+        <v>0.03697027522327816</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04590845851570582</v>
+        <v>0.06638438134340942</v>
       </c>
       <c r="M13" t="n">
-        <v>0.06927586722949798</v>
+        <v>0.02004670542536039</v>
       </c>
       <c r="N13" t="n">
-        <v>0.05794533349392117</v>
+        <v>0.02688790925699907</v>
       </c>
       <c r="O13" t="n">
-        <v>0.05500840570339867</v>
+        <v>0.06136044511116431</v>
       </c>
       <c r="P13" t="n">
-        <v>0.03402261964477922</v>
+        <v>0.02312899450683662</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.008799301121115356</v>
+        <v>0.03353930947658047</v>
       </c>
       <c r="R13" t="n">
-        <v>0.03486576849515717</v>
+        <v>0.06825456869088772</v>
       </c>
       <c r="S13" t="n">
-        <v>0.002295722268968092</v>
+        <v>0.0116595315470863</v>
       </c>
       <c r="T13" t="n">
-        <v>0.01144830831599082</v>
+        <v>0.03049188384701672</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05595560255260051</v>
+        <v>0.09014368183551418</v>
       </c>
       <c r="V13" t="n">
-        <v>0.008272128017124045</v>
+        <v>0.03707620943712038</v>
       </c>
       <c r="W13" t="n">
-        <v>0.04431836730414151</v>
+        <v>0.007370463672724311</v>
       </c>
       <c r="X13" t="n">
-        <v>0.08041832672672204</v>
+        <v>0.001054913084943593</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.002756708025103544</v>
+        <v>0.004467281284455562</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.01358247052026663</v>
+        <v>0.007347009608730774</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.05423408730001203</v>
+        <v>0.07616676000924337</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.06209736803304548</v>
+        <v>0.005521753468760116</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.07106425670559141</v>
+        <v>0.09003318506491696</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.006640636399942296</v>
+        <v>0.007711064645655477</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.02412807158813249</v>
+        <v>0.02990863098117516</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.04603267533030651</v>
+        <v>0.03544046676304442</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.0226001194592419</v>
+        <v>0.04148655880695959</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.2265296737757291</v>
+        <v>0.2471474590963822</v>
       </c>
     </row>
     <row r="14">
@@ -1940,94 +1940,94 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.3063977075195213</v>
+        <v>0.3091011561234353</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02943340511614198</v>
+        <v>0.02146865292067035</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01825146751487353</v>
+        <v>0.05021059740944082</v>
       </c>
       <c r="H14" t="n">
-        <v>0.02444823267574403</v>
+        <v>0.01455250564752402</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02282787952752594</v>
+        <v>0.04048946171321502</v>
       </c>
       <c r="J14" t="n">
-        <v>0.04479074982140786</v>
+        <v>0.01291812421549058</v>
       </c>
       <c r="K14" t="n">
-        <v>0.01221625346896415</v>
+        <v>0.007247972278796954</v>
       </c>
       <c r="L14" t="n">
-        <v>0.007417687078037328</v>
+        <v>0.05138852744667976</v>
       </c>
       <c r="M14" t="n">
-        <v>0.08465761359181287</v>
+        <v>0.05713888976125817</v>
       </c>
       <c r="N14" t="n">
-        <v>0.04346659989021424</v>
+        <v>0.02314529264692293</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01673321896880275</v>
+        <v>0.0231838715768224</v>
       </c>
       <c r="P14" t="n">
-        <v>0.04583140703004111</v>
+        <v>0.06843398020426526</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.01084733404686277</v>
+        <v>0.01081898792410926</v>
       </c>
       <c r="R14" t="n">
-        <v>0.03654119071824861</v>
+        <v>0.02735382821074009</v>
       </c>
       <c r="S14" t="n">
-        <v>0.06362900214801132</v>
+        <v>0.059023004284102</v>
       </c>
       <c r="T14" t="n">
-        <v>0.002329639072028621</v>
+        <v>0.0549168983653861</v>
       </c>
       <c r="U14" t="n">
-        <v>0.003499685452578852</v>
+        <v>0.008115460662853421</v>
       </c>
       <c r="V14" t="n">
-        <v>0.08002234697205692</v>
+        <v>0.03160648475361418</v>
       </c>
       <c r="W14" t="n">
-        <v>0.07751797266732335</v>
+        <v>0.05777870394503651</v>
       </c>
       <c r="X14" t="n">
-        <v>0.003970220206767705</v>
+        <v>0.009808371343124223</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.06033343682598476</v>
+        <v>0.04473476308468506</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.02040304215693424</v>
+        <v>0.0370837327834892</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.016026243890526</v>
+        <v>0.01448533097056446</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.01590518505890167</v>
+        <v>0.009806574009249752</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.0774612081750569</v>
+        <v>0.02854644256225026</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.008898379196676704</v>
+        <v>0.0449188765080202</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.0431780575245332</v>
+        <v>0.06327623344151904</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.06647825932258875</v>
+        <v>0.06756972646663284</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.06288428188135392</v>
+        <v>0.05997870486353698</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0.07916478754902588</v>
+        <v>-0.09754249552425306</v>
       </c>
     </row>
     <row r="15">
@@ -2050,94 +2050,94 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.3950733740155356</v>
+        <v>0.376107211020678</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07767349005815011</v>
+        <v>0.06746782297239835</v>
       </c>
       <c r="G15" t="n">
-        <v>0.004672553575348523</v>
+        <v>0.0194847767419864</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0248137043643743</v>
+        <v>0.06657958233865746</v>
       </c>
       <c r="I15" t="n">
-        <v>0.08170094118628395</v>
+        <v>0.07067977394485361</v>
       </c>
       <c r="J15" t="n">
-        <v>0.007077398090850046</v>
+        <v>0.05493717672110187</v>
       </c>
       <c r="K15" t="n">
-        <v>0.05686255005715538</v>
+        <v>0.01507371432033234</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02904784704037118</v>
+        <v>0.08063494636072997</v>
       </c>
       <c r="M15" t="n">
-        <v>0.02738181093631879</v>
+        <v>0.0001984073763892114</v>
       </c>
       <c r="N15" t="n">
-        <v>0.04762094912633018</v>
+        <v>0.03691011737814285</v>
       </c>
       <c r="O15" t="n">
-        <v>0.03982447146807453</v>
+        <v>0.02415489659801196</v>
       </c>
       <c r="P15" t="n">
-        <v>0.002160596253568062</v>
+        <v>0.08100260630568187</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.002343590982354263</v>
+        <v>0.0003163268443382824</v>
       </c>
       <c r="R15" t="n">
-        <v>0.07539308050754365</v>
+        <v>0.05631544019508632</v>
       </c>
       <c r="S15" t="n">
-        <v>0.07295823480954623</v>
+        <v>0.06389165747204271</v>
       </c>
       <c r="T15" t="n">
-        <v>0.01372429346571018</v>
+        <v>0.02523075645471039</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02912673829236278</v>
+        <v>0.02090851023125562</v>
       </c>
       <c r="V15" t="n">
-        <v>0.008409000424118672</v>
+        <v>0.04373925412894175</v>
       </c>
       <c r="W15" t="n">
-        <v>0.001108719945581837</v>
+        <v>0.01324635302328357</v>
       </c>
       <c r="X15" t="n">
-        <v>0.02983685210482095</v>
+        <v>0.01500442499874539</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.05322577125752524</v>
+        <v>0.05887550084923589</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.05895066063335178</v>
+        <v>0.02833644740009437</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.07167481967656419</v>
+        <v>0.01372483171006084</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.01426621077517262</v>
+        <v>0.03806011486423055</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.03690322360650412</v>
+        <v>0.003668079423282559</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.0194541783427207</v>
+        <v>0.03408375734654998</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.01433814647956543</v>
+        <v>0.002620286000491542</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.02572892159980042</v>
+        <v>0.05546032510131118</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.07372124493993193</v>
+        <v>0.009394112898052994</v>
       </c>
       <c r="AH15" t="n">
-        <v>-0.05513909692722909</v>
+        <v>-0.06384591347522807</v>
       </c>
     </row>
     <row r="16">
@@ -2160,94 +2160,94 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.2963683184570588</v>
+        <v>0.3037246024517044</v>
       </c>
       <c r="F16" t="n">
-        <v>0.005750160840311189</v>
+        <v>0.006021506802117121</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04081703525776154</v>
+        <v>0.06609189246880688</v>
       </c>
       <c r="H16" t="n">
-        <v>0.006968651202550817</v>
+        <v>0.01587873176393607</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01932108904599901</v>
+        <v>0.0429130760767611</v>
       </c>
       <c r="J16" t="n">
-        <v>0.003964331994384754</v>
+        <v>0.06113053987585581</v>
       </c>
       <c r="K16" t="n">
-        <v>0.04117694481781591</v>
+        <v>0.01876126369147373</v>
       </c>
       <c r="L16" t="n">
-        <v>0.06024639662148133</v>
+        <v>0.05059092664449094</v>
       </c>
       <c r="M16" t="n">
-        <v>0.07774198876069065</v>
+        <v>0.06518085086866965</v>
       </c>
       <c r="N16" t="n">
-        <v>0.002507881252980289</v>
+        <v>0.01707353301543526</v>
       </c>
       <c r="O16" t="n">
-        <v>0.03469444746888813</v>
+        <v>0.04920520046265289</v>
       </c>
       <c r="P16" t="n">
-        <v>0.002051941100820992</v>
+        <v>0.04253917459229334</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0736164780382622</v>
+        <v>0.03382724638986918</v>
       </c>
       <c r="R16" t="n">
-        <v>0.02558556964490532</v>
+        <v>0.05577688030158565</v>
       </c>
       <c r="S16" t="n">
-        <v>0.05116474965058197</v>
+        <v>0.0100464792692935</v>
       </c>
       <c r="T16" t="n">
-        <v>0.08936916077747024</v>
+        <v>0.06063399584097504</v>
       </c>
       <c r="U16" t="n">
-        <v>0.005423891807748811</v>
+        <v>0.006814201525367202</v>
       </c>
       <c r="V16" t="n">
-        <v>0.05603759298611878</v>
+        <v>0.05459785791860126</v>
       </c>
       <c r="W16" t="n">
-        <v>0.004513522251126185</v>
+        <v>0.03045786320557157</v>
       </c>
       <c r="X16" t="n">
-        <v>0.005294433352591203</v>
+        <v>0.01926309719634939</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.01825825388596989</v>
+        <v>0.01414204720057788</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.005776631409263328</v>
+        <v>0.06916167000332792</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.03248133855473066</v>
+        <v>0.01481639778724309</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.05188089973655655</v>
+        <v>0.06469142695142965</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.002024066344405303</v>
+        <v>0.0005594265171514121</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.0592505339166942</v>
+        <v>0.0223960250747736</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.08953783319031511</v>
+        <v>0.058139421300637</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.07286760588058766</v>
+        <v>0.03993706738369143</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.06167657020898795</v>
+        <v>0.009352199871062292</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.199226288697248</v>
+        <v>0.1941651232820105</v>
       </c>
     </row>
     <row r="17">
@@ -2270,94 +2270,94 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.6370332182985123</v>
+        <v>0.5816264187421094</v>
       </c>
       <c r="F17" t="n">
-        <v>0.08303753809470253</v>
+        <v>0.07520230637769208</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04427688423413238</v>
+        <v>0.08573271431317331</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08444844982711681</v>
+        <v>0.08496095604958843</v>
       </c>
       <c r="I17" t="n">
-        <v>0.00293493992828841</v>
+        <v>0.0813932581499618</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0390458905539075</v>
+        <v>0.004988392031345406</v>
       </c>
       <c r="K17" t="n">
-        <v>0.02770953981983156</v>
+        <v>0.02487383402998601</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0009246668454661128</v>
+        <v>0.05280272952766468</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01722512619354218</v>
+        <v>0.02437184246622082</v>
       </c>
       <c r="N17" t="n">
-        <v>0.01745546519573495</v>
+        <v>0.00706769375929535</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01693217076645039</v>
+        <v>0.07552940050765727</v>
       </c>
       <c r="P17" t="n">
-        <v>0.08940737260157652</v>
+        <v>0.04883051172155491</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.03653363351974964</v>
+        <v>0.02683964703864094</v>
       </c>
       <c r="R17" t="n">
-        <v>0.03045535960571734</v>
+        <v>0.02640115294749114</v>
       </c>
       <c r="S17" t="n">
-        <v>0.0007910658961301512</v>
+        <v>0.008963539910346343</v>
       </c>
       <c r="T17" t="n">
-        <v>0.01263166590461928</v>
+        <v>0.04093109089203312</v>
       </c>
       <c r="U17" t="n">
-        <v>0.02241920421112912</v>
+        <v>0.01988028773687261</v>
       </c>
       <c r="V17" t="n">
-        <v>0.06015938379479817</v>
+        <v>0.07115303387541898</v>
       </c>
       <c r="W17" t="n">
-        <v>0.01463286332291521</v>
+        <v>0.04107341465437636</v>
       </c>
       <c r="X17" t="n">
-        <v>0.007276089000615165</v>
+        <v>0.01743902331571712</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.0730167435250053</v>
+        <v>0.01198951506920041</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.005899300201376526</v>
+        <v>0.01876411589901478</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.0564361326892279</v>
+        <v>0.003433609843257509</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.09647580893420479</v>
+        <v>0.03087964881399365</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.02294292610303141</v>
+        <v>0.02870337528335689</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.02703063750005655</v>
+        <v>0.0002528990923565431</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.02452384688248588</v>
+        <v>0.04469661719690105</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.07368201644987828</v>
+        <v>0.02134184089993127</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.01169527839830976</v>
+        <v>0.02150354859695122</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.2053329301228298</v>
+        <v>0.1649067452392445</v>
       </c>
     </row>
     <row r="18">
@@ -2380,94 +2380,94 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.2766433156521102</v>
+        <v>0.2835014772558274</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04757621481674092</v>
+        <v>0.01029426684126371</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02744215137827862</v>
+        <v>0.005489787357484943</v>
       </c>
       <c r="H18" t="n">
-        <v>0.05013431432311843</v>
+        <v>0.02065404048254871</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02459409499763883</v>
+        <v>0.00780215907767088</v>
       </c>
       <c r="J18" t="n">
-        <v>0.04718031557867286</v>
+        <v>0.01734375045330246</v>
       </c>
       <c r="K18" t="n">
-        <v>0.04018454004758298</v>
+        <v>0.05228184083118075</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0430717051193187</v>
+        <v>0.05043714242077513</v>
       </c>
       <c r="M18" t="n">
-        <v>0.05578467726521988</v>
+        <v>0.04905909735573312</v>
       </c>
       <c r="N18" t="n">
-        <v>0.009057629173334615</v>
+        <v>0.01166543408161194</v>
       </c>
       <c r="O18" t="n">
-        <v>0.002930028060515036</v>
+        <v>0.01347187128230246</v>
       </c>
       <c r="P18" t="n">
-        <v>0.06830468204159838</v>
+        <v>0.07916295071247577</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.03512802511628916</v>
+        <v>0.02760139824384203</v>
       </c>
       <c r="R18" t="n">
-        <v>0.0113225971947496</v>
+        <v>0.01008274079424852</v>
       </c>
       <c r="S18" t="n">
-        <v>0.01570527775533377</v>
+        <v>0.0704548191336062</v>
       </c>
       <c r="T18" t="n">
-        <v>0.07097284712243059</v>
+        <v>0.02799280219561645</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05360610994183659</v>
+        <v>0.03877689234665316</v>
       </c>
       <c r="V18" t="n">
-        <v>0.003811808122902376</v>
+        <v>0.08118362239453926</v>
       </c>
       <c r="W18" t="n">
-        <v>0.05086121015136617</v>
+        <v>0.07358361381402811</v>
       </c>
       <c r="X18" t="n">
-        <v>0.004577682457357009</v>
+        <v>0.01602764669470646</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.02318683351674908</v>
+        <v>0.07605214272643469</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.05014603058775693</v>
+        <v>0.06624083561706352</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.01278022009826216</v>
+        <v>0.006168195052513475</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.06150122809172157</v>
+        <v>0.0009407671710372398</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.04016132214569528</v>
+        <v>0.02201026367218339</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.0004002722746198128</v>
+        <v>0.01240600483697272</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.03622403582989082</v>
+        <v>0.03029513953160729</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.0620302885088812</v>
+        <v>0.04072171368322463</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.05132385828213858</v>
+        <v>0.08179906119537306</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.0440925595006338</v>
+        <v>0.03322200017487302</v>
       </c>
     </row>
     <row r="19">
@@ -2490,94 +2490,94 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.4055259876448358</v>
+        <v>0.4387384521844043</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0689820704926502</v>
+        <v>0.0310469023059997</v>
       </c>
       <c r="G19" t="n">
-        <v>0.03130788228739426</v>
+        <v>0.0002248219634142144</v>
       </c>
       <c r="H19" t="n">
-        <v>0.05726675855938512</v>
+        <v>0.02234880244690842</v>
       </c>
       <c r="I19" t="n">
-        <v>0.009496946272644842</v>
+        <v>0.02062817112522337</v>
       </c>
       <c r="J19" t="n">
-        <v>0.05836526888993859</v>
+        <v>0.07591472716592147</v>
       </c>
       <c r="K19" t="n">
-        <v>0.05315594788509775</v>
+        <v>0.07571810636665151</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02822815769572753</v>
+        <v>0.03186006986615626</v>
       </c>
       <c r="M19" t="n">
-        <v>0.06405185436015837</v>
+        <v>0.07006239117822839</v>
       </c>
       <c r="N19" t="n">
-        <v>0.01863173694345512</v>
+        <v>0.05510880995067289</v>
       </c>
       <c r="O19" t="n">
-        <v>0.001125387030329977</v>
+        <v>0.007809891628357855</v>
       </c>
       <c r="P19" t="n">
-        <v>0.008737592798046168</v>
+        <v>0.001921769089307785</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.09202113249587984</v>
+        <v>0.07352179663656419</v>
       </c>
       <c r="R19" t="n">
-        <v>0.009381674385887013</v>
+        <v>0.001786759396958891</v>
       </c>
       <c r="S19" t="n">
-        <v>0.04459783844893773</v>
+        <v>0.02246286995622161</v>
       </c>
       <c r="T19" t="n">
-        <v>0.02591652033065551</v>
+        <v>0.01324761708350944</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02836697829783175</v>
+        <v>0.01868992518850921</v>
       </c>
       <c r="V19" t="n">
-        <v>0.08238405283021091</v>
+        <v>0.04835195107808158</v>
       </c>
       <c r="W19" t="n">
-        <v>0.06843186646921821</v>
+        <v>0.04950054309281778</v>
       </c>
       <c r="X19" t="n">
-        <v>0.001968849297090445</v>
+        <v>0.0214832685635874</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.07732540897516353</v>
+        <v>0.007705766051754518</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.01386778350437244</v>
+        <v>0.003860263626038107</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.003516415234995632</v>
+        <v>0.0655179340786185</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.008020589054660883</v>
+        <v>0.00718442459297925</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.05773302279886215</v>
+        <v>0.07578432929703406</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.03090997300434587</v>
+        <v>0.03058768792581175</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.03978614554710731</v>
+        <v>0.03136407985825531</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.004255568375907346</v>
+        <v>0.06441261935599432</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.01216657773404536</v>
+        <v>0.07189370113042211</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.07161894800106372</v>
+        <v>0.07092488587532939</v>
       </c>
     </row>
     <row r="20">
@@ -2600,94 +2600,94 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1491651486066743</v>
+        <v>0.1518986582325022</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04136454663647671</v>
+        <v>0.00736563433760302</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0288315956557069</v>
+        <v>0.02966900324179299</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0004215739777245021</v>
+        <v>0.01190704806093876</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01050090079930615</v>
+        <v>0.01605693587493174</v>
       </c>
       <c r="J20" t="n">
-        <v>0.007551632596355445</v>
+        <v>0.01832716483339939</v>
       </c>
       <c r="K20" t="n">
-        <v>0.02820004631797214</v>
+        <v>0.008135553590371861</v>
       </c>
       <c r="L20" t="n">
-        <v>0.06514829630497447</v>
+        <v>0.0378878704039747</v>
       </c>
       <c r="M20" t="n">
-        <v>0.02596152918638823</v>
+        <v>0.02135897559577946</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0350617909526879</v>
+        <v>0.03891098498643985</v>
       </c>
       <c r="O20" t="n">
-        <v>0.04401846653366173</v>
+        <v>0.028842221905661</v>
       </c>
       <c r="P20" t="n">
-        <v>0.03269604031717548</v>
+        <v>0.05456053661943331</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.006547852558703582</v>
+        <v>0.03989665389624996</v>
       </c>
       <c r="R20" t="n">
-        <v>0.06519028960188691</v>
+        <v>0.07078454228890947</v>
       </c>
       <c r="S20" t="n">
-        <v>0.05766114070140548</v>
+        <v>0.002560781308013935</v>
       </c>
       <c r="T20" t="n">
-        <v>0.05027639584229721</v>
+        <v>0.07110383535535326</v>
       </c>
       <c r="U20" t="n">
-        <v>0.000162186119224358</v>
+        <v>0.0417813295518215</v>
       </c>
       <c r="V20" t="n">
-        <v>0.04221907420202673</v>
+        <v>0.06467516709366383</v>
       </c>
       <c r="W20" t="n">
-        <v>0.04816855396458308</v>
+        <v>0.05545486805904481</v>
       </c>
       <c r="X20" t="n">
-        <v>0.05573545287046998</v>
+        <v>0.06835106199039276</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.02624253736737636</v>
+        <v>0.05395430125931376</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.02798499346786644</v>
+        <v>0.01544387716243873</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.04794233437898617</v>
+        <v>0.07028671693669077</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.05761607104437986</v>
+        <v>0.06864821715625873</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.06665408710554944</v>
+        <v>0.009323828007632828</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.01081875302572953</v>
+        <v>0.01460011922295702</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.03942879173773479</v>
+        <v>0.009204608542939793</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.03204397905427196</v>
+        <v>0.002737247739490582</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.04555108767907839</v>
+        <v>0.06817091497850229</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.0001034880772179357</v>
+        <v>-0.001774673287182854</v>
       </c>
     </row>
     <row r="21">
@@ -2710,94 +2710,94 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.1838683059131656</v>
+        <v>0.2148762000185694</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06601833210703158</v>
+        <v>0.004373206625733511</v>
       </c>
       <c r="G21" t="n">
-        <v>0.004446906930202468</v>
+        <v>0.02069344181337797</v>
       </c>
       <c r="H21" t="n">
-        <v>0.02828776632269014</v>
+        <v>0.001555441239844155</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02414640449069361</v>
+        <v>0.06477848501421229</v>
       </c>
       <c r="J21" t="n">
-        <v>0.05482890254973057</v>
+        <v>0.08210306518477775</v>
       </c>
       <c r="K21" t="n">
-        <v>0.03259230040362905</v>
+        <v>0.03473961424551463</v>
       </c>
       <c r="L21" t="n">
-        <v>0.008621280941185113</v>
+        <v>0.02365172436122095</v>
       </c>
       <c r="M21" t="n">
-        <v>0.03605907452399128</v>
+        <v>0.04495042425477192</v>
       </c>
       <c r="N21" t="n">
-        <v>0.02404000701471956</v>
+        <v>0.03576440444986249</v>
       </c>
       <c r="O21" t="n">
-        <v>0.04001490573141455</v>
+        <v>0.0004642508182946046</v>
       </c>
       <c r="P21" t="n">
-        <v>0.007826158028946551</v>
+        <v>0.05036820331971952</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.07361021851635279</v>
+        <v>0.01576700559585185</v>
       </c>
       <c r="R21" t="n">
-        <v>0.08059607179590238</v>
+        <v>0.05353461232612213</v>
       </c>
       <c r="S21" t="n">
-        <v>0.03762529573508645</v>
+        <v>0.02019208562657177</v>
       </c>
       <c r="T21" t="n">
-        <v>0.03905265611825211</v>
+        <v>0.022540014428805</v>
       </c>
       <c r="U21" t="n">
-        <v>0.002085620745342932</v>
+        <v>0.004606662518125405</v>
       </c>
       <c r="V21" t="n">
-        <v>0.0470315712751241</v>
+        <v>0.06690978096822692</v>
       </c>
       <c r="W21" t="n">
-        <v>0.07712822378438994</v>
+        <v>0.03015564526027224</v>
       </c>
       <c r="X21" t="n">
-        <v>0.006622560500447918</v>
+        <v>0.01629732462947489</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.0246662023342906</v>
+        <v>0.02257673678761587</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.01202081565866571</v>
+        <v>0.02970762972446937</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.055195959658932</v>
+        <v>0.05510097449952698</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.0489787650044347</v>
+        <v>0.04412708947363322</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.05459147880627296</v>
+        <v>0.08089718690336913</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.03798145693543948</v>
+        <v>0.07214227818017491</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.004147467250493221</v>
+        <v>0.07525641493904389</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.006377057601899228</v>
+        <v>0.02536397262943478</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.06540653923443922</v>
+        <v>0.001382324181951943</v>
       </c>
       <c r="AH21" t="n">
-        <v>-0.00905959646173745</v>
+        <v>-0.01274770055281872</v>
       </c>
     </row>
     <row r="22">
@@ -2820,94 +2820,94 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.1907363981498879</v>
+        <v>0.1897158773641035</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01775889494611246</v>
+        <v>0.05480314626631894</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03837941637265695</v>
+        <v>0.02811005776123859</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0318321634854019</v>
+        <v>0.008123611495925892</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01322037861411541</v>
+        <v>0.02201711151043596</v>
       </c>
       <c r="J22" t="n">
-        <v>0.008978193147793521</v>
+        <v>0.004698167391048806</v>
       </c>
       <c r="K22" t="n">
-        <v>0.039586317408479</v>
+        <v>0.02188295167737787</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0395358548643647</v>
+        <v>0.05087798641314234</v>
       </c>
       <c r="M22" t="n">
-        <v>0.03858065038446962</v>
+        <v>0.08129228822388956</v>
       </c>
       <c r="N22" t="n">
-        <v>0.01177230837847848</v>
+        <v>0.01166068401840533</v>
       </c>
       <c r="O22" t="n">
-        <v>0.05437623546219277</v>
+        <v>0.037157739891464</v>
       </c>
       <c r="P22" t="n">
-        <v>0.03405735256633864</v>
+        <v>0.005687828210842375</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.03755463396002046</v>
+        <v>0.01536888907585952</v>
       </c>
       <c r="R22" t="n">
-        <v>0.06546414698355395</v>
+        <v>0.04142727680737186</v>
       </c>
       <c r="S22" t="n">
-        <v>0.03223882664794847</v>
+        <v>0.05283761444258187</v>
       </c>
       <c r="T22" t="n">
-        <v>0.01909083151659865</v>
+        <v>0.07337195314408529</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02753172618571804</v>
+        <v>0.01609913617622872</v>
       </c>
       <c r="V22" t="n">
-        <v>0.06312568880661856</v>
+        <v>0.07170443577982415</v>
       </c>
       <c r="W22" t="n">
-        <v>0.00468076418428174</v>
+        <v>0.002175820105710489</v>
       </c>
       <c r="X22" t="n">
-        <v>0.0608941435995473</v>
+        <v>0.01015687788854735</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.02019380135032543</v>
+        <v>0.03731148056031571</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.053237868057868</v>
+        <v>0.07746776652481109</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.001325257952160301</v>
+        <v>0.02130267360462335</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.06541721205227677</v>
+        <v>0.05401027258598513</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.06619491821199826</v>
+        <v>0.05242500672454456</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.002021538072219855</v>
+        <v>0.02100384471849894</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.05259028734540069</v>
+        <v>0.05863721311304922</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.06364046529384901</v>
+        <v>0.0273392487744721</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.03672012414921121</v>
+        <v>0.04104891711340097</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.06474703307360578</v>
+        <v>0.06708850017157605</v>
       </c>
     </row>
     <row r="23">
@@ -2930,94 +2930,94 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.4297915384515991</v>
+        <v>0.447002917209901</v>
       </c>
       <c r="F23" t="n">
-        <v>0.08475203782174302</v>
+        <v>0.02008192623296211</v>
       </c>
       <c r="G23" t="n">
-        <v>0.09588876835481729</v>
+        <v>0.05899366599360411</v>
       </c>
       <c r="H23" t="n">
-        <v>0.008959418180648547</v>
+        <v>0.0519331295039699</v>
       </c>
       <c r="I23" t="n">
-        <v>0.002635681227880163</v>
+        <v>0.003767304714482412</v>
       </c>
       <c r="J23" t="n">
-        <v>0.01937172940122329</v>
+        <v>0.01376921411549536</v>
       </c>
       <c r="K23" t="n">
-        <v>0.004852072362862149</v>
+        <v>0.004068360510384752</v>
       </c>
       <c r="L23" t="n">
-        <v>0.03040286568952507</v>
+        <v>0.04045043236952681</v>
       </c>
       <c r="M23" t="n">
-        <v>3.308899414705659e-05</v>
+        <v>0.01659629877522549</v>
       </c>
       <c r="N23" t="n">
-        <v>0.01013104911766215</v>
+        <v>0.02987672359891865</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01972186574960402</v>
+        <v>0.01496834652734479</v>
       </c>
       <c r="P23" t="n">
-        <v>0.015185159504877</v>
+        <v>0.05327234041768171</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.01091332137982943</v>
+        <v>0.08111193709440392</v>
       </c>
       <c r="R23" t="n">
-        <v>0.09811634336254495</v>
+        <v>0.05609244971777205</v>
       </c>
       <c r="S23" t="n">
-        <v>0.06214384096541887</v>
+        <v>0.02502365554738075</v>
       </c>
       <c r="T23" t="n">
-        <v>0.0765215801177689</v>
+        <v>0.05628048223266012</v>
       </c>
       <c r="U23" t="n">
-        <v>0.004258212860603489</v>
+        <v>0.07909843120179456</v>
       </c>
       <c r="V23" t="n">
-        <v>0.0426845627905031</v>
+        <v>0.02600405024268021</v>
       </c>
       <c r="W23" t="n">
-        <v>0.08658195361558112</v>
+        <v>0.09469321458432078</v>
       </c>
       <c r="X23" t="n">
-        <v>0.02844633258607552</v>
+        <v>0.006454190299205632</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.006523279081549967</v>
+        <v>0.05923014204531871</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.01559574555291629</v>
+        <v>0.06721323407593328</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.05962904206944121</v>
+        <v>0.01160467218788379</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.02090652613097493</v>
+        <v>0.05588479387247745</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.04151296040310754</v>
+        <v>0.002469824798192542</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.0190373829536873</v>
+        <v>0.0006746820718805079</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.08827743883778495</v>
+        <v>0.0509591006231953</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.0004539867421951757</v>
+        <v>0.01111228722075688</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.04646375414502759</v>
+        <v>0.008315109424547487</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.07308023924969007</v>
+        <v>0.05451989613140891</v>
       </c>
     </row>
     <row r="24">
@@ -3040,94 +3040,94 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1934452759909469</v>
+        <v>0.1949570915739195</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004593002737218397</v>
+        <v>0.03091654730854101</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03362687864927828</v>
+        <v>0.0712546602052942</v>
       </c>
       <c r="H24" t="n">
-        <v>0.04037085981787743</v>
+        <v>0.001237989290160804</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0113903311264284</v>
+        <v>0.01580716123676324</v>
       </c>
       <c r="J24" t="n">
-        <v>0.03342733294260618</v>
+        <v>0.06232105113652698</v>
       </c>
       <c r="K24" t="n">
-        <v>0.04235796313507961</v>
+        <v>0.04033936164278611</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01344491094026918</v>
+        <v>0.02224003307170806</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0483551511892764</v>
+        <v>0.04462459649210513</v>
       </c>
       <c r="N24" t="n">
-        <v>0.05905209702376686</v>
+        <v>0.02141617246412916</v>
       </c>
       <c r="O24" t="n">
-        <v>0.07005307444335256</v>
+        <v>0.05455702067856479</v>
       </c>
       <c r="P24" t="n">
-        <v>0.001997000862132025</v>
+        <v>0.006368131773282048</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.06588946034330107</v>
+        <v>0.04329403392651386</v>
       </c>
       <c r="R24" t="n">
-        <v>0.0009272964033158461</v>
+        <v>0.002603436541498099</v>
       </c>
       <c r="S24" t="n">
-        <v>0.02435262132109241</v>
+        <v>0.05276256028151337</v>
       </c>
       <c r="T24" t="n">
-        <v>0.01712761013655036</v>
+        <v>0.02677381808183819</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04805462387790389</v>
+        <v>0.03099627345134086</v>
       </c>
       <c r="V24" t="n">
-        <v>0.05538026251392069</v>
+        <v>0.01008816935286944</v>
       </c>
       <c r="W24" t="n">
-        <v>0.06211964265807358</v>
+        <v>0.04382542446133859</v>
       </c>
       <c r="X24" t="n">
-        <v>0.0177720078869721</v>
+        <v>0.06715863227296105</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.04998985962597866</v>
+        <v>0.01409465737344608</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.08223002583448576</v>
+        <v>0.04703850496356025</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.02453240175714262</v>
+        <v>0.05803465474556254</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.02312138655146869</v>
+        <v>0.05850628835174117</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.02315146890619722</v>
+        <v>0.05463758092724341</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.01974616890211553</v>
+        <v>0.05384669784309596</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.003680174369867227</v>
+        <v>0.003479882766929614</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.05285451038152356</v>
+        <v>0.01641665440444813</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.07040187566280545</v>
+        <v>0.04536000495423798</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.0523882317661423</v>
+        <v>0.05617158876119216</v>
       </c>
     </row>
     <row r="25">
@@ -3150,94 +3150,94 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.7881830481151388</v>
+        <v>1.118589993582953</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01636403368119664</v>
+        <v>0.0006217891209441355</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06474090670554077</v>
+        <v>0.0829111890278111</v>
       </c>
       <c r="H25" t="n">
-        <v>0.05537415137082546</v>
+        <v>0.02385340814766841</v>
       </c>
       <c r="I25" t="n">
-        <v>0.06498437287187317</v>
+        <v>0.001096638633061971</v>
       </c>
       <c r="J25" t="n">
-        <v>0.05511373842555838</v>
+        <v>0.05248725998902996</v>
       </c>
       <c r="K25" t="n">
-        <v>0.05042058237491792</v>
+        <v>0.0608330580965568</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01199280707952249</v>
+        <v>0.02722274468846831</v>
       </c>
       <c r="M25" t="n">
-        <v>0.06026529052284527</v>
+        <v>0.06957086184126397</v>
       </c>
       <c r="N25" t="n">
-        <v>0.03989290018728854</v>
+        <v>0.04067819037793396</v>
       </c>
       <c r="O25" t="n">
-        <v>0.07506991095100772</v>
+        <v>0.04446622776411823</v>
       </c>
       <c r="P25" t="n">
-        <v>0.00689260034719762</v>
+        <v>0.009881592274395189</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.0178932153280556</v>
+        <v>0.02549470275630239</v>
       </c>
       <c r="R25" t="n">
-        <v>0.05346006943407251</v>
+        <v>0.07562024454101887</v>
       </c>
       <c r="S25" t="n">
-        <v>0.07463624744510476</v>
+        <v>0.06288263032359297</v>
       </c>
       <c r="T25" t="n">
-        <v>0.008390506778539024</v>
+        <v>0.02925866077918447</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06444585307484504</v>
+        <v>0.04412054538384013</v>
       </c>
       <c r="V25" t="n">
-        <v>0.05474532453171553</v>
+        <v>0.06287088814628261</v>
       </c>
       <c r="W25" t="n">
-        <v>0.007417527039971469</v>
+        <v>0.001399736607878466</v>
       </c>
       <c r="X25" t="n">
-        <v>0.03347007698321662</v>
+        <v>0.01836303442428908</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.02847140466573451</v>
+        <v>0.02772134898234118</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.01840161748704016</v>
+        <v>0.01165066166494296</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.03212892409661422</v>
+        <v>0.02027199941690371</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.004263596502157112</v>
+        <v>0.07676839919616577</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.05430824470340111</v>
+        <v>0.02845910883676232</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.00995920570018048</v>
+        <v>0.01853247174690585</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.002830701300465259</v>
+        <v>0.009004831786417948</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.006163944808469483</v>
+        <v>0.04129476142642566</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.02790224560264304</v>
+        <v>0.03266301401949335</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.04723581889422062</v>
+        <v>0.05647770659183458</v>
       </c>
     </row>
     <row r="26">
@@ -3260,94 +3260,94 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.180681599245046</v>
+        <v>0.1785044012446793</v>
       </c>
       <c r="F26" t="n">
-        <v>0.002569740412076995</v>
+        <v>0.0347561858445383</v>
       </c>
       <c r="G26" t="n">
-        <v>0.05334509429450113</v>
+        <v>0.007408166666513921</v>
       </c>
       <c r="H26" t="n">
-        <v>0.02365717537168465</v>
+        <v>0.01814434918885123</v>
       </c>
       <c r="I26" t="n">
-        <v>0.05701468760200888</v>
+        <v>0.0577461774438273</v>
       </c>
       <c r="J26" t="n">
-        <v>0.006571872720234208</v>
+        <v>0.01631769475622498</v>
       </c>
       <c r="K26" t="n">
-        <v>0.04185399355045063</v>
+        <v>0.009810485443109061</v>
       </c>
       <c r="L26" t="n">
-        <v>0.008838481145210797</v>
+        <v>0.01019469188015011</v>
       </c>
       <c r="M26" t="n">
-        <v>0.070182748166673</v>
+        <v>0.0006340988674479395</v>
       </c>
       <c r="N26" t="n">
-        <v>0.0143226137180396</v>
+        <v>0.001963271159026978</v>
       </c>
       <c r="O26" t="n">
-        <v>0.00727184208896168</v>
+        <v>0.02485311897858047</v>
       </c>
       <c r="P26" t="n">
-        <v>0.0115703351942705</v>
+        <v>0.003779648691265826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.06115198350335826</v>
+        <v>0.07777465261409106</v>
       </c>
       <c r="R26" t="n">
-        <v>0.0211568213926719</v>
+        <v>0.04718298702537661</v>
       </c>
       <c r="S26" t="n">
-        <v>0.0780230653921878</v>
+        <v>0.05558023291962916</v>
       </c>
       <c r="T26" t="n">
-        <v>0.0826235302396529</v>
+        <v>0.02352998430213772</v>
       </c>
       <c r="U26" t="n">
-        <v>0.008991204635063248</v>
+        <v>0.01788234959802657</v>
       </c>
       <c r="V26" t="n">
-        <v>0.05142180429785759</v>
+        <v>0.0680412799571856</v>
       </c>
       <c r="W26" t="n">
-        <v>0.02247017534233471</v>
+        <v>0.06432450553624128</v>
       </c>
       <c r="X26" t="n">
-        <v>0.01585632003332956</v>
+        <v>0.001578712709383426</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.01168604385497749</v>
+        <v>0.0261690558928883</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.01513353994651602</v>
+        <v>0.07286359627137967</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.0009361565155510854</v>
+        <v>0.03235357266392948</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.06919139062777525</v>
+        <v>0.0542288692089298</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.06348909781025436</v>
+        <v>0.02007173033434913</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.04315477181907549</v>
+        <v>0.09399280370852164</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.08151848414609933</v>
+        <v>0.01657251773088862</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.02286228375712678</v>
+        <v>0.06977944201417351</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.05313474242205604</v>
+        <v>0.07246581859333252</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.1273840015203359</v>
+        <v>0.1253192113716623</v>
       </c>
     </row>
     <row r="27">
@@ -3370,94 +3370,94 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.2498836233600361</v>
+        <v>0.2876050161373631</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01899873230999911</v>
+        <v>0.02275818391897503</v>
       </c>
       <c r="G27" t="n">
-        <v>0.06613022119416241</v>
+        <v>0.05676659223420168</v>
       </c>
       <c r="H27" t="n">
-        <v>0.07108976169462165</v>
+        <v>0.07131865325779227</v>
       </c>
       <c r="I27" t="n">
-        <v>0.06211237059398727</v>
+        <v>0.05789815862009332</v>
       </c>
       <c r="J27" t="n">
-        <v>0.01281212206900489</v>
+        <v>0.009488142377892682</v>
       </c>
       <c r="K27" t="n">
-        <v>0.06331062988204242</v>
+        <v>0.06595033881771352</v>
       </c>
       <c r="L27" t="n">
-        <v>0.009682962160757595</v>
+        <v>0.02840686250447529</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0370568950424615</v>
+        <v>0.01014320793967561</v>
       </c>
       <c r="N27" t="n">
-        <v>0.03786568341590761</v>
+        <v>0.03538532527656585</v>
       </c>
       <c r="O27" t="n">
-        <v>0.04999410325538348</v>
+        <v>0.05017730980800778</v>
       </c>
       <c r="P27" t="n">
-        <v>0.03475208420911636</v>
+        <v>0.05152412539248646</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.01445201671636196</v>
+        <v>0.01780522267590127</v>
       </c>
       <c r="R27" t="n">
-        <v>0.03627829921186935</v>
+        <v>0.02011334818151212</v>
       </c>
       <c r="S27" t="n">
-        <v>0.005129426068179954</v>
+        <v>0.0671175599057105</v>
       </c>
       <c r="T27" t="n">
-        <v>0.06028174340958281</v>
+        <v>0.02574826799911653</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05645122365408601</v>
+        <v>0.0751730236355348</v>
       </c>
       <c r="V27" t="n">
-        <v>0.06018811891194358</v>
+        <v>0.01600873474466522</v>
       </c>
       <c r="W27" t="n">
-        <v>0.01539517305815205</v>
+        <v>0.01850549557608304</v>
       </c>
       <c r="X27" t="n">
-        <v>0.009677711555462024</v>
+        <v>0.05278965788684659</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.01183275491223024</v>
+        <v>0.01371845667102861</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.009587275775783546</v>
+        <v>0.03188844413992298</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.008918232728883715</v>
+        <v>0.01860975081196001</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.04800775704629965</v>
+        <v>0.04738024968959392</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.06817131198660707</v>
+        <v>0.0109379924616986</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.02078569857175085</v>
+        <v>0.02217136907205093</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.04890667580041875</v>
+        <v>0.04214377590405317</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.04870513697630652</v>
+        <v>0.05210464860923673</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.01342587778863773</v>
+        <v>0.007967101887205535</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.1217702861760332</v>
+        <v>0.1302211121870272</v>
       </c>
     </row>
     <row r="28">
@@ -3480,94 +3480,94 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.237820634085054</v>
+        <v>0.2428535734008391</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0606065118072138</v>
+        <v>0.03238445864131485</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04451996076804796</v>
+        <v>0.04938187295616142</v>
       </c>
       <c r="H28" t="n">
-        <v>0.03949983249661601</v>
+        <v>0.05848537324106019</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01305460198586322</v>
+        <v>0.02311718803266916</v>
       </c>
       <c r="J28" t="n">
-        <v>0.01620283579900173</v>
+        <v>0.07379659027760543</v>
       </c>
       <c r="K28" t="n">
-        <v>0.07539404161722481</v>
+        <v>0.01486380837376487</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0507756994780816</v>
+        <v>0.04416070745848695</v>
       </c>
       <c r="M28" t="n">
-        <v>0.02606715788085006</v>
+        <v>0.04071937669954701</v>
       </c>
       <c r="N28" t="n">
-        <v>0.009019286965693306</v>
+        <v>0.05663326128161599</v>
       </c>
       <c r="O28" t="n">
-        <v>0.03587640185316354</v>
+        <v>0.003640904217340123</v>
       </c>
       <c r="P28" t="n">
-        <v>0.007868504055548774</v>
+        <v>0.002985924932420525</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.07654778047053908</v>
+        <v>0.0305732434235036</v>
       </c>
       <c r="R28" t="n">
-        <v>0.0216570523788976</v>
+        <v>0.05981756494060447</v>
       </c>
       <c r="S28" t="n">
-        <v>0.04812189449822457</v>
+        <v>0.02643189455682464</v>
       </c>
       <c r="T28" t="n">
-        <v>0.01651430569706155</v>
+        <v>0.05977645156554027</v>
       </c>
       <c r="U28" t="n">
-        <v>0.00868357272972649</v>
+        <v>0.01946548784268272</v>
       </c>
       <c r="V28" t="n">
-        <v>0.0651704975473846</v>
+        <v>0.05685992299212494</v>
       </c>
       <c r="W28" t="n">
-        <v>0.05632697279627718</v>
+        <v>0.02979906559602703</v>
       </c>
       <c r="X28" t="n">
-        <v>0.02348224697514117</v>
+        <v>0.01483153395087793</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.004334873467144148</v>
+        <v>0.0303655168825721</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.02274072790132488</v>
+        <v>0.01238088024250512</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.002184862750025179</v>
+        <v>0.01036112222158822</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.03462498407085694</v>
+        <v>0.0564721757492381</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.05987335472730951</v>
+        <v>0.0412653701531461</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.05198992736629399</v>
+        <v>0.02964874898806377</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.07636646784911362</v>
+        <v>0.04972923875374932</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.01575954931293987</v>
+        <v>0.02274136331130074</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.0367360947544347</v>
+        <v>0.04931095271766445</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.1148772499398016</v>
+        <v>0.09534778545756929</v>
       </c>
     </row>
     <row r="29">
@@ -3590,94 +3590,94 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.4709901900848639</v>
+        <v>0.4662186412301861</v>
       </c>
       <c r="F29" t="n">
-        <v>0.007118751534612816</v>
+        <v>0.06331728706215174</v>
       </c>
       <c r="G29" t="n">
-        <v>0.007915370081685162</v>
+        <v>0.01901468642835508</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02382626596894516</v>
+        <v>0.04661711696009084</v>
       </c>
       <c r="I29" t="n">
-        <v>0.02269412646528715</v>
+        <v>0.02599922262230532</v>
       </c>
       <c r="J29" t="n">
-        <v>0.06550777152062348</v>
+        <v>0.06980597135301335</v>
       </c>
       <c r="K29" t="n">
-        <v>0.00520389563612326</v>
+        <v>0.002690162386764945</v>
       </c>
       <c r="L29" t="n">
-        <v>0.05313310954144199</v>
+        <v>0.0507121749031554</v>
       </c>
       <c r="M29" t="n">
-        <v>0.05454939198622207</v>
+        <v>0.02709580064559397</v>
       </c>
       <c r="N29" t="n">
-        <v>0.02289660948677555</v>
+        <v>0.08378977770112654</v>
       </c>
       <c r="O29" t="n">
-        <v>0.07554445902735119</v>
+        <v>0.0009425153526223417</v>
       </c>
       <c r="P29" t="n">
-        <v>0.01164488484060077</v>
+        <v>0.01002845493116073</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.06971527165511782</v>
+        <v>0.05796181196083071</v>
       </c>
       <c r="R29" t="n">
-        <v>0.04165357874512351</v>
+        <v>0.07778543630346733</v>
       </c>
       <c r="S29" t="n">
-        <v>0.01119836411652698</v>
+        <v>0.03373723876477035</v>
       </c>
       <c r="T29" t="n">
-        <v>0.07615670506882796</v>
+        <v>0.01112151784207912</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0001988634091609282</v>
+        <v>0.0005945006370250975</v>
       </c>
       <c r="V29" t="n">
-        <v>0.07354318736870516</v>
+        <v>0.01606924995513472</v>
       </c>
       <c r="W29" t="n">
-        <v>0.01112418808809122</v>
+        <v>5.013754772509453e-05</v>
       </c>
       <c r="X29" t="n">
-        <v>0.08260828193501756</v>
+        <v>0.07880711902832588</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.05807170857390091</v>
+        <v>0.03603324683083566</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.02308259195724433</v>
+        <v>0.002749485517185146</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.003242336793486731</v>
+        <v>0.01368520887031537</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.05526398163233245</v>
+        <v>0.02555117653943773</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.03929674137899374</v>
+        <v>0.0084583529448665</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.01242541225963658</v>
+        <v>0.02787772078872357</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.04738132196698758</v>
+        <v>0.07664693480752592</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.01944104237850335</v>
+        <v>0.05067691732652113</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.02556178658267456</v>
+        <v>0.08218077398889027</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.09312434167138699</v>
+        <v>0.116251758135796</v>
       </c>
     </row>
     <row r="30">
@@ -3700,94 +3700,94 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.1596376813694482</v>
+        <v>0.1603340243496758</v>
       </c>
       <c r="F30" t="n">
-        <v>0.05710543262331226</v>
+        <v>0.06944148646427477</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02623961057189659</v>
+        <v>0.02219293717054222</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0131693171889436</v>
+        <v>0.02207746650316576</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0780908019149982</v>
+        <v>0.076406929248675</v>
       </c>
       <c r="J30" t="n">
-        <v>0.07135019514815041</v>
+        <v>0.005302500619236191</v>
       </c>
       <c r="K30" t="n">
-        <v>0.03214320550787775</v>
+        <v>0.04993029921378828</v>
       </c>
       <c r="L30" t="n">
-        <v>0.05781776929996733</v>
+        <v>0.07021098912574922</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0653001524303938</v>
+        <v>0.03774255920428689</v>
       </c>
       <c r="N30" t="n">
-        <v>0.005435108277957791</v>
+        <v>0.01927631821364296</v>
       </c>
       <c r="O30" t="n">
-        <v>0.001569745644307583</v>
+        <v>0.006476657360927499</v>
       </c>
       <c r="P30" t="n">
-        <v>0.004563422742733707</v>
+        <v>0.007457484272983053</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.07028397356217682</v>
+        <v>0.007379696187676874</v>
       </c>
       <c r="R30" t="n">
-        <v>0.07771174933667863</v>
+        <v>0.03732282930009579</v>
       </c>
       <c r="S30" t="n">
-        <v>0.03219362958549681</v>
+        <v>0.06881625666795939</v>
       </c>
       <c r="T30" t="n">
-        <v>0.005834070417599803</v>
+        <v>0.007985486725445612</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01965142942884592</v>
+        <v>0.005347924338045261</v>
       </c>
       <c r="V30" t="n">
-        <v>0.009722933165714605</v>
+        <v>0.0659037400325387</v>
       </c>
       <c r="W30" t="n">
-        <v>0.05952642975084329</v>
+        <v>0.02132869901728476</v>
       </c>
       <c r="X30" t="n">
-        <v>0.03692673458952402</v>
+        <v>0.05369943938661704</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.06553333880800859</v>
+        <v>0.0629426228121277</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.0753610013132571</v>
+        <v>0.0737109084255739</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.02701534761656462</v>
+        <v>0.003592511695689206</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.01772127275349293</v>
+        <v>0.02951840272714753</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.006220230602616042</v>
+        <v>0.02648477086573509</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.01052214437714257</v>
+        <v>0.01139389961885125</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.01661427508222432</v>
+        <v>0.05964182819070388</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.01324479057888833</v>
+        <v>0.006000983883771851</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.04313188768038656</v>
+        <v>0.07241437272746441</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.07177359271459159</v>
+        <v>0.06752697697604823</v>
       </c>
     </row>
     <row r="31">
@@ -3810,94 +3810,94 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.2044966974276998</v>
+        <v>0.1874842495219156</v>
       </c>
       <c r="F31" t="n">
-        <v>0.03039106689993291</v>
+        <v>0.02033171219094364</v>
       </c>
       <c r="G31" t="n">
-        <v>0.07861297671364779</v>
+        <v>0.007786517784495118</v>
       </c>
       <c r="H31" t="n">
-        <v>0.009899758198159119</v>
+        <v>0.01186860137811459</v>
       </c>
       <c r="I31" t="n">
-        <v>0.07041847631267042</v>
+        <v>0.07982714761033351</v>
       </c>
       <c r="J31" t="n">
-        <v>0.07324834792798461</v>
+        <v>0.07240418330785658</v>
       </c>
       <c r="K31" t="n">
-        <v>0.02829099662564379</v>
+        <v>0.03830595530199655</v>
       </c>
       <c r="L31" t="n">
-        <v>0.02380515887799237</v>
+        <v>0.009668132431261208</v>
       </c>
       <c r="M31" t="n">
-        <v>0.02082802211124631</v>
+        <v>0.007496591206111989</v>
       </c>
       <c r="N31" t="n">
-        <v>0.04326482188861023</v>
+        <v>0.06068231801162726</v>
       </c>
       <c r="O31" t="n">
-        <v>0.006446958446205305</v>
+        <v>0.01311719934074848</v>
       </c>
       <c r="P31" t="n">
-        <v>0.005424560298805544</v>
+        <v>0.06761857052514261</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.04781218821311446</v>
+        <v>0.03191964924165716</v>
       </c>
       <c r="R31" t="n">
-        <v>0.005533171825030855</v>
+        <v>0.06206340273991983</v>
       </c>
       <c r="S31" t="n">
-        <v>0.02013794398041128</v>
+        <v>0.01311415956775426</v>
       </c>
       <c r="T31" t="n">
-        <v>0.0439692299204269</v>
+        <v>0.02941985622868347</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01165733865109678</v>
+        <v>0.004063731533958152</v>
       </c>
       <c r="V31" t="n">
-        <v>0.02520674026794132</v>
+        <v>0.06603223400071492</v>
       </c>
       <c r="W31" t="n">
-        <v>0.02088382537806377</v>
+        <v>0.01706617935100225</v>
       </c>
       <c r="X31" t="n">
-        <v>0.06839668542334131</v>
+        <v>0.0546292328015725</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.03010863907127367</v>
+        <v>0.05810540494628928</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.04058367121973996</v>
+        <v>0.01509853396010437</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.04575123931281262</v>
+        <v>0.05169526181060208</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.07155266397044514</v>
+        <v>0.04513016972498501</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.002982832201594622</v>
+        <v>0.001219011124932915</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.0225555555695525</v>
+        <v>0.03031548292980984</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.02293905386354553</v>
+        <v>0.005065566444708809</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.07981480666311118</v>
+        <v>0.07598734321532725</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.04948327016759978</v>
+        <v>0.0499678512893463</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.07721856048060979</v>
+        <v>0.07046002553209867</v>
       </c>
     </row>
     <row r="32">
@@ -3920,94 +3920,94 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.1568643711822738</v>
+        <v>0.1407725620200526</v>
       </c>
       <c r="F32" t="n">
-        <v>0.04162866744866257</v>
+        <v>0.01289419641277808</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0336232185283046</v>
+        <v>0.007509991960084498</v>
       </c>
       <c r="H32" t="n">
-        <v>0.01222353650462348</v>
+        <v>0.01623960242701971</v>
       </c>
       <c r="I32" t="n">
-        <v>0.007271930223871004</v>
+        <v>0.08440146748608336</v>
       </c>
       <c r="J32" t="n">
-        <v>0.00303985434417158</v>
+        <v>0.001269377719833302</v>
       </c>
       <c r="K32" t="n">
-        <v>0.007087753254097328</v>
+        <v>0.05653201259235124</v>
       </c>
       <c r="L32" t="n">
-        <v>0.06910174164055964</v>
+        <v>0.01571563822384527</v>
       </c>
       <c r="M32" t="n">
-        <v>0.04471061670171935</v>
+        <v>0.09547209446778611</v>
       </c>
       <c r="N32" t="n">
-        <v>0.02860796275800687</v>
+        <v>0.01553933265584827</v>
       </c>
       <c r="O32" t="n">
-        <v>0.04731072206791206</v>
+        <v>0.01335594440563084</v>
       </c>
       <c r="P32" t="n">
-        <v>0.03356618371600698</v>
+        <v>0.0278702063029465</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.001194090251986575</v>
+        <v>0.009463547952647982</v>
       </c>
       <c r="R32" t="n">
-        <v>0.02503763831726243</v>
+        <v>0.04015401033335474</v>
       </c>
       <c r="S32" t="n">
-        <v>0.000504486096772704</v>
+        <v>0.009634587869604697</v>
       </c>
       <c r="T32" t="n">
-        <v>0.0002759575528074889</v>
+        <v>0.008015381374872973</v>
       </c>
       <c r="U32" t="n">
-        <v>0.07119212344440853</v>
+        <v>0.03306116581165312</v>
       </c>
       <c r="V32" t="n">
-        <v>0.06836935949478845</v>
+        <v>0.03075527193610503</v>
       </c>
       <c r="W32" t="n">
-        <v>0.07621865067475246</v>
+        <v>0.04650066469086866</v>
       </c>
       <c r="X32" t="n">
-        <v>0.05255290207154961</v>
+        <v>0.07982810551438006</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.05972013359433408</v>
+        <v>0.04846831632102492</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.02007657921324006</v>
+        <v>0.001779275729787086</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.06997712895466389</v>
+        <v>0.09773830509876213</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.05575589981713987</v>
+        <v>0.06661505364921551</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.06373979718815995</v>
+        <v>0.04647467381888108</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.02330270520652164</v>
+        <v>0.01648568275037687</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.02347947238276069</v>
+        <v>0.03380273008596268</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.03099543164002846</v>
+        <v>0.002513401649002249</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.02943545691088757</v>
+        <v>0.08190996075929298</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.07511064000158919</v>
+        <v>0.05362211516532654</v>
       </c>
     </row>
     <row r="33">
@@ -4030,94 +4030,94 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.5007253105296886</v>
+        <v>0.4160271688769286</v>
       </c>
       <c r="F33" t="n">
-        <v>0.07104227935355878</v>
+        <v>0.006965685594004051</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04958918032246222</v>
+        <v>0.002287818479262145</v>
       </c>
       <c r="H33" t="n">
-        <v>0.06085927633468704</v>
+        <v>0.04579008045184523</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03108250790088357</v>
+        <v>0.07291441980227675</v>
       </c>
       <c r="J33" t="n">
-        <v>0.004846506249228855</v>
+        <v>0.006593096799290952</v>
       </c>
       <c r="K33" t="n">
-        <v>0.05473043584668622</v>
+        <v>0.04556714842107333</v>
       </c>
       <c r="L33" t="n">
-        <v>0.00634192393369979</v>
+        <v>0.03772638392436552</v>
       </c>
       <c r="M33" t="n">
-        <v>0.005525604409980497</v>
+        <v>0.04098621025489271</v>
       </c>
       <c r="N33" t="n">
-        <v>0.001708529082146123</v>
+        <v>0.02529474665069252</v>
       </c>
       <c r="O33" t="n">
-        <v>0.03410629515601103</v>
+        <v>0.04563449997826663</v>
       </c>
       <c r="P33" t="n">
-        <v>0.02770629496369945</v>
+        <v>0.01909837257969559</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.02039145899843192</v>
+        <v>0.0402682009544193</v>
       </c>
       <c r="R33" t="n">
-        <v>0.01674612904443942</v>
+        <v>0.08403933204804204</v>
       </c>
       <c r="S33" t="n">
-        <v>0.08664062123561447</v>
+        <v>0.07194528023611667</v>
       </c>
       <c r="T33" t="n">
-        <v>0.02199653605822789</v>
+        <v>0.008746961200781687</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0154265796233212</v>
+        <v>0.02305936157836029</v>
       </c>
       <c r="V33" t="n">
-        <v>0.05059114777642139</v>
+        <v>0.01856130676339176</v>
       </c>
       <c r="W33" t="n">
-        <v>0.03283472885692645</v>
+        <v>0.01262361149055175</v>
       </c>
       <c r="X33" t="n">
-        <v>0.01064292366402635</v>
+        <v>0.06628205612466218</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.0152555977394668</v>
+        <v>0.04395683625059431</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.06439260994771986</v>
+        <v>0.0526059968881909</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.07074544148789987</v>
+        <v>0.01793735571726496</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.01751584158504097</v>
+        <v>0.006914529692830094</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.01574050515160401</v>
+        <v>0.02261806216093869</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.008322220904807345</v>
+        <v>0.01939714886119433</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.08810986831935447</v>
+        <v>0.0582960353562356</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.04118040344236967</v>
+        <v>0.02734649828432164</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.07592855261128451</v>
+        <v>0.0765429634564383</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.08149292521946229</v>
+        <v>0.04560864291681201</v>
       </c>
     </row>
     <row r="34">
@@ -4140,94 +4140,94 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.175746061613202</v>
+        <v>0.1742086590678482</v>
       </c>
       <c r="F34" t="n">
-        <v>0.06702426054047264</v>
+        <v>0.01977544144273119</v>
       </c>
       <c r="G34" t="n">
-        <v>0.009551005490649266</v>
+        <v>0.02342570065607634</v>
       </c>
       <c r="H34" t="n">
-        <v>0.006190039283465597</v>
+        <v>0.05681025516085374</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0506106261093213</v>
+        <v>0.005113362557745986</v>
       </c>
       <c r="J34" t="n">
-        <v>0.007851565827442012</v>
+        <v>0.02000645697343436</v>
       </c>
       <c r="K34" t="n">
-        <v>0.05785992399697967</v>
+        <v>0.06960440874288448</v>
       </c>
       <c r="L34" t="n">
-        <v>0.004489281635593343</v>
+        <v>0.005096099133264477</v>
       </c>
       <c r="M34" t="n">
-        <v>0.06318439517939091</v>
+        <v>0.05367714947871424</v>
       </c>
       <c r="N34" t="n">
-        <v>0.003694486074381939</v>
+        <v>0.004305172954661305</v>
       </c>
       <c r="O34" t="n">
-        <v>0.06263123019063439</v>
+        <v>0.008580442426112455</v>
       </c>
       <c r="P34" t="n">
-        <v>0.04601973010035283</v>
+        <v>0.01451566911019934</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.0075736500643922</v>
+        <v>0.04517938462716928</v>
       </c>
       <c r="R34" t="n">
-        <v>0.02928859477650148</v>
+        <v>0.06435029953546732</v>
       </c>
       <c r="S34" t="n">
-        <v>0.01735285776483909</v>
+        <v>0.01027961293521685</v>
       </c>
       <c r="T34" t="n">
-        <v>0.02113162157364125</v>
+        <v>0.009301095829429718</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04303512305883645</v>
+        <v>0.08236943364125618</v>
       </c>
       <c r="V34" t="n">
-        <v>0.03640759947289452</v>
+        <v>0.04779607261412835</v>
       </c>
       <c r="W34" t="n">
-        <v>0.02901410895564481</v>
+        <v>0.07527328216843619</v>
       </c>
       <c r="X34" t="n">
-        <v>0.04073862287655461</v>
+        <v>0.002953018663906759</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.03246110847478246</v>
+        <v>0.08194837837548695</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.04687260522851286</v>
+        <v>0.01883130253051711</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.006559622240869113</v>
+        <v>0.007494456186082949</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.09560667021543574</v>
+        <v>0.08752122771960845</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.05224050506538324</v>
+        <v>0.04416796384148081</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.03837340979447068</v>
+        <v>0.018547163010906</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.04156855622549153</v>
+        <v>0.03681706333436688</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.04411908712354206</v>
+        <v>0.01223307740315493</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.03854971265952407</v>
+        <v>0.0740270089467074</v>
       </c>
       <c r="AH34" t="n">
-        <v>0.007054214097551178</v>
+        <v>-0.0181228632988451</v>
       </c>
     </row>
     <row r="35">
@@ -4250,94 +4250,94 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.2100437395257252</v>
+        <v>0.2144080464322091</v>
       </c>
       <c r="F35" t="n">
-        <v>0.06900703813780387</v>
+        <v>0.07921903867704372</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02887181898019023</v>
+        <v>0.05157091680866644</v>
       </c>
       <c r="H35" t="n">
-        <v>0.009024599412474361</v>
+        <v>0.01019350341299666</v>
       </c>
       <c r="I35" t="n">
-        <v>0.03345609632771256</v>
+        <v>0.05667523714199872</v>
       </c>
       <c r="J35" t="n">
-        <v>0.04839864760322534</v>
+        <v>0.01998588001491164</v>
       </c>
       <c r="K35" t="n">
-        <v>0.07362666762353678</v>
+        <v>0.07857690565143052</v>
       </c>
       <c r="L35" t="n">
-        <v>0.006532594802429106</v>
+        <v>0.004625077435166909</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0005192319387320287</v>
+        <v>0.035682390640654</v>
       </c>
       <c r="N35" t="n">
-        <v>0.03438646742877571</v>
+        <v>0.004899456102391442</v>
       </c>
       <c r="O35" t="n">
-        <v>0.03671866407710362</v>
+        <v>0.07300516512947773</v>
       </c>
       <c r="P35" t="n">
-        <v>0.03568115446242779</v>
+        <v>0.06575469628463473</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.01998714909238965</v>
+        <v>0.007998256764555884</v>
       </c>
       <c r="R35" t="n">
-        <v>0.0489736749790917</v>
+        <v>0.01864209584152761</v>
       </c>
       <c r="S35" t="n">
-        <v>0.004479287959462229</v>
+        <v>0.004085842733808582</v>
       </c>
       <c r="T35" t="n">
-        <v>0.0201734050052652</v>
+        <v>0.001584641469957942</v>
       </c>
       <c r="U35" t="n">
-        <v>0.004871331932989015</v>
+        <v>0.06426525007328024</v>
       </c>
       <c r="V35" t="n">
-        <v>0.04458648627022491</v>
+        <v>0.01419470382499581</v>
       </c>
       <c r="W35" t="n">
-        <v>0.07376412623798902</v>
+        <v>0.04517586245044191</v>
       </c>
       <c r="X35" t="n">
-        <v>0.0302963168482846</v>
+        <v>0.01236111135070317</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.06175495035319206</v>
+        <v>0.002601879778519215</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.05912992576942971</v>
+        <v>0.03330787848422673</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.02623416121196794</v>
+        <v>0.005954748675499459</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.01628341096744228</v>
+        <v>0.01631134486759808</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.03394705311803783</v>
+        <v>0.02359949325123665</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.05074252160665718</v>
+        <v>0.07888739469524123</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.04727201247439551</v>
+        <v>0.05589098917838602</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.0609915300300061</v>
+        <v>0.07206126429582088</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.02028967534876354</v>
+        <v>0.06288897496482806</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.03965302096842824</v>
+        <v>0.0448639355258735</v>
       </c>
     </row>
     <row r="36">
@@ -4360,94 +4360,94 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.1235363931956964</v>
+        <v>0.137284329511183</v>
       </c>
       <c r="F36" t="n">
-        <v>0.01328499935792846</v>
+        <v>0.0556827812177773</v>
       </c>
       <c r="G36" t="n">
-        <v>0.07697029629925074</v>
+        <v>0.04068320235183844</v>
       </c>
       <c r="H36" t="n">
-        <v>0.06994983147415562</v>
+        <v>0.01169056607866108</v>
       </c>
       <c r="I36" t="n">
-        <v>0.05915200904538664</v>
+        <v>0.0061214934705065</v>
       </c>
       <c r="J36" t="n">
-        <v>0.07030479062120633</v>
+        <v>0.02293728182516669</v>
       </c>
       <c r="K36" t="n">
-        <v>0.01857520165364589</v>
+        <v>0.01444802200703416</v>
       </c>
       <c r="L36" t="n">
-        <v>0.04997272515677036</v>
+        <v>0.04881845715018743</v>
       </c>
       <c r="M36" t="n">
-        <v>0.05954197753186376</v>
+        <v>0.07161981787800459</v>
       </c>
       <c r="N36" t="n">
-        <v>0.02681212652304874</v>
+        <v>0.03402183034038772</v>
       </c>
       <c r="O36" t="n">
-        <v>0.001263996955200655</v>
+        <v>0.007230844083734951</v>
       </c>
       <c r="P36" t="n">
-        <v>0.06757692925878651</v>
+        <v>0.03981304760783491</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.03561021341881392</v>
+        <v>0.04837942717733938</v>
       </c>
       <c r="R36" t="n">
-        <v>0.07325924448646103</v>
+        <v>0.02423778742745207</v>
       </c>
       <c r="S36" t="n">
-        <v>0.02136885641436236</v>
+        <v>0.08130331134134514</v>
       </c>
       <c r="T36" t="n">
-        <v>0.004330982493356264</v>
+        <v>0.05675652928298751</v>
       </c>
       <c r="U36" t="n">
-        <v>0.003714852548380388</v>
+        <v>0.00562035244762799</v>
       </c>
       <c r="V36" t="n">
-        <v>0.004067735772516896</v>
+        <v>0.02575409803238921</v>
       </c>
       <c r="W36" t="n">
-        <v>0.009957273537457362</v>
+        <v>0.02170964891926992</v>
       </c>
       <c r="X36" t="n">
-        <v>0.02761460020763243</v>
+        <v>0.08451730668521039</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.07506032058999643</v>
+        <v>0.06709432841944328</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.06229657361725169</v>
+        <v>0.07862737994190119</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.03001449458879582</v>
+        <v>0.004804335848736015</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.03011515320752037</v>
+        <v>0.01694457262587433</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.003532715725673504</v>
+        <v>0.03411521164413505</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.001047654355036059</v>
+        <v>0.00350106233442273</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.02285131879704859</v>
+        <v>0.02592785467601502</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.02837281067237067</v>
+        <v>0.02839331099392774</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.05338031569008253</v>
+        <v>0.03924613819078928</v>
       </c>
       <c r="AH36" t="n">
-        <v>-0.02017605646655196</v>
+        <v>0.006833948126417453</v>
       </c>
     </row>
     <row r="37">
@@ -4470,94 +4470,94 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.558527489707324</v>
+        <v>0.4294399304812728</v>
       </c>
       <c r="F37" t="n">
-        <v>0.04870848669088624</v>
+        <v>0.06151086762239452</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04187762378693628</v>
+        <v>0.03094301374327535</v>
       </c>
       <c r="H37" t="n">
-        <v>0.03941129614663511</v>
+        <v>0.04796666997624236</v>
       </c>
       <c r="I37" t="n">
-        <v>0.004618944109053913</v>
+        <v>0.03668792971139533</v>
       </c>
       <c r="J37" t="n">
-        <v>0.07839251989148446</v>
+        <v>0.0003310350811704998</v>
       </c>
       <c r="K37" t="n">
-        <v>0.006445964762304707</v>
+        <v>0.0107748030098677</v>
       </c>
       <c r="L37" t="n">
-        <v>0.02232706966160562</v>
+        <v>0.02501156122462905</v>
       </c>
       <c r="M37" t="n">
-        <v>0.01736580431214602</v>
+        <v>0.01927071389053533</v>
       </c>
       <c r="N37" t="n">
-        <v>0.08347670340692714</v>
+        <v>0.06379666085744788</v>
       </c>
       <c r="O37" t="n">
-        <v>0.07825061980206237</v>
+        <v>0.06160564607019773</v>
       </c>
       <c r="P37" t="n">
-        <v>0.003685974443597028</v>
+        <v>0.04763315235856702</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.01757738098616735</v>
+        <v>0.02805803055642798</v>
       </c>
       <c r="R37" t="n">
-        <v>0.06581085501567648</v>
+        <v>0.02302292768003623</v>
       </c>
       <c r="S37" t="n">
-        <v>0.01876730143005254</v>
+        <v>0.006304597535437484</v>
       </c>
       <c r="T37" t="n">
-        <v>0.06285503352906735</v>
+        <v>0.03997090916492869</v>
       </c>
       <c r="U37" t="n">
-        <v>0.07189879465308639</v>
+        <v>0.07044778149745763</v>
       </c>
       <c r="V37" t="n">
-        <v>0.03351579775901378</v>
+        <v>0.001417468501146224</v>
       </c>
       <c r="W37" t="n">
-        <v>0.01693997678614021</v>
+        <v>0.06505652212859857</v>
       </c>
       <c r="X37" t="n">
-        <v>0.03945601925660502</v>
+        <v>0.06762081326218673</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.02532321550154157</v>
+        <v>0.003332058285083674</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.05883167226205312</v>
+        <v>0.06042256076451482</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.06254978709108386</v>
+        <v>0.004856333358307422</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.04747369732359679</v>
+        <v>0.06707173317342628</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.002657679774634951</v>
+        <v>0.0100238298008614</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.00162403800079829</v>
+        <v>0.0004551862578724325</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.02258904985896449</v>
+        <v>0.03971837014175547</v>
       </c>
       <c r="AF37" t="n">
-        <v>0.01404502632551278</v>
+        <v>0.05483239975863224</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.01352366743236622</v>
+        <v>0.05185642458760385</v>
       </c>
       <c r="AH37" t="n">
-        <v>-0.03475433700272285</v>
+        <v>-0.008912709965029107</v>
       </c>
     </row>
     <row r="38">
@@ -4580,94 +4580,94 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.1499907310094737</v>
+        <v>0.1525903388996254</v>
       </c>
       <c r="F38" t="n">
-        <v>0.00260129011905062</v>
+        <v>0.006236725872544912</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03727112347948174</v>
+        <v>0.03842120566565299</v>
       </c>
       <c r="H38" t="n">
-        <v>0.04413432327335823</v>
+        <v>0.03576133031201663</v>
       </c>
       <c r="I38" t="n">
-        <v>0.03214915681548387</v>
+        <v>0.08555395123582098</v>
       </c>
       <c r="J38" t="n">
-        <v>0.01239835960855465</v>
+        <v>0.0002362346232096303</v>
       </c>
       <c r="K38" t="n">
-        <v>0.008361703087889022</v>
+        <v>0.04132799495489799</v>
       </c>
       <c r="L38" t="n">
-        <v>0.07091491062115254</v>
+        <v>0.0284180698862584</v>
       </c>
       <c r="M38" t="n">
-        <v>0.02320362094215754</v>
+        <v>0.03998840997342277</v>
       </c>
       <c r="N38" t="n">
-        <v>0.01189852259455057</v>
+        <v>0.01750682530226114</v>
       </c>
       <c r="O38" t="n">
-        <v>0.0250615302824646</v>
+        <v>0.01724151887965404</v>
       </c>
       <c r="P38" t="n">
-        <v>0.003043080127542603</v>
+        <v>0.005883252172461291</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.02088472739015944</v>
+        <v>0.03996311204479184</v>
       </c>
       <c r="R38" t="n">
-        <v>0.06816525280733063</v>
+        <v>0.05342138061370443</v>
       </c>
       <c r="S38" t="n">
-        <v>0.05608170585526136</v>
+        <v>0.06127616135785524</v>
       </c>
       <c r="T38" t="n">
-        <v>0.04874709780294888</v>
+        <v>0.06959145113486748</v>
       </c>
       <c r="U38" t="n">
-        <v>0.02647933094280019</v>
+        <v>0.05356434868506191</v>
       </c>
       <c r="V38" t="n">
-        <v>0.05934405893612735</v>
+        <v>0.06303918751463146</v>
       </c>
       <c r="W38" t="n">
-        <v>0.02335536155960874</v>
+        <v>2.793892181580371e-05</v>
       </c>
       <c r="X38" t="n">
-        <v>0.06827410614155814</v>
+        <v>0.005915497915201712</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.05158141392482491</v>
+        <v>0.04695293916766087</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.0166232088323062</v>
+        <v>0.001715509796399527</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.01431454120410909</v>
+        <v>0.01934034851024996</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.06157386354488773</v>
+        <v>0.08291611279186811</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.06552879370350113</v>
+        <v>0.06797192883104454</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.05099248939110553</v>
+        <v>0.02253243200980911</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.01936483865591912</v>
+        <v>0.01059807934122964</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.01011997326015626</v>
+        <v>0.003913104753120703</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.0675316150957093</v>
+        <v>0.08068494773248711</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.06848632483978156</v>
+        <v>0.05364672900890752</v>
       </c>
     </row>
     <row r="39">
@@ -4690,94 +4690,94 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.6517804729353855</v>
+        <v>0.5692192597851657</v>
       </c>
       <c r="F39" t="n">
-        <v>0.07949537815966666</v>
+        <v>0.03328056046137873</v>
       </c>
       <c r="G39" t="n">
-        <v>0.001692630809847446</v>
+        <v>0.03447674805345101</v>
       </c>
       <c r="H39" t="n">
-        <v>0.02894218579287385</v>
+        <v>0.004884795846128896</v>
       </c>
       <c r="I39" t="n">
-        <v>0.08069007454099558</v>
+        <v>0.02971008195802538</v>
       </c>
       <c r="J39" t="n">
-        <v>0.01491927062291908</v>
+        <v>6.2999846375408e-05</v>
       </c>
       <c r="K39" t="n">
-        <v>0.07001690114816556</v>
+        <v>0.07443425802883906</v>
       </c>
       <c r="L39" t="n">
-        <v>0.05535712708541535</v>
+        <v>0.01423555293428292</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0203878100328285</v>
+        <v>0.0467423727022452</v>
       </c>
       <c r="N39" t="n">
-        <v>0.05346112836977887</v>
+        <v>0.007938751378907137</v>
       </c>
       <c r="O39" t="n">
-        <v>0.01770545530120977</v>
+        <v>0.06118499452273311</v>
       </c>
       <c r="P39" t="n">
-        <v>0.09001474071243423</v>
+        <v>0.07528267085613732</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.003491174481823013</v>
+        <v>0.076972955515743</v>
       </c>
       <c r="R39" t="n">
-        <v>0.02464864831603895</v>
+        <v>0.04529468200092457</v>
       </c>
       <c r="S39" t="n">
-        <v>0.009539067073452201</v>
+        <v>0.001631237282901707</v>
       </c>
       <c r="T39" t="n">
-        <v>0.02813002972086551</v>
+        <v>0.03993323572260729</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02236502488194904</v>
+        <v>0.06495986387238384</v>
       </c>
       <c r="V39" t="n">
-        <v>0.02918115941596509</v>
+        <v>0.04863072514608881</v>
       </c>
       <c r="W39" t="n">
-        <v>0.08377136692913163</v>
+        <v>0.0280949449594607</v>
       </c>
       <c r="X39" t="n">
-        <v>0.004015351268346902</v>
+        <v>0.002952842463585314</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.04102311356599613</v>
+        <v>0.02127330070167597</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.04750853075322009</v>
+        <v>0.02694490434262111</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.0371007331895704</v>
+        <v>0.06479562271126049</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.02570642516888602</v>
+        <v>0.00837318493702935</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.03914328949940491</v>
+        <v>0.01398912622381223</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.07146987445088662</v>
+        <v>0.07278712840766238</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.01133937628098533</v>
+        <v>0.001960622053740671</v>
       </c>
       <c r="AF39" t="n">
-        <v>0.0005129693414622385</v>
+        <v>0.0686892003407707</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.00837116308588115</v>
+        <v>0.03048263672922777</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.0199839961794979</v>
+        <v>0.03163237605066666</v>
       </c>
     </row>
     <row r="40">
@@ -4800,94 +4800,94 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.1458022835160788</v>
+        <v>0.1475328556130588</v>
       </c>
       <c r="F40" t="n">
-        <v>0.06825568093151556</v>
+        <v>0.01820785626290912</v>
       </c>
       <c r="G40" t="n">
-        <v>0.01318368068394115</v>
+        <v>0.00128952353611696</v>
       </c>
       <c r="H40" t="n">
-        <v>0.05701197152843512</v>
+        <v>0.06367240713543908</v>
       </c>
       <c r="I40" t="n">
-        <v>0.01466890565831142</v>
+        <v>0.05956878921981258</v>
       </c>
       <c r="J40" t="n">
-        <v>0.02958920779264284</v>
+        <v>0.003057906949724085</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0008484402487888446</v>
+        <v>0.004596423935838046</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0347313652488537</v>
+        <v>0.01553845485045792</v>
       </c>
       <c r="M40" t="n">
-        <v>0.03237739680905515</v>
+        <v>0.03996759813420115</v>
       </c>
       <c r="N40" t="n">
-        <v>0.007733139856084531</v>
+        <v>0.03938685960332202</v>
       </c>
       <c r="O40" t="n">
-        <v>0.07253209549526006</v>
+        <v>0.04865575684996631</v>
       </c>
       <c r="P40" t="n">
-        <v>0.02350654993814408</v>
+        <v>0.01980823007959055</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.02621273980477957</v>
+        <v>0.008864240959991771</v>
       </c>
       <c r="R40" t="n">
-        <v>0.02390187098927482</v>
+        <v>0.007063887593621697</v>
       </c>
       <c r="S40" t="n">
-        <v>0.06118910459121726</v>
+        <v>0.0578487061576089</v>
       </c>
       <c r="T40" t="n">
-        <v>0.0538729834521277</v>
+        <v>0.01303813236669057</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01522184688857776</v>
+        <v>0.04090366756654317</v>
       </c>
       <c r="V40" t="n">
-        <v>0.02622304509481433</v>
+        <v>0.06643021609787648</v>
       </c>
       <c r="W40" t="n">
-        <v>0.03277507323286375</v>
+        <v>0.04887137015975156</v>
       </c>
       <c r="X40" t="n">
-        <v>0.03495600535637459</v>
+        <v>0.0582077530207247</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.01850211861290004</v>
+        <v>0.05328998029357806</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.08490381132841271</v>
+        <v>0.07121585087998937</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.06691837059447762</v>
+        <v>0.005761660394677081</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.03357359107674725</v>
+        <v>0.05970808841459847</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.01114041892979075</v>
+        <v>0.03897361558963722</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.00209578633207074</v>
+        <v>0.001774132606018983</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.08776065661779778</v>
+        <v>0.04391661631321157</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.007611276549563445</v>
+        <v>0.03399148080648821</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.05870286635717745</v>
+        <v>0.07639079422161427</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.08641901767341234</v>
+        <v>0.08331649048196689</v>
       </c>
     </row>
     <row r="41">
@@ -4910,94 +4910,94 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.617650408340781</v>
+        <v>0.5847371892619717</v>
       </c>
       <c r="F41" t="n">
-        <v>0.01505263761395148</v>
+        <v>0.06947486298674614</v>
       </c>
       <c r="G41" t="n">
-        <v>0.00689271485850548</v>
+        <v>0.002030848204375154</v>
       </c>
       <c r="H41" t="n">
-        <v>0.03734901911381758</v>
+        <v>0.008451024224244137</v>
       </c>
       <c r="I41" t="n">
-        <v>0.00280478629282672</v>
+        <v>0.01015443194627939</v>
       </c>
       <c r="J41" t="n">
-        <v>0.01343443381419638</v>
+        <v>4.624948373797876e-05</v>
       </c>
       <c r="K41" t="n">
-        <v>0.02988008240535426</v>
+        <v>0.006278779039456804</v>
       </c>
       <c r="L41" t="n">
-        <v>0.07684452962227553</v>
+        <v>0.04421489110829364</v>
       </c>
       <c r="M41" t="n">
-        <v>0.03486050312391489</v>
+        <v>0.004721680763461928</v>
       </c>
       <c r="N41" t="n">
-        <v>0.07174421044992119</v>
+        <v>0.06363374281511405</v>
       </c>
       <c r="O41" t="n">
-        <v>0.03082655633800184</v>
+        <v>0.07904927229298632</v>
       </c>
       <c r="P41" t="n">
-        <v>0.007246334821467794</v>
+        <v>0.04579228943173616</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.02346562651782981</v>
+        <v>0.05709272435922935</v>
       </c>
       <c r="R41" t="n">
-        <v>0.03104196721480769</v>
+        <v>0.01506544748352569</v>
       </c>
       <c r="S41" t="n">
-        <v>0.09427320921368229</v>
+        <v>0.03974999464880601</v>
       </c>
       <c r="T41" t="n">
-        <v>0.02440746134886862</v>
+        <v>0.0688350387463857</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03213844495654765</v>
+        <v>0.07478525502961887</v>
       </c>
       <c r="V41" t="n">
-        <v>0.02365224246322349</v>
+        <v>0.02584854773101301</v>
       </c>
       <c r="W41" t="n">
-        <v>0.02592177711202615</v>
+        <v>0.02807566662040882</v>
       </c>
       <c r="X41" t="n">
-        <v>0.08983087663992471</v>
+        <v>0.005106656783097322</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.02758019745001663</v>
+        <v>0.03911310847837973</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.05639470991629353</v>
+        <v>0.05032774384723798</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.001605800298138912</v>
+        <v>0.0534424356552886</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.03413131109779377</v>
+        <v>0.013047949659477</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.02671835007875885</v>
+        <v>0.00184206639953155</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.09235453575570342</v>
+        <v>0.08664559903437972</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.0426439727333674</v>
+        <v>0.04763063956367578</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.01277333027171715</v>
+        <v>0.0130557687120516</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.03413037847706694</v>
+        <v>0.04648728495146157</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.07718566283865606</v>
+        <v>0.09893546984896687</v>
       </c>
     </row>
     <row r="42">
@@ -5020,94 +5020,94 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.1383615531771422</v>
+        <v>0.1364915927030822</v>
       </c>
       <c r="F42" t="n">
-        <v>0.01880388636981374</v>
+        <v>0.006990248456947597</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03944347450433292</v>
+        <v>0.03501999241894554</v>
       </c>
       <c r="H42" t="n">
-        <v>0.05021877904169308</v>
+        <v>0.0222576756034464</v>
       </c>
       <c r="I42" t="n">
-        <v>0.01546064782127214</v>
+        <v>0.004606181326832575</v>
       </c>
       <c r="J42" t="n">
-        <v>0.04392039113225315</v>
+        <v>0.03555847208378994</v>
       </c>
       <c r="K42" t="n">
-        <v>0.03980075937770452</v>
+        <v>0.01159861228313365</v>
       </c>
       <c r="L42" t="n">
-        <v>0.05170224026809549</v>
+        <v>0.01260264326356474</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0006865452932615996</v>
+        <v>0.002862567939421358</v>
       </c>
       <c r="N42" t="n">
-        <v>0.07603517225505299</v>
+        <v>0.04401237427299896</v>
       </c>
       <c r="O42" t="n">
-        <v>0.02557402058578671</v>
+        <v>0.06236713646134658</v>
       </c>
       <c r="P42" t="n">
-        <v>0.006294722008986522</v>
+        <v>0.05800581614204598</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.01597634828530551</v>
+        <v>0.05770175886020078</v>
       </c>
       <c r="R42" t="n">
-        <v>0.06163700242611146</v>
+        <v>0.04587440286932954</v>
       </c>
       <c r="S42" t="n">
-        <v>0.000292481423749738</v>
+        <v>0.05333665604864396</v>
       </c>
       <c r="T42" t="n">
-        <v>0.07368081061168059</v>
+        <v>0.04518812642388916</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02745335433493213</v>
+        <v>0.0117611803971317</v>
       </c>
       <c r="V42" t="n">
-        <v>0.04083770348828834</v>
+        <v>0.06533020945210062</v>
       </c>
       <c r="W42" t="n">
-        <v>0.00931265815956772</v>
+        <v>0.0211320260840705</v>
       </c>
       <c r="X42" t="n">
-        <v>0.05241931791224076</v>
+        <v>0.04807610896501677</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.04120858871358771</v>
+        <v>0.06106983863463514</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.02081981172140093</v>
+        <v>0.001833868634171536</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.012555723206118</v>
+        <v>0.05790378459336471</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.08078198630781375</v>
+        <v>0.04085507055836581</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.06214000984001847</v>
+        <v>0.07039665643869715</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.01249668904519067</v>
+        <v>0.009797987206897878</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.02479276856623714</v>
+        <v>0.01661786902120087</v>
       </c>
       <c r="AF42" t="n">
-        <v>0.02066896634141346</v>
+        <v>0.04771067920166847</v>
       </c>
       <c r="AG42" t="n">
-        <v>0.07498514095809065</v>
+        <v>0.04953205635814224</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.06866515010991857</v>
+        <v>0.05905396319170902</v>
       </c>
     </row>
     <row r="43">
@@ -5130,94 +5130,94 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.4633312397461265</v>
+        <v>0.3937847897221554</v>
       </c>
       <c r="F43" t="n">
-        <v>0.05290240804837356</v>
+        <v>0.00527966105227059</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01412273909406036</v>
+        <v>0.04800072593177187</v>
       </c>
       <c r="H43" t="n">
-        <v>0.01365739934824752</v>
+        <v>0.04255862361592038</v>
       </c>
       <c r="I43" t="n">
-        <v>0.009982334549961952</v>
+        <v>0.03725148559002037</v>
       </c>
       <c r="J43" t="n">
-        <v>0.04360150813758316</v>
+        <v>0.04837023428391911</v>
       </c>
       <c r="K43" t="n">
-        <v>0.05480850581715992</v>
+        <v>0.05982045921283888</v>
       </c>
       <c r="L43" t="n">
-        <v>0.074569148375127</v>
+        <v>0.01391766739178654</v>
       </c>
       <c r="M43" t="n">
-        <v>0.07671339938688838</v>
+        <v>0.06675375411564229</v>
       </c>
       <c r="N43" t="n">
-        <v>0.004410920318686819</v>
+        <v>0.01175583429442398</v>
       </c>
       <c r="O43" t="n">
-        <v>0.07129157839196888</v>
+        <v>0.07094280634004051</v>
       </c>
       <c r="P43" t="n">
-        <v>0.0003604008059473238</v>
+        <v>0.006189579826111915</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.01522071933218658</v>
+        <v>0.03525094777532917</v>
       </c>
       <c r="R43" t="n">
-        <v>0.01574135895000272</v>
+        <v>0.07156321914115917</v>
       </c>
       <c r="S43" t="n">
-        <v>0.02788210611703233</v>
+        <v>0.00230704565680447</v>
       </c>
       <c r="T43" t="n">
-        <v>0.04902137024197507</v>
+        <v>0.07702719001581354</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05462731011669265</v>
+        <v>0.005364372377255109</v>
       </c>
       <c r="V43" t="n">
-        <v>0.03157719614864499</v>
+        <v>0.0439525828575618</v>
       </c>
       <c r="W43" t="n">
-        <v>0.06489220601238627</v>
+        <v>0.02463009183755148</v>
       </c>
       <c r="X43" t="n">
-        <v>0.07552359788574621</v>
+        <v>0.04058251377993972</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.002246998344987538</v>
+        <v>0.02711010891222733</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.008944284533836916</v>
+        <v>0.007974857220812811</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.03341516173190009</v>
+        <v>0.02153555282830554</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.01718409622844241</v>
+        <v>0.004771505787905366</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.00897039991877714</v>
+        <v>0.02414548974840236</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.06984045536169269</v>
+        <v>0.06633713890683703</v>
       </c>
       <c r="AE43" t="n">
-        <v>0.02777146383040027</v>
+        <v>0.0170713790525179</v>
       </c>
       <c r="AF43" t="n">
-        <v>0.02417846399503154</v>
+        <v>0.04480232672005394</v>
       </c>
       <c r="AG43" t="n">
-        <v>0.05654246897625984</v>
+        <v>0.07473284572677684</v>
       </c>
       <c r="AH43" t="n">
-        <v>0.07274880243283416</v>
+        <v>0.06829320679610898</v>
       </c>
     </row>
     <row r="44">
@@ -5240,94 +5240,94 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.1307985882255966</v>
+        <v>0.1264586305352577</v>
       </c>
       <c r="F44" t="n">
-        <v>0.05262278314417371</v>
+        <v>0.01635749013879318</v>
       </c>
       <c r="G44" t="n">
-        <v>0.01737097899363291</v>
+        <v>0.0230432230296828</v>
       </c>
       <c r="H44" t="n">
-        <v>0.04365620814412945</v>
+        <v>0.0635375799266821</v>
       </c>
       <c r="I44" t="n">
-        <v>0.04807632867624097</v>
+        <v>0.009605931322747584</v>
       </c>
       <c r="J44" t="n">
-        <v>0.004953535234544177</v>
+        <v>0.01835575855678757</v>
       </c>
       <c r="K44" t="n">
-        <v>0.04051857375383464</v>
+        <v>0.020400771548023</v>
       </c>
       <c r="L44" t="n">
-        <v>0.006190414674990291</v>
+        <v>0.0153038984574069</v>
       </c>
       <c r="M44" t="n">
-        <v>0.03645876525603238</v>
+        <v>0.04694799947859914</v>
       </c>
       <c r="N44" t="n">
-        <v>0.07093395463782211</v>
+        <v>0.04573986816563062</v>
       </c>
       <c r="O44" t="n">
-        <v>0.04642515349851255</v>
+        <v>0.009441042346710619</v>
       </c>
       <c r="P44" t="n">
-        <v>0.01845381281784791</v>
+        <v>0.0585602953414755</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.003011876891442526</v>
+        <v>0.001493125025997039</v>
       </c>
       <c r="R44" t="n">
-        <v>0.04213047724145397</v>
+        <v>0.02543746243504553</v>
       </c>
       <c r="S44" t="n">
-        <v>0.01000881070910351</v>
+        <v>0.006046817226762178</v>
       </c>
       <c r="T44" t="n">
-        <v>0.06129571850845082</v>
+        <v>0.05780476272997213</v>
       </c>
       <c r="U44" t="n">
-        <v>0.02500685688991764</v>
+        <v>0.004570969671560622</v>
       </c>
       <c r="V44" t="n">
-        <v>0.06640377691237975</v>
+        <v>0.07463641930935257</v>
       </c>
       <c r="W44" t="n">
-        <v>0.04013329124793651</v>
+        <v>0.05333407213431372</v>
       </c>
       <c r="X44" t="n">
-        <v>0.005730519538983117</v>
+        <v>0.008047825505448893</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.05030103610320879</v>
+        <v>0.07533424127331723</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.01141216974862481</v>
+        <v>0.03333326642134184</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.03905043036539454</v>
+        <v>0.05282465432299966</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.03703632928047725</v>
+        <v>0.06921628816793499</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.05653854212193552</v>
+        <v>0.02054372373736608</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.0346715675139888</v>
+        <v>0.03634445726927498</v>
       </c>
       <c r="AE44" t="n">
-        <v>0.02252616544712507</v>
+        <v>0.08250042273451827</v>
       </c>
       <c r="AF44" t="n">
-        <v>0.05624906437268109</v>
+        <v>0.005474322516610157</v>
       </c>
       <c r="AG44" t="n">
-        <v>0.05283285827513526</v>
+        <v>0.06576331120564523</v>
       </c>
       <c r="AH44" t="n">
-        <v>0.09990619187727504</v>
+        <v>0.1078934540452418</v>
       </c>
     </row>
     <row r="45">
@@ -5350,94 +5350,94 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.2294239180651736</v>
+        <v>0.2671144291516064</v>
       </c>
       <c r="F45" t="n">
-        <v>0.01756533915924659</v>
+        <v>0.03016163984861875</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04903855132514206</v>
+        <v>0.0283537254990417</v>
       </c>
       <c r="H45" t="n">
-        <v>0.05792464835902885</v>
+        <v>0.06174042059460162</v>
       </c>
       <c r="I45" t="n">
-        <v>0.01104934706179198</v>
+        <v>0.00554865309341695</v>
       </c>
       <c r="J45" t="n">
-        <v>0.02269589468016403</v>
+        <v>0.02175964159427728</v>
       </c>
       <c r="K45" t="n">
-        <v>0.03170076086895011</v>
+        <v>0.03582632318992372</v>
       </c>
       <c r="L45" t="n">
-        <v>0.002574626537353744</v>
+        <v>0.009151544481268009</v>
       </c>
       <c r="M45" t="n">
-        <v>0.08758587193446958</v>
+        <v>0.02852534317847961</v>
       </c>
       <c r="N45" t="n">
-        <v>0.001326752980615099</v>
+        <v>0.01500848346639122</v>
       </c>
       <c r="O45" t="n">
-        <v>0.0883605486409433</v>
+        <v>0.06041829900167647</v>
       </c>
       <c r="P45" t="n">
-        <v>0.02610429185690769</v>
+        <v>0.02363668866576603</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.08440136171160464</v>
+        <v>0.1043869022203999</v>
       </c>
       <c r="R45" t="n">
-        <v>0.009136294450342938</v>
+        <v>0.01031959097589235</v>
       </c>
       <c r="S45" t="n">
-        <v>0.04377148723249028</v>
+        <v>0.03744679260791371</v>
       </c>
       <c r="T45" t="n">
-        <v>0.01803845078233273</v>
+        <v>0.005569864346830833</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04957723840416133</v>
+        <v>0.05039335222214553</v>
       </c>
       <c r="V45" t="n">
-        <v>0.03419825515666634</v>
+        <v>0.02444178088386167</v>
       </c>
       <c r="W45" t="n">
-        <v>0.003478670700358217</v>
+        <v>0.01057220703502262</v>
       </c>
       <c r="X45" t="n">
-        <v>0.03693155698425798</v>
+        <v>0.006752157977411997</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.01602960451153008</v>
+        <v>0.01558794769659942</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.05095633923154066</v>
+        <v>0.01835187768822477</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.009584686163494551</v>
+        <v>0.02429172104474363</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.003156043627504909</v>
+        <v>0.08561813678998503</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.04347248103490694</v>
+        <v>0.05189255142990003</v>
       </c>
       <c r="AD45" t="n">
-        <v>0.06806392807584294</v>
+        <v>0.08615899854962539</v>
       </c>
       <c r="AE45" t="n">
-        <v>0.0642693760518853</v>
+        <v>0.02944089635648062</v>
       </c>
       <c r="AF45" t="n">
-        <v>0.003945781699857479</v>
+        <v>0.06576223690017299</v>
       </c>
       <c r="AG45" t="n">
-        <v>0.06506181077660986</v>
+        <v>0.05288222266132812</v>
       </c>
       <c r="AH45" t="n">
-        <v>0.1521062702454692</v>
+        <v>0.1255948523476704</v>
       </c>
     </row>
     <row r="46">
@@ -5460,94 +5460,94 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.2425427030181203</v>
+        <v>0.2702444856255158</v>
       </c>
       <c r="F46" t="n">
-        <v>0.004745485257003606</v>
+        <v>0.05986321795175392</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06390441076433756</v>
+        <v>0.06693214113096141</v>
       </c>
       <c r="H46" t="n">
-        <v>0.04366054704595995</v>
+        <v>0.01827262499893563</v>
       </c>
       <c r="I46" t="n">
-        <v>0.01814872590997705</v>
+        <v>0.03437998109210005</v>
       </c>
       <c r="J46" t="n">
-        <v>0.01174996328180915</v>
+        <v>0.01371131565481656</v>
       </c>
       <c r="K46" t="n">
-        <v>0.005011077459887417</v>
+        <v>0.02439924798710758</v>
       </c>
       <c r="L46" t="n">
-        <v>0.06478384183069223</v>
+        <v>0.03470427649246362</v>
       </c>
       <c r="M46" t="n">
-        <v>0.03541337665809156</v>
+        <v>0.002960837630619741</v>
       </c>
       <c r="N46" t="n">
-        <v>0.02999462049166083</v>
+        <v>0.07111526262538174</v>
       </c>
       <c r="O46" t="n">
-        <v>0.03924017946071032</v>
+        <v>0.002198221001798661</v>
       </c>
       <c r="P46" t="n">
-        <v>0.008050107501871328</v>
+        <v>0.0003423504810180764</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.00651133051467643</v>
+        <v>0.002738540150003098</v>
       </c>
       <c r="R46" t="n">
-        <v>0.05933041091775886</v>
+        <v>0.07178821121296743</v>
       </c>
       <c r="S46" t="n">
-        <v>0.06706227958096245</v>
+        <v>0.001107584971731399</v>
       </c>
       <c r="T46" t="n">
-        <v>0.01458252872784756</v>
+        <v>0.03397483568770116</v>
       </c>
       <c r="U46" t="n">
-        <v>0.004897522414077171</v>
+        <v>0.04765205001340835</v>
       </c>
       <c r="V46" t="n">
-        <v>0.06715024206814804</v>
+        <v>0.054784726084409</v>
       </c>
       <c r="W46" t="n">
-        <v>0.06796646635934341</v>
+        <v>0.09604039040691308</v>
       </c>
       <c r="X46" t="n">
-        <v>0.05940948340271651</v>
+        <v>0.0441415956121541</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.004618128649050857</v>
+        <v>0.05090131111608381</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.01692540184577953</v>
+        <v>0.0803289279804736</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.06969395259463476</v>
+        <v>0.04253202509937969</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.003225986202696133</v>
+        <v>0.01162811719356671</v>
       </c>
       <c r="AC46" t="n">
-        <v>0.06415071676544974</v>
+        <v>0.0253787350789806</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.06236950125260301</v>
+        <v>0.02177702255139674</v>
       </c>
       <c r="AE46" t="n">
-        <v>0.03015800165462182</v>
+        <v>0.06804950909595792</v>
       </c>
       <c r="AF46" t="n">
-        <v>0.06101245045734899</v>
+        <v>0.01142873463289528</v>
       </c>
       <c r="AG46" t="n">
-        <v>0.01623326093028364</v>
+        <v>0.006868206065021252</v>
       </c>
       <c r="AH46" t="n">
-        <v>-0.01934699867138071</v>
+        <v>-0.003496426028974831</v>
       </c>
     </row>
     <row r="47">
@@ -5570,94 +5570,94 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.9650676949728731</v>
+        <v>1.176668833116474</v>
       </c>
       <c r="F47" t="n">
-        <v>0.01966728064666894</v>
+        <v>0.04473500363996547</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0006782578594592637</v>
+        <v>0.04320102461112861</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0668253511174835</v>
+        <v>0.0165740398552593</v>
       </c>
       <c r="I47" t="n">
-        <v>0.04595496957318521</v>
+        <v>0.01849654998964392</v>
       </c>
       <c r="J47" t="n">
-        <v>0.05434851873199881</v>
+        <v>0.06119201416419796</v>
       </c>
       <c r="K47" t="n">
-        <v>0.03956563151317239</v>
+        <v>0.04235352095723138</v>
       </c>
       <c r="L47" t="n">
-        <v>0.003357386291955348</v>
+        <v>0.00211852836030572</v>
       </c>
       <c r="M47" t="n">
-        <v>0.05845871526415385</v>
+        <v>0.06536847447162193</v>
       </c>
       <c r="N47" t="n">
-        <v>0.00390517721796867</v>
+        <v>0.06768597966983234</v>
       </c>
       <c r="O47" t="n">
-        <v>0.01141229978975797</v>
+        <v>0.0259754345161635</v>
       </c>
       <c r="P47" t="n">
-        <v>0.0595330032458446</v>
+        <v>0.07391837623320749</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.02165171124889191</v>
+        <v>0.05012578161503782</v>
       </c>
       <c r="R47" t="n">
-        <v>0.02760891641867519</v>
+        <v>0.005682922968145512</v>
       </c>
       <c r="S47" t="n">
-        <v>0.0211145395152158</v>
+        <v>0.01864257803949882</v>
       </c>
       <c r="T47" t="n">
-        <v>0.03794273277181533</v>
+        <v>0.007760976307513006</v>
       </c>
       <c r="U47" t="n">
-        <v>0.001192620420345762</v>
+        <v>0.003997051817456162</v>
       </c>
       <c r="V47" t="n">
-        <v>0.01667629512766335</v>
+        <v>0.01202004106705839</v>
       </c>
       <c r="W47" t="n">
-        <v>0.06076289301438955</v>
+        <v>0.07546644326106541</v>
       </c>
       <c r="X47" t="n">
-        <v>0.07416301778611133</v>
+        <v>0.001837267524764233</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.01544485531483193</v>
+        <v>0.07596939103595735</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.03030892705527175</v>
+        <v>0.0418334653400001</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.06151043779442979</v>
+        <v>0.02565660869138289</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.00328051690764263</v>
+        <v>0.03555378055746362</v>
       </c>
       <c r="AC47" t="n">
-        <v>0.0116043057621135</v>
+        <v>0.02640302758092256</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.06484792081974121</v>
+        <v>0.004417310524518347</v>
       </c>
       <c r="AE47" t="n">
-        <v>0.04014366940132286</v>
+        <v>0.05691778970191289</v>
       </c>
       <c r="AF47" t="n">
-        <v>0.07132951164847168</v>
+        <v>0.02163733009449552</v>
       </c>
       <c r="AG47" t="n">
-        <v>0.07671053774141783</v>
+        <v>0.07445928740424976</v>
       </c>
       <c r="AH47" t="n">
-        <v>-0.02357960168657757</v>
+        <v>-0.01689249050160457</v>
       </c>
     </row>
     <row r="48">
@@ -5680,94 +5680,94 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.1560841641563354</v>
+        <v>0.1474940448214686</v>
       </c>
       <c r="F48" t="n">
-        <v>0.006023118217581888</v>
+        <v>0.03760566332881135</v>
       </c>
       <c r="G48" t="n">
-        <v>0.006689026951883278</v>
+        <v>0.002873245589998236</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0404434457879291</v>
+        <v>0.0766581059052811</v>
       </c>
       <c r="I48" t="n">
-        <v>0.06255863383831298</v>
+        <v>0.03840641509191987</v>
       </c>
       <c r="J48" t="n">
-        <v>0.05093068503151208</v>
+        <v>0.075802455861121</v>
       </c>
       <c r="K48" t="n">
-        <v>0.008694485934676194</v>
+        <v>0.01136591433157165</v>
       </c>
       <c r="L48" t="n">
-        <v>0.02179151251535993</v>
+        <v>0.01473250444579674</v>
       </c>
       <c r="M48" t="n">
-        <v>0.05359216444883119</v>
+        <v>0.07532404601150687</v>
       </c>
       <c r="N48" t="n">
-        <v>0.009252808967282332</v>
+        <v>0.0633786180636582</v>
       </c>
       <c r="O48" t="n">
-        <v>0.05936393180469876</v>
+        <v>0.07539398836550984</v>
       </c>
       <c r="P48" t="n">
-        <v>0.05274581448923208</v>
+        <v>0.01165375071530274</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.05739877560639935</v>
+        <v>0.05353453290876256</v>
       </c>
       <c r="R48" t="n">
-        <v>0.03301975980884512</v>
+        <v>0.02358323415411159</v>
       </c>
       <c r="S48" t="n">
-        <v>0.02118055797916369</v>
+        <v>0.003872390301352304</v>
       </c>
       <c r="T48" t="n">
-        <v>0.0598165916358209</v>
+        <v>0.04132935771656052</v>
       </c>
       <c r="U48" t="n">
-        <v>0.01124700179895139</v>
+        <v>0.01460550405645098</v>
       </c>
       <c r="V48" t="n">
-        <v>0.04033243430380128</v>
+        <v>0.002553019039578352</v>
       </c>
       <c r="W48" t="n">
-        <v>0.06034570953679867</v>
+        <v>0.00697538549400731</v>
       </c>
       <c r="X48" t="n">
-        <v>0.05793496958999935</v>
+        <v>0.06424055400829062</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.05137027633684461</v>
+        <v>0.06990177471495533</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.008904274845200198</v>
+        <v>0.01339395943454905</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.009938572176470506</v>
+        <v>0.008876656485456111</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.05878381885641328</v>
+        <v>0.06576651700768833</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.0283936401267938</v>
+        <v>0.01336747918452181</v>
       </c>
       <c r="AD48" t="n">
-        <v>0.01547445441589938</v>
+        <v>0.02614969305766414</v>
       </c>
       <c r="AE48" t="n">
-        <v>0.02526520781094242</v>
+        <v>0.0267407973525171</v>
       </c>
       <c r="AF48" t="n">
-        <v>0.05934610899587738</v>
+        <v>0.06795715567706913</v>
       </c>
       <c r="AG48" t="n">
-        <v>0.02916221818847907</v>
+        <v>0.01395728169598733</v>
       </c>
       <c r="AH48" t="n">
-        <v>-0.004870767366091713</v>
+        <v>-0.01535615523704638</v>
       </c>
     </row>
     <row r="49">
@@ -5790,94 +5790,94 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.2128913787402953</v>
+        <v>0.2261234902151471</v>
       </c>
       <c r="F49" t="n">
-        <v>0.07579712630531794</v>
+        <v>0.0755024770155055</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04459741647712723</v>
+        <v>0.04579494017906514</v>
       </c>
       <c r="H49" t="n">
-        <v>0.06546467836512743</v>
+        <v>0.04441903560900571</v>
       </c>
       <c r="I49" t="n">
-        <v>0.05832338286129372</v>
+        <v>0.05493465187527649</v>
       </c>
       <c r="J49" t="n">
-        <v>0.06471378032653757</v>
+        <v>0.07949778882711972</v>
       </c>
       <c r="K49" t="n">
-        <v>0.0605634995023922</v>
+        <v>0.0813796342006378</v>
       </c>
       <c r="L49" t="n">
-        <v>0.01513472222419907</v>
+        <v>0.01053449215726542</v>
       </c>
       <c r="M49" t="n">
-        <v>0.04169993078831483</v>
+        <v>0.003353610561829263</v>
       </c>
       <c r="N49" t="n">
-        <v>0.0625005101778556</v>
+        <v>0.03603991982480934</v>
       </c>
       <c r="O49" t="n">
-        <v>0.01305817994865482</v>
+        <v>0.02532647165098263</v>
       </c>
       <c r="P49" t="n">
-        <v>0.01122974137184455</v>
+        <v>0.008325030558567245</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.055864590375248</v>
+        <v>0.06539820785321146</v>
       </c>
       <c r="R49" t="n">
-        <v>0.006567940257688116</v>
+        <v>0.06601903590683496</v>
       </c>
       <c r="S49" t="n">
-        <v>0.006566602024999353</v>
+        <v>0.005240433731517724</v>
       </c>
       <c r="T49" t="n">
-        <v>0.07783792248966871</v>
+        <v>0.01410848712286813</v>
       </c>
       <c r="U49" t="n">
-        <v>0.04136322123298587</v>
+        <v>0.0008522439864298481</v>
       </c>
       <c r="V49" t="n">
-        <v>0.00476019491889884</v>
+        <v>0.0360101375376688</v>
       </c>
       <c r="W49" t="n">
-        <v>0.05249577261755771</v>
+        <v>0.05815564287692252</v>
       </c>
       <c r="X49" t="n">
-        <v>0.001507122503406072</v>
+        <v>0.04504648096802529</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.02643404114546822</v>
+        <v>0.05594696907244968</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.0224240609343994</v>
+        <v>0.0352832914014276</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.001836536842788563</v>
+        <v>0.00479602378825566</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.003394982878045682</v>
+        <v>0.04412718687721134</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.03655660368083488</v>
+        <v>0.0226978239655091</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.03115762815593723</v>
+        <v>0.01728583550802399</v>
       </c>
       <c r="AE49" t="n">
-        <v>0.02836869550266871</v>
+        <v>0.03336217003406757</v>
       </c>
       <c r="AF49" t="n">
-        <v>0.04205814553968599</v>
+        <v>0.01159824319726349</v>
       </c>
       <c r="AG49" t="n">
-        <v>0.04772297055105376</v>
+        <v>0.01896373371224871</v>
       </c>
       <c r="AH49" t="n">
-        <v>-0.006711351336627308</v>
+        <v>-0.009968117821884599</v>
       </c>
     </row>
     <row r="50">
@@ -5900,94 +5900,94 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.1357618744997554</v>
+        <v>0.1372364339575559</v>
       </c>
       <c r="F50" t="n">
-        <v>0.01022016599939466</v>
+        <v>0.06873331366024897</v>
       </c>
       <c r="G50" t="n">
-        <v>0.00519831245424562</v>
+        <v>0.06754803382510623</v>
       </c>
       <c r="H50" t="n">
-        <v>0.08614850877500567</v>
+        <v>0.0216492149847738</v>
       </c>
       <c r="I50" t="n">
-        <v>0.005946677068079651</v>
+        <v>0.00162980193036384</v>
       </c>
       <c r="J50" t="n">
-        <v>0.00758917836285518</v>
+        <v>0.006040972509782308</v>
       </c>
       <c r="K50" t="n">
-        <v>0.02089480822586296</v>
+        <v>0.00405901371978535</v>
       </c>
       <c r="L50" t="n">
-        <v>0.007938972042592904</v>
+        <v>0.06728186753985392</v>
       </c>
       <c r="M50" t="n">
-        <v>0.06654306092597602</v>
+        <v>0.005019065175340108</v>
       </c>
       <c r="N50" t="n">
-        <v>0.02483733109400691</v>
+        <v>0.04031007488204857</v>
       </c>
       <c r="O50" t="n">
-        <v>0.08587935057996775</v>
+        <v>0.05624653800543155</v>
       </c>
       <c r="P50" t="n">
-        <v>0.02411140969410292</v>
+        <v>0.03417187631791777</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.0100182838992194</v>
+        <v>0.0629284800605239</v>
       </c>
       <c r="R50" t="n">
-        <v>0.08665214306641189</v>
+        <v>0.05388969782109174</v>
       </c>
       <c r="S50" t="n">
-        <v>0.008780543778194592</v>
+        <v>0.05399949522742838</v>
       </c>
       <c r="T50" t="n">
-        <v>0.01445456683471569</v>
+        <v>0.008243194640350629</v>
       </c>
       <c r="U50" t="n">
-        <v>0.0459604635954296</v>
+        <v>0.0325507818448531</v>
       </c>
       <c r="V50" t="n">
-        <v>0.07521558265574049</v>
+        <v>0.0630281913602426</v>
       </c>
       <c r="W50" t="n">
-        <v>0.01282265509908188</v>
+        <v>0.008715736900273411</v>
       </c>
       <c r="X50" t="n">
-        <v>0.004202054528114272</v>
+        <v>0.04234002622574935</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.01516294025442152</v>
+        <v>0.01260683398870149</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.02380557954749419</v>
+        <v>0.04641232200650632</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.07690838034628847</v>
+        <v>0.06269963327604994</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.08579415591242517</v>
+        <v>0.06233960802668374</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.04606040279141243</v>
+        <v>0.01584011511867341</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.001279295535766164</v>
+        <v>0.04597767690920475</v>
       </c>
       <c r="AE50" t="n">
-        <v>0.08052854614627551</v>
+        <v>0.04700976477235096</v>
       </c>
       <c r="AF50" t="n">
-        <v>0.04638309828258815</v>
+        <v>0.00408621487241572</v>
       </c>
       <c r="AG50" t="n">
-        <v>0.02066353250433041</v>
+        <v>0.004642454398248223</v>
       </c>
       <c r="AH50" t="n">
-        <v>0.1444805616251881</v>
+        <v>0.1452862551936347</v>
       </c>
     </row>
     <row r="51">
@@ -6010,94 +6010,94 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.2314476042444963</v>
+        <v>0.2360621761020209</v>
       </c>
       <c r="F51" t="n">
-        <v>0.03548606709926735</v>
+        <v>0.003108190139594488</v>
       </c>
       <c r="G51" t="n">
-        <v>0.01644272211189389</v>
+        <v>0.06646422200117029</v>
       </c>
       <c r="H51" t="n">
-        <v>0.02628337328036303</v>
+        <v>0.07030398744073095</v>
       </c>
       <c r="I51" t="n">
-        <v>0.07235311338699546</v>
+        <v>0.07263900833334544</v>
       </c>
       <c r="J51" t="n">
-        <v>0.03100131953161597</v>
+        <v>0.002592314538777416</v>
       </c>
       <c r="K51" t="n">
-        <v>0.07018241882399844</v>
+        <v>0.07838663619049252</v>
       </c>
       <c r="L51" t="n">
-        <v>0.01834855179245954</v>
+        <v>0.01707288863317198</v>
       </c>
       <c r="M51" t="n">
-        <v>0.001711520832284551</v>
+        <v>0.004138837053465563</v>
       </c>
       <c r="N51" t="n">
-        <v>0.06877874654665231</v>
+        <v>0.06640809466275785</v>
       </c>
       <c r="O51" t="n">
-        <v>0.02490656797863839</v>
+        <v>0.01846096082856772</v>
       </c>
       <c r="P51" t="n">
-        <v>0.01145441722365754</v>
+        <v>0.007056946481812698</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.04000389609364661</v>
+        <v>0.04623317730720644</v>
       </c>
       <c r="R51" t="n">
-        <v>0.03890362187809403</v>
+        <v>0.0287076229087067</v>
       </c>
       <c r="S51" t="n">
-        <v>0.0184774277577593</v>
+        <v>0.03149723470320232</v>
       </c>
       <c r="T51" t="n">
-        <v>0.04869018310977246</v>
+        <v>0.00246003263493477</v>
       </c>
       <c r="U51" t="n">
-        <v>0.06304844662842121</v>
+        <v>0.007019665410948309</v>
       </c>
       <c r="V51" t="n">
-        <v>0.009028525698390365</v>
+        <v>0.06842617814707951</v>
       </c>
       <c r="W51" t="n">
-        <v>0.01255245087887534</v>
+        <v>0.02096148611425278</v>
       </c>
       <c r="X51" t="n">
-        <v>0.01375177723961503</v>
+        <v>0.02392985341366904</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.07148996815203019</v>
+        <v>0.06036252451246236</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.07265555905531071</v>
+        <v>0.009353078693184686</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.06946021562267755</v>
+        <v>0.05076261340060761</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.001475142950917113</v>
+        <v>0.03091686459274128</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.06903720913856234</v>
+        <v>0.05748317152421326</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.0177705552849947</v>
+        <v>0.05226985566286189</v>
       </c>
       <c r="AE51" t="n">
-        <v>0.04475606914609781</v>
+        <v>0.08116336252857204</v>
       </c>
       <c r="AF51" t="n">
-        <v>0.004967732753223462</v>
+        <v>0.0006841456127582201</v>
       </c>
       <c r="AG51" t="n">
-        <v>0.02698240000378539</v>
+        <v>0.02113704652871199</v>
       </c>
       <c r="AH51" t="n">
-        <v>0.1583727658369761</v>
+        <v>0.1318562817745093</v>
       </c>
     </row>
     <row r="52">
@@ -6120,94 +6120,94 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.155068975863467</v>
+        <v>0.1571150869098548</v>
       </c>
       <c r="F52" t="n">
-        <v>0.03564639479224362</v>
+        <v>0.04238319684154785</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04438060159752916</v>
+        <v>0.06089199315464797</v>
       </c>
       <c r="H52" t="n">
-        <v>0.03875403573813072</v>
+        <v>0.003784425098425744</v>
       </c>
       <c r="I52" t="n">
-        <v>0.0681406237606295</v>
+        <v>0.05101412463060316</v>
       </c>
       <c r="J52" t="n">
-        <v>0.03775796926233403</v>
+        <v>0.0158520579297321</v>
       </c>
       <c r="K52" t="n">
-        <v>0.02373544144371444</v>
+        <v>0.01388727110244352</v>
       </c>
       <c r="L52" t="n">
-        <v>0.01049517962947262</v>
+        <v>0.05556118029168478</v>
       </c>
       <c r="M52" t="n">
-        <v>0.03647523969091389</v>
+        <v>0.0516361332186324</v>
       </c>
       <c r="N52" t="n">
-        <v>0.0007700503665593617</v>
+        <v>0.0037394885119798</v>
       </c>
       <c r="O52" t="n">
-        <v>0.03816043118499822</v>
+        <v>0.0121605119071637</v>
       </c>
       <c r="P52" t="n">
-        <v>0.006466471439128172</v>
+        <v>0.06574166793623826</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.02259663123806255</v>
+        <v>0.04563098643817008</v>
       </c>
       <c r="R52" t="n">
-        <v>0.04310984906224107</v>
+        <v>0.02557511875962805</v>
       </c>
       <c r="S52" t="n">
-        <v>0.0877808931445178</v>
+        <v>0.04881583891314419</v>
       </c>
       <c r="T52" t="n">
-        <v>0.08144813476164135</v>
+        <v>0.04361552804655799</v>
       </c>
       <c r="U52" t="n">
-        <v>0.0003361932733479254</v>
+        <v>0.0339287554011336</v>
       </c>
       <c r="V52" t="n">
-        <v>0.08501069970776179</v>
+        <v>0.07140052032354235</v>
       </c>
       <c r="W52" t="n">
-        <v>0.04455989799602739</v>
+        <v>0.05025785597307994</v>
       </c>
       <c r="X52" t="n">
-        <v>0.01512788173803572</v>
+        <v>0.03423600418942748</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.03762309666678439</v>
+        <v>0.02490160679301912</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.02100758766460415</v>
+        <v>0.02428777649675046</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.005795181539652412</v>
+        <v>0.003120414462274538</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.07473882355422699</v>
+        <v>0.02522035791178964</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.0510243260757194</v>
+        <v>0.04555305407072377</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.02037924497985389</v>
+        <v>0.02417927827273517</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.007489514130186431</v>
+        <v>0.062679645572531</v>
       </c>
       <c r="AF52" t="n">
-        <v>0.01790613664869599</v>
+        <v>0.05911229802591726</v>
       </c>
       <c r="AG52" t="n">
-        <v>0.04328346891298702</v>
+        <v>0.0008329097264760813</v>
       </c>
       <c r="AH52" t="n">
-        <v>0.06970003249381462</v>
+        <v>0.06418068579779181</v>
       </c>
     </row>
     <row r="53">
@@ -6230,94 +6230,94 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.4591830189342204</v>
+        <v>0.514889900055163</v>
       </c>
       <c r="F53" t="n">
-        <v>0.01161903520824985</v>
+        <v>0.02302707111680146</v>
       </c>
       <c r="G53" t="n">
-        <v>0.05164353524255585</v>
+        <v>0.008652542628235439</v>
       </c>
       <c r="H53" t="n">
-        <v>0.002016057217473597</v>
+        <v>0.01445915859541707</v>
       </c>
       <c r="I53" t="n">
-        <v>0.01948403001729111</v>
+        <v>0.03413600935297671</v>
       </c>
       <c r="J53" t="n">
-        <v>0.005015879457322506</v>
+        <v>0.05831477899462596</v>
       </c>
       <c r="K53" t="n">
-        <v>0.02474635694036625</v>
+        <v>0.01077648525183414</v>
       </c>
       <c r="L53" t="n">
-        <v>0.0469615677522642</v>
+        <v>0.00680868358180348</v>
       </c>
       <c r="M53" t="n">
-        <v>0.05227268187881761</v>
+        <v>0.01594464716451524</v>
       </c>
       <c r="N53" t="n">
-        <v>0.08080851326677987</v>
+        <v>0.08943694290636051</v>
       </c>
       <c r="O53" t="n">
-        <v>0.03281629840927845</v>
+        <v>0.01106068301024029</v>
       </c>
       <c r="P53" t="n">
-        <v>0.02790654708607187</v>
+        <v>0.005155052417302941</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.03725548910088461</v>
+        <v>0.02864903044676901</v>
       </c>
       <c r="R53" t="n">
-        <v>0.05730223288005548</v>
+        <v>0.08094259745022479</v>
       </c>
       <c r="S53" t="n">
-        <v>0.06055314661031329</v>
+        <v>0.08146102444113303</v>
       </c>
       <c r="T53" t="n">
-        <v>0.06559171591682801</v>
+        <v>0.05888165503989783</v>
       </c>
       <c r="U53" t="n">
-        <v>0.0007000654839846301</v>
+        <v>0.04562910267289826</v>
       </c>
       <c r="V53" t="n">
-        <v>0.08010463769259456</v>
+        <v>0.01453499489590189</v>
       </c>
       <c r="W53" t="n">
-        <v>0.04096916309419942</v>
+        <v>0.06557996292511056</v>
       </c>
       <c r="X53" t="n">
-        <v>0.05232841556426947</v>
+        <v>0.01751596296348597</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.01115092822682246</v>
+        <v>0.02483956722019188</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.0336653360061837</v>
+        <v>0.04406000861075046</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.01236823652212633</v>
+        <v>0.02283962960504283</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.007828296001872317</v>
+        <v>0.04184885414718886</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.007533277573815923</v>
+        <v>0.02542901569242114</v>
       </c>
       <c r="AD53" t="n">
-        <v>0.006963616462661254</v>
+        <v>0.08595066733134153</v>
       </c>
       <c r="AE53" t="n">
-        <v>0.07162215593557766</v>
+        <v>0.009457036440525394</v>
       </c>
       <c r="AF53" t="n">
-        <v>0.03797734578944922</v>
+        <v>0.05316306605669582</v>
       </c>
       <c r="AG53" t="n">
-        <v>0.06079543866189045</v>
+        <v>0.0214457690403073</v>
       </c>
       <c r="AH53" t="n">
-        <v>0.05674528504121495</v>
+        <v>0.0772003200424225</v>
       </c>
     </row>
     <row r="54">
@@ -6340,94 +6340,94 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.1792737557477592</v>
+        <v>0.1820293252205225</v>
       </c>
       <c r="F54" t="n">
-        <v>0.004997094720332046</v>
+        <v>0.005705014412580015</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04333179830444658</v>
+        <v>0.05023616499497682</v>
       </c>
       <c r="H54" t="n">
-        <v>0.003701727778709682</v>
+        <v>0.02755370120706956</v>
       </c>
       <c r="I54" t="n">
-        <v>0.01467804547093657</v>
+        <v>0.004464555693812628</v>
       </c>
       <c r="J54" t="n">
-        <v>0.08642183759716422</v>
+        <v>0.01794120408804976</v>
       </c>
       <c r="K54" t="n">
-        <v>0.01123292216618864</v>
+        <v>0.08262986427917082</v>
       </c>
       <c r="L54" t="n">
-        <v>0.03910763556651443</v>
+        <v>0.04659721975444256</v>
       </c>
       <c r="M54" t="n">
-        <v>0.001224519511406877</v>
+        <v>0.002745483201474085</v>
       </c>
       <c r="N54" t="n">
-        <v>0.04124028314961294</v>
+        <v>0.08130962767482922</v>
       </c>
       <c r="O54" t="n">
-        <v>0.01052863200576904</v>
+        <v>0.02805080032107894</v>
       </c>
       <c r="P54" t="n">
-        <v>0.003869889070776586</v>
+        <v>0.05014565302832152</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.02705088367138374</v>
+        <v>0.02516886793119066</v>
       </c>
       <c r="R54" t="n">
-        <v>0.08532862231044606</v>
+        <v>0.0517154454004613</v>
       </c>
       <c r="S54" t="n">
-        <v>0.0327521693194483</v>
+        <v>0.05373670848827635</v>
       </c>
       <c r="T54" t="n">
-        <v>0.03996254435135088</v>
+        <v>0.08222248597029114</v>
       </c>
       <c r="U54" t="n">
-        <v>0.05262248785596167</v>
+        <v>0.005896558521978823</v>
       </c>
       <c r="V54" t="n">
-        <v>0.0009231399657436685</v>
+        <v>0.07227905822311928</v>
       </c>
       <c r="W54" t="n">
-        <v>0.08180956511005368</v>
+        <v>0.04722479790915823</v>
       </c>
       <c r="X54" t="n">
-        <v>0.01365278156766946</v>
+        <v>0.04552031174289189</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.04588139850215391</v>
+        <v>0.03526163248148863</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.006854627758633913</v>
+        <v>0.01820997043199434</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.07379892832478087</v>
+        <v>0.003589871488992102</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.02768173759410923</v>
+        <v>0.01250466619104629</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.03207485575221684</v>
+        <v>0.01576561827208094</v>
       </c>
       <c r="AD54" t="n">
-        <v>0.08594887396145581</v>
+        <v>0.003910099103894712</v>
       </c>
       <c r="AE54" t="n">
-        <v>0.0748121476517636</v>
+        <v>0.0262848667322995</v>
       </c>
       <c r="AF54" t="n">
-        <v>0.04855000898464202</v>
+        <v>0.02303598988480401</v>
       </c>
       <c r="AG54" t="n">
-        <v>0.009960841976328971</v>
+        <v>0.080293762570226</v>
       </c>
       <c r="AH54" t="n">
-        <v>-0.1273087982716732</v>
+        <v>-0.08360645623790813</v>
       </c>
     </row>
     <row r="55">
@@ -6450,94 +6450,94 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.2144999935048354</v>
+        <v>0.2431095123028836</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0004031151353171692</v>
+        <v>0.008600507444969993</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03393104884625937</v>
+        <v>0.04426636424945424</v>
       </c>
       <c r="H55" t="n">
-        <v>0.03912819476956426</v>
+        <v>0.08029848587670907</v>
       </c>
       <c r="I55" t="n">
-        <v>0.009399012641656221</v>
+        <v>0.001299792882387998</v>
       </c>
       <c r="J55" t="n">
-        <v>0.004750499843444148</v>
+        <v>0.005307553384937917</v>
       </c>
       <c r="K55" t="n">
-        <v>0.06550673438728365</v>
+        <v>0.06324834643033514</v>
       </c>
       <c r="L55" t="n">
-        <v>0.04108588279024532</v>
+        <v>0.03347993572706423</v>
       </c>
       <c r="M55" t="n">
-        <v>0.01049272477654917</v>
+        <v>0.0280058230700115</v>
       </c>
       <c r="N55" t="n">
-        <v>0.01598152905247585</v>
+        <v>0.004097665215668086</v>
       </c>
       <c r="O55" t="n">
-        <v>0.06843391742609256</v>
+        <v>0.05076053110129573</v>
       </c>
       <c r="P55" t="n">
-        <v>0.02844658015949941</v>
+        <v>0.01821976445066771</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.05117497447604683</v>
+        <v>0.07255180815846533</v>
       </c>
       <c r="R55" t="n">
-        <v>0.06385813412326097</v>
+        <v>0.007972296625989294</v>
       </c>
       <c r="S55" t="n">
-        <v>0.06565633399398546</v>
+        <v>0.07057160995852242</v>
       </c>
       <c r="T55" t="n">
-        <v>0.0595379630873264</v>
+        <v>0.0005203501940696537</v>
       </c>
       <c r="U55" t="n">
-        <v>0.06610672941581769</v>
+        <v>0.01348590114111091</v>
       </c>
       <c r="V55" t="n">
-        <v>0.06359285316023672</v>
+        <v>0.07377726755312239</v>
       </c>
       <c r="W55" t="n">
-        <v>0.0181911280501232</v>
+        <v>0.06189929629834801</v>
       </c>
       <c r="X55" t="n">
-        <v>0.01458459457756841</v>
+        <v>0.01502691665658032</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.02220523892363173</v>
+        <v>0.02202820127072693</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.02470412122365393</v>
+        <v>0.06174793710678064</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.06828423713643922</v>
+        <v>0.007821759854234826</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.04884920026762948</v>
+        <v>0.09612356720084998</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.00403316986107294</v>
+        <v>0.006587908134627875</v>
       </c>
       <c r="AD55" t="n">
-        <v>0.02693903827665921</v>
+        <v>0.04904641070773907</v>
       </c>
       <c r="AE55" t="n">
-        <v>0.01994391824461448</v>
+        <v>0.019780012946172</v>
       </c>
       <c r="AF55" t="n">
-        <v>0.008906849820210947</v>
+        <v>0.02479018799815231</v>
       </c>
       <c r="AG55" t="n">
-        <v>0.05587227553333521</v>
+        <v>0.05868379836100645</v>
       </c>
       <c r="AH55" t="n">
-        <v>-0.1012576715128281</v>
+        <v>-0.08146435915804266</v>
       </c>
     </row>
     <row r="56">
@@ -6560,94 +6560,94 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.2286313210087343</v>
+        <v>0.2270240920340486</v>
       </c>
       <c r="F56" t="n">
-        <v>0.05554071604199393</v>
+        <v>0.05010358698186642</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03354645617525751</v>
+        <v>0.001342214094105277</v>
       </c>
       <c r="H56" t="n">
-        <v>0.02520113960016616</v>
+        <v>0.02575559829289656</v>
       </c>
       <c r="I56" t="n">
-        <v>0.002488571014620653</v>
+        <v>0.0005723053604021096</v>
       </c>
       <c r="J56" t="n">
-        <v>0.003158474677411889</v>
+        <v>0.05156544007044955</v>
       </c>
       <c r="K56" t="n">
-        <v>0.0454241985087254</v>
+        <v>0.01044332917265556</v>
       </c>
       <c r="L56" t="n">
-        <v>0.02244743750723805</v>
+        <v>0.04758020751531468</v>
       </c>
       <c r="M56" t="n">
-        <v>0.009401758925999013</v>
+        <v>0.04656216011960088</v>
       </c>
       <c r="N56" t="n">
-        <v>0.04791057928777157</v>
+        <v>0.003748078994400468</v>
       </c>
       <c r="O56" t="n">
-        <v>0.0286079432185769</v>
+        <v>0.006537468977056312</v>
       </c>
       <c r="P56" t="n">
-        <v>0.004104139299088341</v>
+        <v>0.0369436965103069</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.00706589602901993</v>
+        <v>0.03020644587593967</v>
       </c>
       <c r="R56" t="n">
-        <v>0.05360992044234525</v>
+        <v>0.06312613098657677</v>
       </c>
       <c r="S56" t="n">
-        <v>0.02547755250836847</v>
+        <v>6.589439772677003e-05</v>
       </c>
       <c r="T56" t="n">
-        <v>0.05428211430263002</v>
+        <v>0.05902194206868336</v>
       </c>
       <c r="U56" t="n">
-        <v>0.03104442428765258</v>
+        <v>0.01165717879832203</v>
       </c>
       <c r="V56" t="n">
-        <v>0.02750125766483845</v>
+        <v>0.01282429347146523</v>
       </c>
       <c r="W56" t="n">
-        <v>0.05995177741474015</v>
+        <v>0.02013782196458198</v>
       </c>
       <c r="X56" t="n">
-        <v>0.003640720681512613</v>
+        <v>0.007650352830590615</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.05801538978672825</v>
+        <v>0.08199684358705446</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.01562988528978128</v>
+        <v>0.01490777698177059</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.046793525498218</v>
+        <v>0.01274545564391483</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.05567690128941391</v>
+        <v>0.06518056462008895</v>
       </c>
       <c r="AC56" t="n">
-        <v>0.05809657289947624</v>
+        <v>0.07620462939237188</v>
       </c>
       <c r="AD56" t="n">
-        <v>0.05952564855848201</v>
+        <v>0.07922750769341709</v>
       </c>
       <c r="AE56" t="n">
-        <v>0.06351329055221318</v>
+        <v>0.05439069517267037</v>
       </c>
       <c r="AF56" t="n">
-        <v>0.05122454575840002</v>
+        <v>0.05495617194703467</v>
       </c>
       <c r="AG56" t="n">
-        <v>0.05111916277933021</v>
+        <v>0.07454620847873598</v>
       </c>
       <c r="AH56" t="n">
-        <v>0.1598754351885421</v>
+        <v>0.1469627072998695</v>
       </c>
     </row>
     <row r="57">
@@ -6670,94 +6670,94 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.2684585091577235</v>
+        <v>0.270541538377139</v>
       </c>
       <c r="F57" t="n">
-        <v>0.07805047924617377</v>
+        <v>0.08368798865850995</v>
       </c>
       <c r="G57" t="n">
-        <v>0.05340221048367792</v>
+        <v>0.08920520457767822</v>
       </c>
       <c r="H57" t="n">
-        <v>0.05452867373430063</v>
+        <v>0.05852719116234691</v>
       </c>
       <c r="I57" t="n">
-        <v>0.0130609756860507</v>
+        <v>0.0004821332281651122</v>
       </c>
       <c r="J57" t="n">
-        <v>0.05051603637307042</v>
+        <v>0.003091036185111379</v>
       </c>
       <c r="K57" t="n">
-        <v>0.08199262673022863</v>
+        <v>0.05341569437625704</v>
       </c>
       <c r="L57" t="n">
-        <v>0.08301889388248834</v>
+        <v>0.03629662991733317</v>
       </c>
       <c r="M57" t="n">
-        <v>0.007605355979242659</v>
+        <v>0.01898674474850697</v>
       </c>
       <c r="N57" t="n">
-        <v>0.004114315001803374</v>
+        <v>0.02003873614871605</v>
       </c>
       <c r="O57" t="n">
-        <v>0.0006975580900573453</v>
+        <v>0.07173863242380592</v>
       </c>
       <c r="P57" t="n">
-        <v>0.01123241327555835</v>
+        <v>0.04881807806908117</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.01847864357303292</v>
+        <v>0.09147447053048839</v>
       </c>
       <c r="R57" t="n">
-        <v>0.01928823730829452</v>
+        <v>0.02713865761300153</v>
       </c>
       <c r="S57" t="n">
-        <v>0.0007259847199423785</v>
+        <v>0.05310806149385344</v>
       </c>
       <c r="T57" t="n">
-        <v>0.01362701328233425</v>
+        <v>0.05355323722969526</v>
       </c>
       <c r="U57" t="n">
-        <v>0.00811338102559633</v>
+        <v>0.01739656321639464</v>
       </c>
       <c r="V57" t="n">
-        <v>0.01450020654793702</v>
+        <v>0.02216116220404103</v>
       </c>
       <c r="W57" t="n">
-        <v>0.0271897481301857</v>
+        <v>0.004548718763668884</v>
       </c>
       <c r="X57" t="n">
-        <v>0.008425898012921164</v>
+        <v>0.0001976528866848207</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.02308326269257395</v>
+        <v>0.01707014319591498</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.08178661174638209</v>
+        <v>0.009178971683700968</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.08141346684997912</v>
+        <v>0.02399394774731936</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.07920637017174655</v>
+        <v>0.08797510774901299</v>
       </c>
       <c r="AC57" t="n">
-        <v>0.016796907572546</v>
+        <v>0.05643630217482635</v>
       </c>
       <c r="AD57" t="n">
-        <v>0.05561280057353998</v>
+        <v>0.02307266486028595</v>
       </c>
       <c r="AE57" t="n">
-        <v>0.05985966135200015</v>
+        <v>0.006616680366584317</v>
       </c>
       <c r="AF57" t="n">
-        <v>0.000359087929917909</v>
+        <v>0.006187154342048388</v>
       </c>
       <c r="AG57" t="n">
-        <v>0.05331318002841792</v>
+        <v>0.01560243444696678</v>
       </c>
       <c r="AH57" t="n">
-        <v>0.1680418227617634</v>
+        <v>0.1659851477786685</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Data/DJI/Efficient Portfolios with Prediction/Manual Recurrence/input 250/DJI_efficient_portfolios_and_returns_with_prediction_semester.xlsx
+++ b/Code/Data/DJI/Efficient Portfolios with Prediction/Manual Recurrence/input 250/DJI_efficient_portfolios_and_returns_with_prediction_semester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -620,94 +620,94 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.2146411925062609</v>
+        <v>0.2163834807338578</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07330940592965456</v>
+        <v>0.05900436937498618</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02179818566507775</v>
+        <v>0.04111101573878202</v>
       </c>
       <c r="H2" t="n">
-        <v>0.009830488497337076</v>
+        <v>0.007120315322913969</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04619330449655612</v>
+        <v>0.06226520491261076</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06285948295819187</v>
+        <v>0.07998723429760851</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02130708092038824</v>
+        <v>0.02864894042625288</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001879784859499091</v>
+        <v>0.006382782008251898</v>
       </c>
       <c r="M2" t="n">
-        <v>0.008041789954915354</v>
+        <v>0.01129297459697175</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01615657831380064</v>
+        <v>0.0699218747315862</v>
       </c>
       <c r="O2" t="n">
-        <v>0.06147980800001098</v>
+        <v>0.02107712822900077</v>
       </c>
       <c r="P2" t="n">
-        <v>0.02128456029737679</v>
+        <v>0.06132149709388733</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.05760153255548924</v>
+        <v>0.07086859045331263</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0034583802351868</v>
+        <v>0.003972316497636865</v>
       </c>
       <c r="S2" t="n">
-        <v>0.06354414528901699</v>
+        <v>0.07526031948316135</v>
       </c>
       <c r="T2" t="n">
-        <v>0.05932547860684211</v>
+        <v>0.02128901188443097</v>
       </c>
       <c r="U2" t="n">
-        <v>0.05352182987380782</v>
+        <v>0.04788684823306829</v>
       </c>
       <c r="V2" t="n">
-        <v>0.003658978383921267</v>
+        <v>0.01371652236735418</v>
       </c>
       <c r="W2" t="n">
-        <v>0.004115518905431998</v>
+        <v>0.006282429122352968</v>
       </c>
       <c r="X2" t="n">
-        <v>0.06730627599033139</v>
+        <v>0.05123534470933661</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.05169923940416028</v>
+        <v>0.006980908396015196</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.04534069885440619</v>
+        <v>0.03163437164878689</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.008268505285089607</v>
+        <v>0.0006653543153661008</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.02931690032635093</v>
+        <v>0.0432449859773824</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.04050893236592683</v>
+        <v>0.02114140819202587</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.05380801747943346</v>
+        <v>0.06500455920217332</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.005619756344753027</v>
+        <v>0.01499525254620544</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.04112311000875292</v>
+        <v>0.07642862618838768</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.06764223019829069</v>
+        <v>0.001259814050150926</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.08088487903417277</v>
+        <v>0.07175570646056607</v>
       </c>
     </row>
     <row r="3">
@@ -730,94 +730,94 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.4698872663854097</v>
+        <v>0.5322877323486781</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02813025690848578</v>
+        <v>0.02081814997219181</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0762195450038389</v>
+        <v>0.0132062014939352</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0002512694329819618</v>
+        <v>0.02203998618709647</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05757418657382541</v>
+        <v>0.08216926140818111</v>
       </c>
       <c r="J3" t="n">
-        <v>0.009921244127476128</v>
+        <v>0.0440677286760048</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01799365568853074</v>
+        <v>0.02724745115240508</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03516492480797709</v>
+        <v>0.05342408299849779</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01199061213396178</v>
+        <v>0.06843778938619384</v>
       </c>
       <c r="N3" t="n">
-        <v>0.08318689477094642</v>
+        <v>0.03842638990479205</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002775194045656735</v>
+        <v>0.06931405875559182</v>
       </c>
       <c r="P3" t="n">
-        <v>0.032311197517093</v>
+        <v>0.00385996292101909</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.05977974835843228</v>
+        <v>0.05059588468651614</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0367441621250808</v>
+        <v>0.04577464939823516</v>
       </c>
       <c r="S3" t="n">
-        <v>0.04987703452772291</v>
+        <v>0.01746869321982075</v>
       </c>
       <c r="T3" t="n">
-        <v>0.05357506834421315</v>
+        <v>0.04558973756691755</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02377873508606928</v>
+        <v>0.03022528052514902</v>
       </c>
       <c r="V3" t="n">
-        <v>0.02711211161673997</v>
+        <v>0.0007104209908512678</v>
       </c>
       <c r="W3" t="n">
-        <v>0.01565531641103562</v>
+        <v>0.02845206843147</v>
       </c>
       <c r="X3" t="n">
-        <v>0.02531438482682945</v>
+        <v>0.08244036877138029</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.02450684039327904</v>
+        <v>0.06289983043852623</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.05577306107519527</v>
+        <v>0.0737757100873417</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.07877760416147626</v>
+        <v>0.01972698789403779</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.04564322286684356</v>
+        <v>0.001794978887548028</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.04202810693082296</v>
+        <v>0.02836528872811402</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.05279451366787009</v>
+        <v>0.01600660517966148</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.01941998258320448</v>
+        <v>0.05141676728651122</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.0155392556637821</v>
+        <v>0.0007348036474214539</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.01816187035062886</v>
+        <v>0.001010861404588655</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.04648364403733309</v>
+        <v>0.08579977571796248</v>
       </c>
     </row>
     <row r="4">
@@ -840,94 +840,94 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1226465734461477</v>
+        <v>0.125721980296273</v>
       </c>
       <c r="F4" t="n">
-        <v>0.006058125823200556</v>
+        <v>0.002326939429172198</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04394688580844291</v>
+        <v>0.006724864980501233</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0502704392761101</v>
+        <v>0.002365092156527864</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05202587222673174</v>
+        <v>0.0465452735488301</v>
       </c>
       <c r="J4" t="n">
-        <v>0.011918197411905</v>
+        <v>0.06832849858437298</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04657601715637127</v>
+        <v>0.005915657485548408</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002285832341316451</v>
+        <v>0.003848781724623851</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02283858957754557</v>
+        <v>0.03954289494170304</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01146312713455634</v>
+        <v>0.02625126414288314</v>
       </c>
       <c r="O4" t="n">
-        <v>0.05486728997095372</v>
+        <v>0.06152060476145946</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0680945692196504</v>
+        <v>0.03858598580258635</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.06457053595768103</v>
+        <v>0.02271680041165596</v>
       </c>
       <c r="R4" t="n">
-        <v>0.05477676675738764</v>
+        <v>0.08210453245410922</v>
       </c>
       <c r="S4" t="n">
-        <v>0.02260938471114755</v>
+        <v>0.006341145511888181</v>
       </c>
       <c r="T4" t="n">
-        <v>0.04412758165183158</v>
+        <v>0.08169569015050408</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02761346092833515</v>
+        <v>0.06988511018575741</v>
       </c>
       <c r="V4" t="n">
-        <v>0.01606716659460341</v>
+        <v>0.002587149383396976</v>
       </c>
       <c r="W4" t="n">
-        <v>0.02475650758764721</v>
+        <v>0.0305991174722758</v>
       </c>
       <c r="X4" t="n">
-        <v>0.03605159128056374</v>
+        <v>0.05735007050409968</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.002580968291471334</v>
+        <v>0.08023463266891298</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.05881096145665519</v>
+        <v>0.04751474342963179</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.04001196994717844</v>
+        <v>0.067976324359128</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.07733527549048863</v>
+        <v>0.0388202343443594</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.05222628440569489</v>
+        <v>0.058618429838624</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.01374290647801537</v>
+        <v>0.002034449335127975</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.005350682436569342</v>
+        <v>0.007618366819286171</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.01843168214512302</v>
+        <v>0.01207207379708927</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.07059132793282229</v>
+        <v>0.0298752717759443</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.01041997640085395</v>
+        <v>0.01285023862399317</v>
       </c>
     </row>
     <row r="5">
@@ -950,94 +950,94 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.2335840924407017</v>
+        <v>0.2935546604255797</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01798565483073125</v>
+        <v>0.01537678213581702</v>
       </c>
       <c r="G5" t="n">
-        <v>0.008568868198773404</v>
+        <v>0.01264552829457108</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06738600297979276</v>
+        <v>0.02407267525038095</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04921693686010847</v>
+        <v>0.04473579262012994</v>
       </c>
       <c r="J5" t="n">
-        <v>0.00952498427756494</v>
+        <v>0.01407786183566458</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04645972946756675</v>
+        <v>0.05530077000090278</v>
       </c>
       <c r="L5" t="n">
-        <v>0.065904280878574</v>
+        <v>0.06173922711114703</v>
       </c>
       <c r="M5" t="n">
-        <v>0.06469491882809789</v>
+        <v>0.0305233906273336</v>
       </c>
       <c r="N5" t="n">
-        <v>0.05811508752935179</v>
+        <v>0.0698718017776858</v>
       </c>
       <c r="O5" t="n">
-        <v>0.07253488271622066</v>
+        <v>0.06041245856953044</v>
       </c>
       <c r="P5" t="n">
-        <v>0.009643193641040092</v>
+        <v>0.009071949501394163</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01858985580096797</v>
+        <v>0.07165257585023613</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01125510119383182</v>
+        <v>0.03535355071320201</v>
       </c>
       <c r="S5" t="n">
-        <v>0.008174809843188805</v>
+        <v>0.01305787193299144</v>
       </c>
       <c r="T5" t="n">
-        <v>0.003946083544210837</v>
+        <v>0.03761203357280746</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04091556385040831</v>
+        <v>0.05559669239614954</v>
       </c>
       <c r="V5" t="n">
-        <v>0.06717965278596388</v>
+        <v>0.05613549173912141</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02891864295823078</v>
+        <v>0.04019830850641297</v>
       </c>
       <c r="X5" t="n">
-        <v>0.07401154862049732</v>
+        <v>0.05751571742567081</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.03312322469456117</v>
+        <v>0.01790326190863105</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.01466571158291688</v>
+        <v>0.002110785286769933</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.05457098882063963</v>
+        <v>0.061885615302236</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.04541468775019298</v>
+        <v>0.02634205348298451</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.01335591625389602</v>
+        <v>0.01246129024747451</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.00318671893599464</v>
+        <v>0.008767110847758781</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.03506395452794298</v>
+        <v>0.06722410130274178</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.002510510655611405</v>
+        <v>0.02936545034189426</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.07508248797312268</v>
+        <v>0.008989851418360081</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.03246892077533953</v>
+        <v>0.03667978134259088</v>
       </c>
     </row>
     <row r="6">
@@ -1060,94 +1060,94 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.2027858886577188</v>
+        <v>0.185374476184869</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03882177086402094</v>
+        <v>0.007580614359270442</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07133623679935512</v>
+        <v>0.01502989885627986</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04456226218094361</v>
+        <v>0.0172104658768466</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05693895073235144</v>
+        <v>0.06558684262639219</v>
       </c>
       <c r="J6" t="n">
-        <v>0.02902569473193436</v>
+        <v>0.02549757561301003</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0007420809797514666</v>
+        <v>0.007383956625227267</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07274217102966075</v>
+        <v>0.01356118378090729</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04682491965765879</v>
+        <v>0.05754129904166336</v>
       </c>
       <c r="N6" t="n">
-        <v>0.06744912315687251</v>
+        <v>0.03370898888005237</v>
       </c>
       <c r="O6" t="n">
-        <v>0.05866787012589177</v>
+        <v>0.003689689738974613</v>
       </c>
       <c r="P6" t="n">
-        <v>0.005615693677385561</v>
+        <v>0.07573542463116927</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.005938254763231642</v>
+        <v>0.01487310210115258</v>
       </c>
       <c r="R6" t="n">
-        <v>0.05135804861457201</v>
+        <v>0.05162019261476927</v>
       </c>
       <c r="S6" t="n">
-        <v>0.020673961828089</v>
+        <v>0.004297301280940803</v>
       </c>
       <c r="T6" t="n">
-        <v>0.01030819801131526</v>
+        <v>0.01073755353485784</v>
       </c>
       <c r="U6" t="n">
-        <v>0.005821494997938572</v>
+        <v>0.05350942743927801</v>
       </c>
       <c r="V6" t="n">
-        <v>0.01080474925129025</v>
+        <v>0.05669143951511</v>
       </c>
       <c r="W6" t="n">
-        <v>0.04190705037413035</v>
+        <v>0.03990409447012824</v>
       </c>
       <c r="X6" t="n">
-        <v>0.074321468232267</v>
+        <v>0.07525674815475709</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.05606869086507422</v>
+        <v>0.04337846847571055</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.03364734616540354</v>
+        <v>0.02856062771652734</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.001711055775708946</v>
+        <v>0.002309918198239442</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.007895585600918156</v>
+        <v>0.07200002578701743</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.05829709667419718</v>
+        <v>0.07385752368063028</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.02778058366729802</v>
+        <v>0.03353081016898363</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.03232702344450158</v>
+        <v>0.02477520510346679</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.04487891808869711</v>
+        <v>0.04835096632541706</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.02353369970954091</v>
+        <v>0.04382065540322046</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0.1326978706845083</v>
+        <v>-0.1391201148019596</v>
       </c>
     </row>
     <row r="7">
@@ -1170,94 +1170,94 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.8950643148119665</v>
+        <v>0.4834175538535336</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06982813411772648</v>
+        <v>0.07000684832941192</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01876776593630624</v>
+        <v>0.0129785309236899</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0151637096138017</v>
+        <v>0.01055395263152195</v>
       </c>
       <c r="I7" t="n">
-        <v>0.009041573329290002</v>
+        <v>0.000687232160507676</v>
       </c>
       <c r="J7" t="n">
-        <v>0.003254823141292788</v>
+        <v>0.02794000541076624</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05879310769045432</v>
+        <v>0.07051190862854004</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01528508644464718</v>
+        <v>0.01815143918047771</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06961748496055194</v>
+        <v>0.03039908107196515</v>
       </c>
       <c r="N7" t="n">
-        <v>0.008866821095078734</v>
+        <v>0.07329709315215779</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01545596117547999</v>
+        <v>0.01163271238772804</v>
       </c>
       <c r="P7" t="n">
-        <v>0.007507588661078416</v>
+        <v>0.04692269978036795</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01728762677578717</v>
+        <v>0.03938549085475178</v>
       </c>
       <c r="R7" t="n">
-        <v>0.07917235738386662</v>
+        <v>0.06950712761923167</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0470144606210876</v>
+        <v>0.0008064815399480694</v>
       </c>
       <c r="T7" t="n">
-        <v>0.006488796374276629</v>
+        <v>0.01213188904673266</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01927257153486079</v>
+        <v>0.01032882445985394</v>
       </c>
       <c r="V7" t="n">
-        <v>0.06390584997594684</v>
+        <v>0.006656528764559049</v>
       </c>
       <c r="W7" t="n">
-        <v>0.006648650449088041</v>
+        <v>0.03255417304506919</v>
       </c>
       <c r="X7" t="n">
-        <v>0.04922550790510995</v>
+        <v>0.0372200770750222</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.04882397357234166</v>
+        <v>0.001494066809312028</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.04339544695901352</v>
+        <v>0.05438593609139988</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.03166449158674876</v>
+        <v>0.01664065718648341</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.07756097553163324</v>
+        <v>0.05719438762145345</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.06019094957563283</v>
+        <v>0.05799079507272267</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.01426014721647704</v>
+        <v>0.05019824790263402</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.06015407980934642</v>
+        <v>0.07665612195626455</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.05250949616637075</v>
+        <v>0.04672058427302642</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.03084256239670443</v>
+        <v>0.05704710702440063</v>
       </c>
       <c r="AH7" t="n">
-        <v>-0.1097200994837305</v>
+        <v>-0.100551325032716</v>
       </c>
     </row>
     <row r="8">
@@ -1280,94 +1280,94 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.1667122547082864</v>
+        <v>0.1695714283652285</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003831155478177116</v>
+        <v>0.02530142496489491</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01922186198929375</v>
+        <v>0.04879751371810934</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03754574521663498</v>
+        <v>0.006365549347183872</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07206431701916011</v>
+        <v>0.04439492082330763</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03759603172475133</v>
+        <v>0.001745201485752519</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01499134176063511</v>
+        <v>0.002277373853759425</v>
       </c>
       <c r="L8" t="n">
-        <v>7.352098976625579e-05</v>
+        <v>0.04006632577853661</v>
       </c>
       <c r="M8" t="n">
-        <v>0.009084369642762888</v>
+        <v>0.01803760255331935</v>
       </c>
       <c r="N8" t="n">
-        <v>0.04037695207217343</v>
+        <v>0.04284179343191007</v>
       </c>
       <c r="O8" t="n">
-        <v>0.001114509045319803</v>
+        <v>0.007261000683187256</v>
       </c>
       <c r="P8" t="n">
-        <v>0.06853547479636983</v>
+        <v>0.06079511169182832</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.04443709740007643</v>
+        <v>0.0470464144681431</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01685970481829602</v>
+        <v>0.05865851182181059</v>
       </c>
       <c r="S8" t="n">
-        <v>0.05481876662522859</v>
+        <v>0.03272836544456079</v>
       </c>
       <c r="T8" t="n">
-        <v>0.03189354113331993</v>
+        <v>0.06133512035439728</v>
       </c>
       <c r="U8" t="n">
-        <v>0.06723687299192992</v>
+        <v>0.0356139343341309</v>
       </c>
       <c r="V8" t="n">
-        <v>0.06419620781763927</v>
+        <v>0.05887664130019143</v>
       </c>
       <c r="W8" t="n">
-        <v>0.008640312880781766</v>
+        <v>0.04899325473182369</v>
       </c>
       <c r="X8" t="n">
-        <v>0.06105883947994799</v>
+        <v>0.06074221066778966</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.01788791331701539</v>
+        <v>0.02817480975419719</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.02507651739587204</v>
+        <v>0.02883332699172995</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0605743049628586</v>
+        <v>0.02061396254798413</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.06807194862789719</v>
+        <v>0.03762636480398816</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.05698271651846575</v>
+        <v>0.0485940190510997</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.0003516306655426057</v>
+        <v>0.01837316201644515</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.03116637645926013</v>
+        <v>0.02803334768679477</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.01507540209935048</v>
+        <v>0.04798195493217614</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.0712365670714732</v>
+        <v>0.03989078076094794</v>
       </c>
       <c r="AH8" t="n">
-        <v>-0.206562490752058</v>
+        <v>-0.183368182132807</v>
       </c>
     </row>
     <row r="9">
@@ -1390,94 +1390,94 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.6066012918055997</v>
+        <v>0.6039533670620562</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08382759751727539</v>
+        <v>0.07699462538494452</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03153005739683358</v>
+        <v>0.01031593445681774</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001372945724452038</v>
+        <v>0.03426265034953167</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0004421969582197313</v>
+        <v>0.01898333755145609</v>
       </c>
       <c r="J9" t="n">
-        <v>0.000602555909071279</v>
+        <v>0.01825493395529779</v>
       </c>
       <c r="K9" t="n">
-        <v>0.08401595155557542</v>
+        <v>0.07797204683478141</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006681078090081646</v>
+        <v>0.03448286412422385</v>
       </c>
       <c r="M9" t="n">
-        <v>0.05670714467037026</v>
+        <v>0.06181310717437688</v>
       </c>
       <c r="N9" t="n">
-        <v>0.07235507770683618</v>
+        <v>0.03492611379854411</v>
       </c>
       <c r="O9" t="n">
-        <v>0.006955077427649562</v>
+        <v>0.02697964046817095</v>
       </c>
       <c r="P9" t="n">
-        <v>0.02408750949773612</v>
+        <v>0.06049714838557969</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.07115137788964684</v>
+        <v>0.03231922980559581</v>
       </c>
       <c r="R9" t="n">
-        <v>0.03550578000359255</v>
+        <v>0.04912796439224275</v>
       </c>
       <c r="S9" t="n">
-        <v>0.03539233864673094</v>
+        <v>0.07850648013372483</v>
       </c>
       <c r="T9" t="n">
-        <v>0.02818738739850948</v>
+        <v>0.0541619812503736</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07274380276113232</v>
+        <v>0.001536583117702095</v>
       </c>
       <c r="V9" t="n">
-        <v>0.02155921303231751</v>
+        <v>0.03931824209457747</v>
       </c>
       <c r="W9" t="n">
-        <v>0.06573938443580606</v>
+        <v>0.008612860057030255</v>
       </c>
       <c r="X9" t="n">
-        <v>0.06007063022111398</v>
+        <v>0.01211458100386596</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.004334017514146503</v>
+        <v>0.009650772121338464</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.07757015390903443</v>
+        <v>0.05158562369224327</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.03301113594324398</v>
+        <v>0.06711909803410827</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.002068127106331578</v>
+        <v>0.02600792175269312</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.03032044023092184</v>
+        <v>0.03356607565310476</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.02770910325383202</v>
+        <v>0.001648549624693288</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.01206608319530597</v>
+        <v>0.005306794572403468</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.03337998910215949</v>
+        <v>0.01362543498581253</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.02061384290207345</v>
+        <v>0.0603094052247652</v>
       </c>
       <c r="AH9" t="n">
-        <v>-0.2820681065344315</v>
+        <v>-0.324975731188394</v>
       </c>
     </row>
     <row r="10">
@@ -1500,94 +1500,94 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.2558748088968226</v>
+        <v>0.2534008539675848</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07288354961155984</v>
+        <v>0.04967565671163964</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01819849560627154</v>
+        <v>0.01303084733696572</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02468867104397311</v>
+        <v>0.006640521598605928</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02541962826328192</v>
+        <v>0.02403724721042285</v>
       </c>
       <c r="J10" t="n">
-        <v>0.06703602286890645</v>
+        <v>0.03209970524145635</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01049700602108218</v>
+        <v>0.01729006874984466</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01605804094721864</v>
+        <v>0.0404938524302063</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01984842746694048</v>
+        <v>0.0004312831128957869</v>
       </c>
       <c r="N10" t="n">
-        <v>0.03606481250526194</v>
+        <v>0.04542603211475624</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002127402162289713</v>
+        <v>0.02041656784645815</v>
       </c>
       <c r="P10" t="n">
-        <v>0.03816220575584962</v>
+        <v>0.02075869565979006</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.04045531511690145</v>
+        <v>0.04374816681982457</v>
       </c>
       <c r="R10" t="n">
-        <v>0.04036651264381527</v>
+        <v>0.04939873352545161</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0608734806375632</v>
+        <v>0.07041118742192232</v>
       </c>
       <c r="T10" t="n">
-        <v>0.03279298964871932</v>
+        <v>0.07332509809343783</v>
       </c>
       <c r="U10" t="n">
-        <v>0.008123362628738555</v>
+        <v>0.002517170587900028</v>
       </c>
       <c r="V10" t="n">
-        <v>0.06953976184843191</v>
+        <v>0.07982504058228006</v>
       </c>
       <c r="W10" t="n">
-        <v>0.07340644635350209</v>
+        <v>0.04736073431316259</v>
       </c>
       <c r="X10" t="n">
-        <v>0.02662324010862353</v>
+        <v>0.0677345933872546</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.06746004275018846</v>
+        <v>0.08274558759478792</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.01177080543727</v>
+        <v>0.004003030700655787</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.005524811808144421</v>
+        <v>0.008064421297029363</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.03505670737765649</v>
+        <v>0.0620101526254889</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.03844969523899819</v>
+        <v>0.007468208956506139</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.03555323518461007</v>
+        <v>0.02268903425433749</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.01068455551166734</v>
+        <v>0.04385988390895767</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.05609793573631459</v>
+        <v>0.007388427708347433</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.05623683971621968</v>
+        <v>0.05715005020961395</v>
       </c>
       <c r="AH10" t="n">
-        <v>-0.002526207210898152</v>
+        <v>0.001629175921530999</v>
       </c>
     </row>
     <row r="11">
@@ -1610,94 +1610,94 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.3448223126369212</v>
+        <v>0.3201335409007386</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04536621679309796</v>
+        <v>0.05154580318228313</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03113404474851457</v>
+        <v>0.04225461270421173</v>
       </c>
       <c r="H11" t="n">
-        <v>0.07862697748191674</v>
+        <v>0.05095910915311701</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03772692731162171</v>
+        <v>0.02565324424821731</v>
       </c>
       <c r="J11" t="n">
-        <v>0.003982054483350333</v>
+        <v>0.01613722316818735</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04790945459554315</v>
+        <v>0.01256472785133344</v>
       </c>
       <c r="L11" t="n">
-        <v>0.07684478145447336</v>
+        <v>0.07797487372314915</v>
       </c>
       <c r="M11" t="n">
-        <v>0.06201320243736264</v>
+        <v>0.07394631068287408</v>
       </c>
       <c r="N11" t="n">
-        <v>0.001748813517136666</v>
+        <v>0.003445870138439585</v>
       </c>
       <c r="O11" t="n">
-        <v>0.03581188738090865</v>
+        <v>0.04086883139348773</v>
       </c>
       <c r="P11" t="n">
-        <v>0.06518420734602552</v>
+        <v>0.01548462856742875</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.007767491830366122</v>
+        <v>0.00892962132606394</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0393769754116107</v>
+        <v>0.01286401058950646</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01640872616413679</v>
+        <v>0.02643240881671285</v>
       </c>
       <c r="T11" t="n">
-        <v>0.04868700057954541</v>
+        <v>0.07014585235017438</v>
       </c>
       <c r="U11" t="n">
-        <v>0.07931002511489636</v>
+        <v>0.02541471455895169</v>
       </c>
       <c r="V11" t="n">
-        <v>0.02326400266466347</v>
+        <v>0.01014297884004997</v>
       </c>
       <c r="W11" t="n">
-        <v>0.02163826537114611</v>
+        <v>0.06975846983612603</v>
       </c>
       <c r="X11" t="n">
-        <v>0.01701494443035553</v>
+        <v>0.0663552986021131</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.001465355772551717</v>
+        <v>0.003049987135657394</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.04202724306534431</v>
+        <v>0.08213400662204239</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.07468380785345766</v>
+        <v>0.06728650338710271</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.04591656866780723</v>
+        <v>0.009956943000343759</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.01534400889072399</v>
+        <v>0.02192472937630807</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.01348551785786519</v>
+        <v>0.005021630467665751</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.0112376227163071</v>
+        <v>0.02048407039036561</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.02414839475717974</v>
+        <v>0.03373717118331266</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.03187548130209126</v>
+        <v>0.0555263687047741</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.0529763427952776</v>
+        <v>0.04036417612975503</v>
       </c>
     </row>
     <row r="12">
@@ -1720,94 +1720,94 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.2824620993797241</v>
+        <v>0.2810215568232623</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01953967817974728</v>
+        <v>0.008994129968286392</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0730906366298507</v>
+        <v>0.06022193060344063</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02171341085254365</v>
+        <v>0.007230543550611668</v>
       </c>
       <c r="I12" t="n">
-        <v>0.04671937686075882</v>
+        <v>0.03542549500688953</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0204812265985431</v>
+        <v>0.03198121645750185</v>
       </c>
       <c r="K12" t="n">
-        <v>0.03896709351893923</v>
+        <v>0.004104505900918796</v>
       </c>
       <c r="L12" t="n">
-        <v>0.006361434865835824</v>
+        <v>0.04683906098663147</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01536488407502726</v>
+        <v>0.04342500613019792</v>
       </c>
       <c r="N12" t="n">
-        <v>0.005524470717668785</v>
+        <v>0.002163677959881674</v>
       </c>
       <c r="O12" t="n">
-        <v>0.02692153454600139</v>
+        <v>0.01020334651739961</v>
       </c>
       <c r="P12" t="n">
-        <v>0.001647229413165922</v>
+        <v>0.02095849041053151</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.04822359072136649</v>
+        <v>0.04331988630242107</v>
       </c>
       <c r="R12" t="n">
-        <v>0.02853240196293741</v>
+        <v>0.0008292797744130141</v>
       </c>
       <c r="S12" t="n">
-        <v>0.02923544893881622</v>
+        <v>0.04239203342115119</v>
       </c>
       <c r="T12" t="n">
-        <v>0.05550093363293281</v>
+        <v>0.01886791416913307</v>
       </c>
       <c r="U12" t="n">
-        <v>0.001095843552711443</v>
+        <v>0.0005265269443673563</v>
       </c>
       <c r="V12" t="n">
-        <v>0.06973086734111732</v>
+        <v>0.02463455729637393</v>
       </c>
       <c r="W12" t="n">
-        <v>0.07370981387030383</v>
+        <v>0.06388220549248672</v>
       </c>
       <c r="X12" t="n">
-        <v>0.05697426765505686</v>
+        <v>0.03515116311954269</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.04500411079309072</v>
+        <v>0.07978883171204358</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.01014315492262203</v>
+        <v>0.02501549515826899</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.01676613889807387</v>
+        <v>0.01490102463179523</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.01314560031875458</v>
+        <v>0.05450304055145849</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.05541837004574689</v>
+        <v>0.04330124846206691</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.03681425635135398</v>
+        <v>0.07524874331914548</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.07240155001675458</v>
+        <v>0.06461388680024255</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.05349356159497882</v>
+        <v>0.06004313346915962</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.05747911312530002</v>
+        <v>0.08143362588363895</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.2045921078074739</v>
+        <v>0.1904457253719538</v>
       </c>
     </row>
     <row r="13">
@@ -1830,94 +1830,94 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.4250474164146134</v>
+        <v>0.3711381055378363</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01493700986456827</v>
+        <v>0.03908940325454977</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0449047060836782</v>
+        <v>0.02770073404278169</v>
       </c>
       <c r="H13" t="n">
-        <v>0.03921104671117157</v>
+        <v>0.003432704362333227</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01238863960932099</v>
+        <v>0.004130623971992097</v>
       </c>
       <c r="J13" t="n">
-        <v>0.07610661463939788</v>
+        <v>0.04294895833750499</v>
       </c>
       <c r="K13" t="n">
-        <v>0.03697027522327816</v>
+        <v>0.009866052220883546</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06638438134340942</v>
+        <v>0.05719785388218664</v>
       </c>
       <c r="M13" t="n">
-        <v>0.02004670542536039</v>
+        <v>0.03616743831195594</v>
       </c>
       <c r="N13" t="n">
-        <v>0.02688790925699907</v>
+        <v>0.07070340276317355</v>
       </c>
       <c r="O13" t="n">
-        <v>0.06136044511116431</v>
+        <v>0.002769458115171746</v>
       </c>
       <c r="P13" t="n">
-        <v>0.02312899450683662</v>
+        <v>0.06094052503522401</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.03353930947658047</v>
+        <v>0.02706986718717773</v>
       </c>
       <c r="R13" t="n">
-        <v>0.06825456869088772</v>
+        <v>0.04459987853612423</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0116595315470863</v>
+        <v>0.028819906247088</v>
       </c>
       <c r="T13" t="n">
-        <v>0.03049188384701672</v>
+        <v>0.01578589317399383</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09014368183551418</v>
+        <v>0.07715381673558722</v>
       </c>
       <c r="V13" t="n">
-        <v>0.03707620943712038</v>
+        <v>0.04480295412388032</v>
       </c>
       <c r="W13" t="n">
-        <v>0.007370463672724311</v>
+        <v>0.02927184804746052</v>
       </c>
       <c r="X13" t="n">
-        <v>0.001054913084943593</v>
+        <v>0.03758177561269366</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.004467281284455562</v>
+        <v>0.02605347132173848</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.007347009608730774</v>
+        <v>0.005877603131399917</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.07616676000924337</v>
+        <v>0.02318181208418147</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.005521753468760116</v>
+        <v>0.009654408368838399</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.09003318506491696</v>
+        <v>0.06793796727279061</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.007711064645655477</v>
+        <v>0.01424567908450569</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.02990863098117516</v>
+        <v>0.06363511643153369</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.03544046676304442</v>
+        <v>0.06043252760198594</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.04148655880695959</v>
+        <v>0.06894832074126316</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.2471474590963822</v>
+        <v>0.2188362450285577</v>
       </c>
     </row>
     <row r="14">
@@ -1940,94 +1940,94 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.3091011561234353</v>
+        <v>0.3122116895536608</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02146865292067035</v>
+        <v>0.02817032918060932</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05021059740944082</v>
+        <v>0.02073913651152347</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01455250564752402</v>
+        <v>0.02971621112910968</v>
       </c>
       <c r="I14" t="n">
-        <v>0.04048946171321502</v>
+        <v>0.0494506190089407</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01291812421549058</v>
+        <v>0.05508898757403787</v>
       </c>
       <c r="K14" t="n">
-        <v>0.007247972278796954</v>
+        <v>0.04812993545780749</v>
       </c>
       <c r="L14" t="n">
-        <v>0.05138852744667976</v>
+        <v>0.01439560481165473</v>
       </c>
       <c r="M14" t="n">
-        <v>0.05713888976125817</v>
+        <v>0.05303908900315456</v>
       </c>
       <c r="N14" t="n">
-        <v>0.02314529264692293</v>
+        <v>0.0405839949457551</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0231838715768224</v>
+        <v>0.005916073194526615</v>
       </c>
       <c r="P14" t="n">
-        <v>0.06843398020426526</v>
+        <v>0.001516868900713214</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.01081898792410926</v>
+        <v>0.05599711334332777</v>
       </c>
       <c r="R14" t="n">
-        <v>0.02735382821074009</v>
+        <v>0.04120705852453225</v>
       </c>
       <c r="S14" t="n">
-        <v>0.059023004284102</v>
+        <v>0.03574038969286685</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0549168983653861</v>
+        <v>0.05888958132806568</v>
       </c>
       <c r="U14" t="n">
-        <v>0.008115460662853421</v>
+        <v>5.025728478400283e-05</v>
       </c>
       <c r="V14" t="n">
-        <v>0.03160648475361418</v>
+        <v>0.04703644878443859</v>
       </c>
       <c r="W14" t="n">
-        <v>0.05777870394503651</v>
+        <v>0.03747856285744267</v>
       </c>
       <c r="X14" t="n">
-        <v>0.009808371343124223</v>
+        <v>0.003171610835189532</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.04473476308468506</v>
+        <v>0.05431966704615782</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.0370837327834892</v>
+        <v>0.02185197400090515</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.01448533097056446</v>
+        <v>0.02980624734149182</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.009806574009249752</v>
+        <v>0.04348979040354507</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.02854644256225026</v>
+        <v>0.04854271975040841</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.0449188765080202</v>
+        <v>0.037147529289823</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.06327623344151904</v>
+        <v>0.0588085924860249</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.06756972646663284</v>
+        <v>0.02467784469189729</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.05997870486353698</v>
+        <v>0.05503776262126643</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0.09754249552425306</v>
+        <v>-0.05660425079313351</v>
       </c>
     </row>
     <row r="15">
@@ -2050,94 +2050,94 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.376107211020678</v>
+        <v>0.3862973208020451</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06746782297239835</v>
+        <v>0.07386530099887775</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0194847767419864</v>
+        <v>0.01613674649626757</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06657958233865746</v>
+        <v>0.04214878449819884</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07067977394485361</v>
+        <v>0.07471621412871426</v>
       </c>
       <c r="J15" t="n">
-        <v>0.05493717672110187</v>
+        <v>0.03468592595853404</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01507371432033234</v>
+        <v>0.0382358473927127</v>
       </c>
       <c r="L15" t="n">
-        <v>0.08063494636072997</v>
+        <v>0.05092913882700742</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0001984073763892114</v>
+        <v>0.01395947284406219</v>
       </c>
       <c r="N15" t="n">
-        <v>0.03691011737814285</v>
+        <v>0.03249655347163013</v>
       </c>
       <c r="O15" t="n">
-        <v>0.02415489659801196</v>
+        <v>0.02552400978160797</v>
       </c>
       <c r="P15" t="n">
-        <v>0.08100260630568187</v>
+        <v>0.07306039130917066</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0003163268443382824</v>
+        <v>0.02027296283174468</v>
       </c>
       <c r="R15" t="n">
-        <v>0.05631544019508632</v>
+        <v>0.03352488784546524</v>
       </c>
       <c r="S15" t="n">
-        <v>0.06389165747204271</v>
+        <v>0.05221024789816489</v>
       </c>
       <c r="T15" t="n">
-        <v>0.02523075645471039</v>
+        <v>0.01365755370057913</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02090851023125562</v>
+        <v>0.009794784427971225</v>
       </c>
       <c r="V15" t="n">
-        <v>0.04373925412894175</v>
+        <v>0.01432067635534463</v>
       </c>
       <c r="W15" t="n">
-        <v>0.01324635302328357</v>
+        <v>0.04520731201586024</v>
       </c>
       <c r="X15" t="n">
-        <v>0.01500442499874539</v>
+        <v>0.02356353777607941</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.05887550084923589</v>
+        <v>0.07520729914125544</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.02833644740009437</v>
+        <v>0.03444653789291242</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.01372483171006084</v>
+        <v>0.07714468254896334</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.03806011486423055</v>
+        <v>0.02269467441450803</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.003668079423282559</v>
+        <v>0.002155525521152586</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.03408375734654998</v>
+        <v>0.001311817413700023</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.002620286000491542</v>
+        <v>0.0309097639003668</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.05546032510131118</v>
+        <v>0.02633162753214787</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.009394112898052994</v>
+        <v>0.04148772307700067</v>
       </c>
       <c r="AH15" t="n">
-        <v>-0.06384591347522807</v>
+        <v>-0.04037792320375548</v>
       </c>
     </row>
     <row r="16">
@@ -2160,94 +2160,94 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.3037246024517044</v>
+        <v>0.3036584538333605</v>
       </c>
       <c r="F16" t="n">
-        <v>0.006021506802117121</v>
+        <v>0.01291626241804874</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06609189246880688</v>
+        <v>0.006555622855262444</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01587873176393607</v>
+        <v>0.01853162101352803</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0429130760767611</v>
+        <v>0.04293815270287067</v>
       </c>
       <c r="J16" t="n">
-        <v>0.06113053987585581</v>
+        <v>0.01556544288890507</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01876126369147373</v>
+        <v>0.02338819126340933</v>
       </c>
       <c r="L16" t="n">
-        <v>0.05059092664449094</v>
+        <v>0.04519065678140149</v>
       </c>
       <c r="M16" t="n">
-        <v>0.06518085086866965</v>
+        <v>0.00525397199286749</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01707353301543526</v>
+        <v>0.01018551485233468</v>
       </c>
       <c r="O16" t="n">
-        <v>0.04920520046265289</v>
+        <v>0.02479197811834423</v>
       </c>
       <c r="P16" t="n">
-        <v>0.04253917459229334</v>
+        <v>0.03767487207811964</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.03382724638986918</v>
+        <v>0.01147314568400887</v>
       </c>
       <c r="R16" t="n">
-        <v>0.05577688030158565</v>
+        <v>0.08475263692658945</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0100464792692935</v>
+        <v>0.04906838119710802</v>
       </c>
       <c r="T16" t="n">
-        <v>0.06063399584097504</v>
+        <v>0.1050951653634253</v>
       </c>
       <c r="U16" t="n">
-        <v>0.006814201525367202</v>
+        <v>0.0177353990483594</v>
       </c>
       <c r="V16" t="n">
-        <v>0.05459785791860126</v>
+        <v>0.05041911442681494</v>
       </c>
       <c r="W16" t="n">
-        <v>0.03045786320557157</v>
+        <v>0.02889543434535986</v>
       </c>
       <c r="X16" t="n">
-        <v>0.01926309719634939</v>
+        <v>0.01209320682173572</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.01414204720057788</v>
+        <v>0.019809278709646</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.06916167000332792</v>
+        <v>0.0118376228272165</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.01481639778724309</v>
+        <v>0.01355458581118017</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.06469142695142965</v>
+        <v>0.01548368165611486</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.0005594265171514121</v>
+        <v>0.03224784284048415</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.0223960250747736</v>
+        <v>0.07496199181734599</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.058139421300637</v>
+        <v>0.1008022765363253</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.03993706738369143</v>
+        <v>0.02883672349688262</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.009352199871062292</v>
+        <v>0.09994122552631111</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.1941651232820105</v>
+        <v>0.1735460257360774</v>
       </c>
     </row>
     <row r="17">
@@ -2270,94 +2270,94 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.5816264187421094</v>
+        <v>0.6037073967728372</v>
       </c>
       <c r="F17" t="n">
-        <v>0.07520230637769208</v>
+        <v>0.06956505797085381</v>
       </c>
       <c r="G17" t="n">
-        <v>0.08573271431317331</v>
+        <v>0.06091342169251197</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08496095604958843</v>
+        <v>0.08806287033723699</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0813932581499618</v>
+        <v>0.009994648746296434</v>
       </c>
       <c r="J17" t="n">
-        <v>0.004988392031345406</v>
+        <v>0.04556041644162405</v>
       </c>
       <c r="K17" t="n">
-        <v>0.02487383402998601</v>
+        <v>0.03672337539029642</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05280272952766468</v>
+        <v>0.005091932421635477</v>
       </c>
       <c r="M17" t="n">
-        <v>0.02437184246622082</v>
+        <v>0.02437768293647895</v>
       </c>
       <c r="N17" t="n">
-        <v>0.00706769375929535</v>
+        <v>0.02485906744691008</v>
       </c>
       <c r="O17" t="n">
-        <v>0.07552940050765727</v>
+        <v>0.06983930237637417</v>
       </c>
       <c r="P17" t="n">
-        <v>0.04883051172155491</v>
+        <v>0.06412430293393426</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.02683964703864094</v>
+        <v>0.04400969472837755</v>
       </c>
       <c r="R17" t="n">
-        <v>0.02640115294749114</v>
+        <v>0.0401841511141996</v>
       </c>
       <c r="S17" t="n">
-        <v>0.008963539910346343</v>
+        <v>0.03646030362103794</v>
       </c>
       <c r="T17" t="n">
-        <v>0.04093109089203312</v>
+        <v>0.03241533882904526</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01988028773687261</v>
+        <v>0.003167533645645922</v>
       </c>
       <c r="V17" t="n">
-        <v>0.07115303387541898</v>
+        <v>0.01181099384201078</v>
       </c>
       <c r="W17" t="n">
-        <v>0.04107341465437636</v>
+        <v>0.04012096698524345</v>
       </c>
       <c r="X17" t="n">
-        <v>0.01743902331571712</v>
+        <v>0.04774008144662045</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.01198951506920041</v>
+        <v>0.04478923878304032</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.01876411589901478</v>
+        <v>0.01303513388570324</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.003433609843257509</v>
+        <v>0.07778810391822827</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.03087964881399365</v>
+        <v>0.008964734393343323</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.02870337528335689</v>
+        <v>0.002926054051819098</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.0002528990923565431</v>
+        <v>0.008237559912434012</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.04469661719690105</v>
+        <v>0.03362709396793237</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.02134184089993127</v>
+        <v>0.02483781242539788</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.02150354859695122</v>
+        <v>0.03077312575576796</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.1649067452392445</v>
+        <v>0.1967038881324487</v>
       </c>
     </row>
     <row r="18">
@@ -2380,94 +2380,94 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.2835014772558274</v>
+        <v>0.289247289057104</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01029426684126371</v>
+        <v>0.01175735756840324</v>
       </c>
       <c r="G18" t="n">
-        <v>0.005489787357484943</v>
+        <v>0.06119668955440218</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02065404048254871</v>
+        <v>0.04948759506051316</v>
       </c>
       <c r="I18" t="n">
-        <v>0.00780215907767088</v>
+        <v>0.06853127188435242</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01734375045330246</v>
+        <v>0.03461693409580259</v>
       </c>
       <c r="K18" t="n">
-        <v>0.05228184083118075</v>
+        <v>0.0291380537049373</v>
       </c>
       <c r="L18" t="n">
-        <v>0.05043714242077513</v>
+        <v>0.02391582175387193</v>
       </c>
       <c r="M18" t="n">
-        <v>0.04905909735573312</v>
+        <v>0.05532554030634634</v>
       </c>
       <c r="N18" t="n">
-        <v>0.01166543408161194</v>
+        <v>0.01439045633629164</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01347187128230246</v>
+        <v>0.003663681935055872</v>
       </c>
       <c r="P18" t="n">
-        <v>0.07916295071247577</v>
+        <v>0.001066663137800166</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.02760139824384203</v>
+        <v>0.04689183425803913</v>
       </c>
       <c r="R18" t="n">
-        <v>0.01008274079424852</v>
+        <v>0.003570681699083867</v>
       </c>
       <c r="S18" t="n">
-        <v>0.0704548191336062</v>
+        <v>0.05266105789406694</v>
       </c>
       <c r="T18" t="n">
-        <v>0.02799280219561645</v>
+        <v>0.0551882046071572</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03877689234665316</v>
+        <v>0.01799550775441635</v>
       </c>
       <c r="V18" t="n">
-        <v>0.08118362239453926</v>
+        <v>0.001133425065040579</v>
       </c>
       <c r="W18" t="n">
-        <v>0.07358361381402811</v>
+        <v>0.05525766410332428</v>
       </c>
       <c r="X18" t="n">
-        <v>0.01602764669470646</v>
+        <v>0.00755310490715763</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.07605214272643469</v>
+        <v>0.05458368245048368</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.06624083561706352</v>
+        <v>0.05598398436049367</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.006168195052513475</v>
+        <v>0.01036134003177987</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.0009407671710372398</v>
+        <v>0.05703736221924774</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.02201026367218339</v>
+        <v>0.03976190420529801</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.01240600483697272</v>
+        <v>0.02647545123758262</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.03029513953160729</v>
+        <v>0.04664175454889122</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.04072171368322463</v>
+        <v>0.0650601278353739</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.08179906119537306</v>
+        <v>0.05075284748478649</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.03322200017487302</v>
+        <v>0.06167126440519453</v>
       </c>
     </row>
     <row r="19">
@@ -2490,94 +2490,94 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.4387384521844043</v>
+        <v>0.4185799904922055</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0310469023059997</v>
+        <v>0.0592276940475343</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0002248219634142144</v>
+        <v>0.0002057755639907867</v>
       </c>
       <c r="H19" t="n">
-        <v>0.02234880244690842</v>
+        <v>0.06204596570784882</v>
       </c>
       <c r="I19" t="n">
-        <v>0.02062817112522337</v>
+        <v>0.02346657885995363</v>
       </c>
       <c r="J19" t="n">
-        <v>0.07591472716592147</v>
+        <v>0.0584390379843554</v>
       </c>
       <c r="K19" t="n">
-        <v>0.07571810636665151</v>
+        <v>0.06321475122397979</v>
       </c>
       <c r="L19" t="n">
-        <v>0.03186006986615626</v>
+        <v>0.02167630096940493</v>
       </c>
       <c r="M19" t="n">
-        <v>0.07006239117822839</v>
+        <v>0.04923407635713861</v>
       </c>
       <c r="N19" t="n">
-        <v>0.05510880995067289</v>
+        <v>0.05092811709080451</v>
       </c>
       <c r="O19" t="n">
-        <v>0.007809891628357855</v>
+        <v>0.004374989741599033</v>
       </c>
       <c r="P19" t="n">
-        <v>0.001921769089307785</v>
+        <v>0.01480178720007763</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.07352179663656419</v>
+        <v>0.06813270303513179</v>
       </c>
       <c r="R19" t="n">
-        <v>0.001786759396958891</v>
+        <v>0.01213272983178112</v>
       </c>
       <c r="S19" t="n">
-        <v>0.02246286995622161</v>
+        <v>0.06313069906119356</v>
       </c>
       <c r="T19" t="n">
-        <v>0.01324761708350944</v>
+        <v>0.04282626971158161</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01868992518850921</v>
+        <v>0.04201530851288567</v>
       </c>
       <c r="V19" t="n">
-        <v>0.04835195107808158</v>
+        <v>0.005410028290597617</v>
       </c>
       <c r="W19" t="n">
-        <v>0.04950054309281778</v>
+        <v>0.06684874461678654</v>
       </c>
       <c r="X19" t="n">
-        <v>0.0214832685635874</v>
+        <v>0.02389210803586453</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.007705766051754518</v>
+        <v>0.03534570929861621</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.003860263626038107</v>
+        <v>0.003644228012909934</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.0655179340786185</v>
+        <v>0.04307437640774425</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.00718442459297925</v>
+        <v>0.03276223557767217</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.07578432929703406</v>
+        <v>0.06194481613872942</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.03058768792581175</v>
+        <v>0.02213998656096454</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.03136407985825531</v>
+        <v>0.01489184774913811</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.06441261935599432</v>
+        <v>0.01079631605190926</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.07189370113042211</v>
+        <v>0.04339681835980636</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.07092488587532939</v>
+        <v>0.07253740722019078</v>
       </c>
     </row>
     <row r="20">
@@ -2600,94 +2600,94 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1518986582325022</v>
+        <v>0.147448591765831</v>
       </c>
       <c r="F20" t="n">
-        <v>0.00736563433760302</v>
+        <v>0.006973076657880235</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02966900324179299</v>
+        <v>0.07931115966271836</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01190704806093876</v>
+        <v>0.0002290714829633196</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01605693587493174</v>
+        <v>0.02167491326975686</v>
       </c>
       <c r="J20" t="n">
-        <v>0.01832716483339939</v>
+        <v>0.02698604125282313</v>
       </c>
       <c r="K20" t="n">
-        <v>0.008135553590371861</v>
+        <v>0.02402827826904347</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0378878704039747</v>
+        <v>0.03796131496022535</v>
       </c>
       <c r="M20" t="n">
-        <v>0.02135897559577946</v>
+        <v>0.01365746112721153</v>
       </c>
       <c r="N20" t="n">
-        <v>0.03891098498643985</v>
+        <v>0.002494031268272107</v>
       </c>
       <c r="O20" t="n">
-        <v>0.028842221905661</v>
+        <v>0.0009903699173956862</v>
       </c>
       <c r="P20" t="n">
-        <v>0.05456053661943331</v>
+        <v>0.07018463121049211</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.03989665389624996</v>
+        <v>0.01615578082948965</v>
       </c>
       <c r="R20" t="n">
-        <v>0.07078454228890947</v>
+        <v>0.0566053067245199</v>
       </c>
       <c r="S20" t="n">
-        <v>0.002560781308013935</v>
+        <v>0.02967875965661176</v>
       </c>
       <c r="T20" t="n">
-        <v>0.07110383535535326</v>
+        <v>0.001302225650569617</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0417813295518215</v>
+        <v>0.01608264464843132</v>
       </c>
       <c r="V20" t="n">
-        <v>0.06467516709366383</v>
+        <v>0.07798529574380109</v>
       </c>
       <c r="W20" t="n">
-        <v>0.05545486805904481</v>
+        <v>0.05776408172963526</v>
       </c>
       <c r="X20" t="n">
-        <v>0.06835106199039276</v>
+        <v>0.02573743434949969</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.05395430125931376</v>
+        <v>0.05302144516270888</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.01544387716243873</v>
+        <v>0.07919874032490111</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.07028671693669077</v>
+        <v>0.01917971068796443</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.06864821715625873</v>
+        <v>0.06261881036140504</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.009323828007632828</v>
+        <v>0.0552862630739223</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.01460011922295702</v>
+        <v>0.03752685416893154</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.009204608542939793</v>
+        <v>0.006794733003177243</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.002737247739490582</v>
+        <v>0.0588170548410084</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.06817091497850229</v>
+        <v>0.06175450996464057</v>
       </c>
       <c r="AH20" t="n">
-        <v>-0.001774673287182854</v>
+        <v>0.01174711753588197</v>
       </c>
     </row>
     <row r="21">
@@ -2710,94 +2710,94 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.2148762000185694</v>
+        <v>0.2492619851599689</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004373206625733511</v>
+        <v>0.05241186053433345</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02069344181337797</v>
+        <v>0.03877455677101373</v>
       </c>
       <c r="H21" t="n">
-        <v>0.001555441239844155</v>
+        <v>0.01566394600683638</v>
       </c>
       <c r="I21" t="n">
-        <v>0.06477848501421229</v>
+        <v>0.07546572325622312</v>
       </c>
       <c r="J21" t="n">
-        <v>0.08210306518477775</v>
+        <v>0.06453948228122852</v>
       </c>
       <c r="K21" t="n">
-        <v>0.03473961424551463</v>
+        <v>0.07292741436137434</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02365172436122095</v>
+        <v>6.600940738633402e-05</v>
       </c>
       <c r="M21" t="n">
-        <v>0.04495042425477192</v>
+        <v>0.05216639162368392</v>
       </c>
       <c r="N21" t="n">
-        <v>0.03576440444986249</v>
+        <v>0.01018005307200172</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0004642508182946046</v>
+        <v>0.003173613386586394</v>
       </c>
       <c r="P21" t="n">
-        <v>0.05036820331971952</v>
+        <v>0.04208878118703099</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.01576700559585185</v>
+        <v>0.01509056826087244</v>
       </c>
       <c r="R21" t="n">
-        <v>0.05353461232612213</v>
+        <v>0.04756217747477665</v>
       </c>
       <c r="S21" t="n">
-        <v>0.02019208562657177</v>
+        <v>0.06340391294646791</v>
       </c>
       <c r="T21" t="n">
-        <v>0.022540014428805</v>
+        <v>0.002386848265284969</v>
       </c>
       <c r="U21" t="n">
-        <v>0.004606662518125405</v>
+        <v>0.005265639257496769</v>
       </c>
       <c r="V21" t="n">
-        <v>0.06690978096822692</v>
+        <v>0.07048396941371639</v>
       </c>
       <c r="W21" t="n">
-        <v>0.03015564526027224</v>
+        <v>0.04246058807312844</v>
       </c>
       <c r="X21" t="n">
-        <v>0.01629732462947489</v>
+        <v>0.03555684260264599</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.02257673678761587</v>
+        <v>0.01291202578008622</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.02970762972446937</v>
+        <v>0.01940051687782559</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.05510097449952698</v>
+        <v>0.03634573914185677</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.04412708947363322</v>
+        <v>0.042475382749833</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.08089718690336913</v>
+        <v>0.07582275002768715</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.07214227818017491</v>
+        <v>0.06383836462267932</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.07525641493904389</v>
+        <v>0.01835430940339106</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.02536397262943478</v>
+        <v>0.00596246326084401</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.001382324181951943</v>
+        <v>0.01522006995370843</v>
       </c>
       <c r="AH21" t="n">
-        <v>-0.01274770055281872</v>
+        <v>-0.01576337121632567</v>
       </c>
     </row>
     <row r="22">
@@ -2820,94 +2820,94 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.1897158773641035</v>
+        <v>0.1901631588634785</v>
       </c>
       <c r="F22" t="n">
-        <v>0.05480314626631894</v>
+        <v>0.04510009467582275</v>
       </c>
       <c r="G22" t="n">
-        <v>0.02811005776123859</v>
+        <v>0.06165589496096583</v>
       </c>
       <c r="H22" t="n">
-        <v>0.008123611495925892</v>
+        <v>0.01078538603429682</v>
       </c>
       <c r="I22" t="n">
-        <v>0.02201711151043596</v>
+        <v>0.009971968105070318</v>
       </c>
       <c r="J22" t="n">
-        <v>0.004698167391048806</v>
+        <v>0.0525790923898282</v>
       </c>
       <c r="K22" t="n">
-        <v>0.02188295167737787</v>
+        <v>0.009844227235831558</v>
       </c>
       <c r="L22" t="n">
-        <v>0.05087798641314234</v>
+        <v>0.04174733885701386</v>
       </c>
       <c r="M22" t="n">
-        <v>0.08129228822388956</v>
+        <v>0.02429075794732842</v>
       </c>
       <c r="N22" t="n">
-        <v>0.01166068401840533</v>
+        <v>0.02763478796147427</v>
       </c>
       <c r="O22" t="n">
-        <v>0.037157739891464</v>
+        <v>0.05421903148634818</v>
       </c>
       <c r="P22" t="n">
-        <v>0.005687828210842375</v>
+        <v>0.04443564840694618</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.01536888907585952</v>
+        <v>0.01510337213620414</v>
       </c>
       <c r="R22" t="n">
-        <v>0.04142727680737186</v>
+        <v>0.01431978625259364</v>
       </c>
       <c r="S22" t="n">
-        <v>0.05283761444258187</v>
+        <v>0.06380936546303503</v>
       </c>
       <c r="T22" t="n">
-        <v>0.07337195314408529</v>
+        <v>0.03946602112797053</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01609913617622872</v>
+        <v>0.04537526473293782</v>
       </c>
       <c r="V22" t="n">
-        <v>0.07170443577982415</v>
+        <v>0.03768508230017868</v>
       </c>
       <c r="W22" t="n">
-        <v>0.002175820105710489</v>
+        <v>0.0003234534792166265</v>
       </c>
       <c r="X22" t="n">
-        <v>0.01015687788854735</v>
+        <v>0.06111002308701976</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.03731148056031571</v>
+        <v>0.04835059192728144</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.07746776652481109</v>
+        <v>0.05260571530510399</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.02130267360462335</v>
+        <v>0.05169800107730767</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.05401027258598513</v>
+        <v>0.06142639292206082</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.05242500672454456</v>
+        <v>0.04584127030172486</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.02100384471849894</v>
+        <v>0.0006410691296424877</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.05863721311304922</v>
+        <v>0.02030440727622801</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.0273392487744721</v>
+        <v>0.04901349469492899</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.04104891711340097</v>
+        <v>0.01066246072563916</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.06708850017157605</v>
+        <v>0.0551671531278437</v>
       </c>
     </row>
     <row r="23">
@@ -2930,94 +2930,94 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.447002917209901</v>
+        <v>0.6238014375629247</v>
       </c>
       <c r="F23" t="n">
-        <v>0.02008192623296211</v>
+        <v>0.0344671350015384</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05899366599360411</v>
+        <v>0.008718719171427856</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0519331295039699</v>
+        <v>0.02945013679027206</v>
       </c>
       <c r="I23" t="n">
-        <v>0.003767304714482412</v>
+        <v>0.04422376181860831</v>
       </c>
       <c r="J23" t="n">
-        <v>0.01376921411549536</v>
+        <v>0.01555138062578913</v>
       </c>
       <c r="K23" t="n">
-        <v>0.004068360510384752</v>
+        <v>0.03172803257689196</v>
       </c>
       <c r="L23" t="n">
-        <v>0.04045043236952681</v>
+        <v>0.03706761366680447</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01659629877522549</v>
+        <v>0.0283105891324593</v>
       </c>
       <c r="N23" t="n">
-        <v>0.02987672359891865</v>
+        <v>0.03151522975890281</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01496834652734479</v>
+        <v>0.0341777843989982</v>
       </c>
       <c r="P23" t="n">
-        <v>0.05327234041768171</v>
+        <v>0.02368758535519211</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.08111193709440392</v>
+        <v>0.01423395995530161</v>
       </c>
       <c r="R23" t="n">
-        <v>0.05609244971777205</v>
+        <v>0.04165997223917327</v>
       </c>
       <c r="S23" t="n">
-        <v>0.02502365554738075</v>
+        <v>0.0900754702070856</v>
       </c>
       <c r="T23" t="n">
-        <v>0.05628048223266012</v>
+        <v>0.05279122939189786</v>
       </c>
       <c r="U23" t="n">
-        <v>0.07909843120179456</v>
+        <v>0.03417304675600208</v>
       </c>
       <c r="V23" t="n">
-        <v>0.02600405024268021</v>
+        <v>0.08378490610190957</v>
       </c>
       <c r="W23" t="n">
-        <v>0.09469321458432078</v>
+        <v>0.08619222335012733</v>
       </c>
       <c r="X23" t="n">
-        <v>0.006454190299205632</v>
+        <v>0.009111766055075457</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.05923014204531871</v>
+        <v>0.07588603634550854</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.06721323407593328</v>
+        <v>0.03162761225407809</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.01160467218788379</v>
+        <v>0.03972972666831456</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.05588479387247745</v>
+        <v>0.002087013893103418</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.002469824798192542</v>
+        <v>0.05145496529834791</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.0006746820718805079</v>
+        <v>0.006969209521044197</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.0509591006231953</v>
+        <v>0.02025361956775679</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.01111228722075688</v>
+        <v>0.03222144742685912</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.008315109424547487</v>
+        <v>0.008849826671530026</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.05451989613140891</v>
+        <v>0.05919744231952283</v>
       </c>
     </row>
     <row r="24">
@@ -3040,94 +3040,94 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1949570915739195</v>
+        <v>0.1819876589876391</v>
       </c>
       <c r="F24" t="n">
-        <v>0.03091654730854101</v>
+        <v>0.009632464723452481</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0712546602052942</v>
+        <v>0.03292258829923098</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001237989290160804</v>
+        <v>0.00439561729003283</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01580716123676324</v>
+        <v>0.05022382063301783</v>
       </c>
       <c r="J24" t="n">
-        <v>0.06232105113652698</v>
+        <v>0.03416241131711454</v>
       </c>
       <c r="K24" t="n">
-        <v>0.04033936164278611</v>
+        <v>0.01835482063274275</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02224003307170806</v>
+        <v>0.009457437812846727</v>
       </c>
       <c r="M24" t="n">
-        <v>0.04462459649210513</v>
+        <v>0.04624987464077985</v>
       </c>
       <c r="N24" t="n">
-        <v>0.02141617246412916</v>
+        <v>0.03585031252830356</v>
       </c>
       <c r="O24" t="n">
-        <v>0.05455702067856479</v>
+        <v>0.008627652500661094</v>
       </c>
       <c r="P24" t="n">
-        <v>0.006368131773282048</v>
+        <v>0.0007870749731163933</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.04329403392651386</v>
+        <v>0.06112675629913947</v>
       </c>
       <c r="R24" t="n">
-        <v>0.002603436541498099</v>
+        <v>0.04853967190639757</v>
       </c>
       <c r="S24" t="n">
-        <v>0.05276256028151337</v>
+        <v>0.05594200093977258</v>
       </c>
       <c r="T24" t="n">
-        <v>0.02677381808183819</v>
+        <v>0.05872708908619357</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03099627345134086</v>
+        <v>0.04952502482742268</v>
       </c>
       <c r="V24" t="n">
-        <v>0.01008816935286944</v>
+        <v>0.03115826197296087</v>
       </c>
       <c r="W24" t="n">
-        <v>0.04382542446133859</v>
+        <v>0.04303130940453972</v>
       </c>
       <c r="X24" t="n">
-        <v>0.06715863227296105</v>
+        <v>0.02551422433011057</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.01409465737344608</v>
+        <v>0.04461234447278096</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.04703850496356025</v>
+        <v>0.06335855826317592</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.05803465474556254</v>
+        <v>0.04645762868444921</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.05850628835174117</v>
+        <v>0.05091624105798996</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.05463758092724341</v>
+        <v>0.06015181734302841</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.05384669784309596</v>
+        <v>0.0401187148724978</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.003479882766929614</v>
+        <v>0.0003908469168553671</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.01641665440444813</v>
+        <v>0.01741713589573178</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.04536000495423798</v>
+        <v>0.05234829837565452</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.05617158876119216</v>
+        <v>0.03055488235836543</v>
       </c>
     </row>
     <row r="25">
@@ -3150,94 +3150,94 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1.118589993582953</v>
+        <v>0.6184556511526917</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0006217891209441355</v>
+        <v>0.02117710937218473</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0829111890278111</v>
+        <v>0.07640136767066015</v>
       </c>
       <c r="H25" t="n">
-        <v>0.02385340814766841</v>
+        <v>0.06039662195607769</v>
       </c>
       <c r="I25" t="n">
-        <v>0.001096638633061971</v>
+        <v>0.02073090262495281</v>
       </c>
       <c r="J25" t="n">
-        <v>0.05248725998902996</v>
+        <v>0.01808794620907712</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0608330580965568</v>
+        <v>0.03474227560006855</v>
       </c>
       <c r="L25" t="n">
-        <v>0.02722274468846831</v>
+        <v>0.003798981187940068</v>
       </c>
       <c r="M25" t="n">
-        <v>0.06957086184126397</v>
+        <v>0.05520960010014758</v>
       </c>
       <c r="N25" t="n">
-        <v>0.04067819037793396</v>
+        <v>0.02140267824149259</v>
       </c>
       <c r="O25" t="n">
-        <v>0.04446622776411823</v>
+        <v>0.01517354986874291</v>
       </c>
       <c r="P25" t="n">
-        <v>0.009881592274395189</v>
+        <v>0.1002955491155321</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.02549470275630239</v>
+        <v>0.02426952797365531</v>
       </c>
       <c r="R25" t="n">
-        <v>0.07562024454101887</v>
+        <v>0.03684876627539176</v>
       </c>
       <c r="S25" t="n">
-        <v>0.06288263032359297</v>
+        <v>0.09132467922540334</v>
       </c>
       <c r="T25" t="n">
-        <v>0.02925866077918447</v>
+        <v>0.004458216252324723</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04412054538384013</v>
+        <v>0.002601982037241186</v>
       </c>
       <c r="V25" t="n">
-        <v>0.06287088814628261</v>
+        <v>0.06285884971271435</v>
       </c>
       <c r="W25" t="n">
-        <v>0.001399736607878466</v>
+        <v>0.03734205457016361</v>
       </c>
       <c r="X25" t="n">
-        <v>0.01836303442428908</v>
+        <v>0.004588027055877244</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.02772134898234118</v>
+        <v>0.07080378773168418</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.01165066166494296</v>
+        <v>0.03749207898362025</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.02027199941690371</v>
+        <v>0.02019764728748439</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.07676839919616577</v>
+        <v>0.03098663827284195</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.02845910883676232</v>
+        <v>0.03731838902427358</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.01853247174690585</v>
+        <v>0.0216913507294303</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.009004831786417948</v>
+        <v>0.05433876920150338</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.04129476142642566</v>
+        <v>0.005527895979865032</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.03266301401949335</v>
+        <v>0.02993475773964923</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.05647770659183458</v>
+        <v>0.01407829811901563</v>
       </c>
     </row>
     <row r="26">
@@ -3260,94 +3260,94 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.1785044012446793</v>
+        <v>0.1698515563874497</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0347561858445383</v>
+        <v>0.01250727610874439</v>
       </c>
       <c r="G26" t="n">
-        <v>0.007408166666513921</v>
+        <v>0.01401764842661681</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01814434918885123</v>
+        <v>0.0196397520943506</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0577461774438273</v>
+        <v>0.03206392640044056</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01631769475622498</v>
+        <v>0.002563006202347023</v>
       </c>
       <c r="K26" t="n">
-        <v>0.009810485443109061</v>
+        <v>0.01577847826226988</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01019469188015011</v>
+        <v>0.0003094407263642757</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0006340988674479395</v>
+        <v>0.06311114531605598</v>
       </c>
       <c r="N26" t="n">
-        <v>0.001963271159026978</v>
+        <v>0.02516975237511495</v>
       </c>
       <c r="O26" t="n">
-        <v>0.02485311897858047</v>
+        <v>0.00695917957377747</v>
       </c>
       <c r="P26" t="n">
-        <v>0.003779648691265826</v>
+        <v>0.008609361559559346</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.07777465261409106</v>
+        <v>0.01665259105585382</v>
       </c>
       <c r="R26" t="n">
-        <v>0.04718298702537661</v>
+        <v>0.0549109670391096</v>
       </c>
       <c r="S26" t="n">
-        <v>0.05558023291962916</v>
+        <v>0.03799904896140362</v>
       </c>
       <c r="T26" t="n">
-        <v>0.02352998430213772</v>
+        <v>0.08374215314658127</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01788234959802657</v>
+        <v>0.02804902494073358</v>
       </c>
       <c r="V26" t="n">
-        <v>0.0680412799571856</v>
+        <v>0.09034270890421063</v>
       </c>
       <c r="W26" t="n">
-        <v>0.06432450553624128</v>
+        <v>0.05881478195026692</v>
       </c>
       <c r="X26" t="n">
-        <v>0.001578712709383426</v>
+        <v>0.05592836457994395</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.0261690558928883</v>
+        <v>0.005633530316999895</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.07286359627137967</v>
+        <v>0.00461617711032085</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.03235357266392948</v>
+        <v>0.06084525197533001</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.0542288692089298</v>
+        <v>0.09183493236901806</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.02007173033434913</v>
+        <v>0.000926109349237891</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.09399280370852164</v>
+        <v>0.04359093183204777</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.01657251773088862</v>
+        <v>0.02082396164272382</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.06977944201417351</v>
+        <v>0.06478790096175173</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.07246581859333252</v>
+        <v>0.0797725968188253</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.1253192113716623</v>
+        <v>0.1214295611502891</v>
       </c>
     </row>
     <row r="27">
@@ -3370,94 +3370,94 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.2876050161373631</v>
+        <v>0.2311831524981224</v>
       </c>
       <c r="F27" t="n">
-        <v>0.02275818391897503</v>
+        <v>0.02716801658612253</v>
       </c>
       <c r="G27" t="n">
-        <v>0.05676659223420168</v>
+        <v>0.04696923755498986</v>
       </c>
       <c r="H27" t="n">
-        <v>0.07131865325779227</v>
+        <v>0.07992816479668816</v>
       </c>
       <c r="I27" t="n">
-        <v>0.05789815862009332</v>
+        <v>0.07461194010727157</v>
       </c>
       <c r="J27" t="n">
-        <v>0.009488142377892682</v>
+        <v>0.01531831196916215</v>
       </c>
       <c r="K27" t="n">
-        <v>0.06595033881771352</v>
+        <v>0.05476764016367388</v>
       </c>
       <c r="L27" t="n">
-        <v>0.02840686250447529</v>
+        <v>0.01225496844318612</v>
       </c>
       <c r="M27" t="n">
-        <v>0.01014320793967561</v>
+        <v>0.003194445275180399</v>
       </c>
       <c r="N27" t="n">
-        <v>0.03538532527656585</v>
+        <v>0.05080332525748113</v>
       </c>
       <c r="O27" t="n">
-        <v>0.05017730980800778</v>
+        <v>0.04543304234436943</v>
       </c>
       <c r="P27" t="n">
-        <v>0.05152412539248646</v>
+        <v>0.01520085800400326</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.01780522267590127</v>
+        <v>0.0421440783150808</v>
       </c>
       <c r="R27" t="n">
-        <v>0.02011334818151212</v>
+        <v>0.01300676684687546</v>
       </c>
       <c r="S27" t="n">
-        <v>0.0671175599057105</v>
+        <v>0.03350139516857952</v>
       </c>
       <c r="T27" t="n">
-        <v>0.02574826799911653</v>
+        <v>0.0270092320494815</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0751730236355348</v>
+        <v>0.07375546073642661</v>
       </c>
       <c r="V27" t="n">
-        <v>0.01600873474466522</v>
+        <v>0.05660476637790305</v>
       </c>
       <c r="W27" t="n">
-        <v>0.01850549557608304</v>
+        <v>0.05983834245292433</v>
       </c>
       <c r="X27" t="n">
-        <v>0.05278965788684659</v>
+        <v>0.01261744457345807</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.01371845667102861</v>
+        <v>0.05249966573276058</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.03188844413992298</v>
+        <v>0.06719264319510783</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.01860975081196001</v>
+        <v>0.01017797772950066</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.04738024968959392</v>
+        <v>0.02810050772957839</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.0109379924616986</v>
+        <v>0.03180915195079359</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.02217136907205093</v>
+        <v>0.03398767095043179</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.04214377590405317</v>
+        <v>0.004658552963753035</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.05210464860923673</v>
+        <v>0.009613981374713159</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.007967101887205535</v>
+        <v>0.01783241135050324</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.1302211121870272</v>
+        <v>0.1335262539901777</v>
       </c>
     </row>
     <row r="28">
@@ -3480,94 +3480,94 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.2428535734008391</v>
+        <v>0.297818542019088</v>
       </c>
       <c r="F28" t="n">
-        <v>0.03238445864131485</v>
+        <v>0.06345233651147707</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04938187295616142</v>
+        <v>0.02476992308571176</v>
       </c>
       <c r="H28" t="n">
-        <v>0.05848537324106019</v>
+        <v>0.04951338461495068</v>
       </c>
       <c r="I28" t="n">
-        <v>0.02311718803266916</v>
+        <v>0.009260726435260812</v>
       </c>
       <c r="J28" t="n">
-        <v>0.07379659027760543</v>
+        <v>0.001605657594770353</v>
       </c>
       <c r="K28" t="n">
-        <v>0.01486380837376487</v>
+        <v>0.01343830014355188</v>
       </c>
       <c r="L28" t="n">
-        <v>0.04416070745848695</v>
+        <v>0.0187899572414683</v>
       </c>
       <c r="M28" t="n">
-        <v>0.04071937669954701</v>
+        <v>0.06842572465098125</v>
       </c>
       <c r="N28" t="n">
-        <v>0.05663326128161599</v>
+        <v>0.02418140624593424</v>
       </c>
       <c r="O28" t="n">
-        <v>0.003640904217340123</v>
+        <v>0.02028679043245895</v>
       </c>
       <c r="P28" t="n">
-        <v>0.002985924932420525</v>
+        <v>0.01437974181716345</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.0305732434235036</v>
+        <v>0.0789790010264052</v>
       </c>
       <c r="R28" t="n">
-        <v>0.05981756494060447</v>
+        <v>0.06214070063020931</v>
       </c>
       <c r="S28" t="n">
-        <v>0.02643189455682464</v>
+        <v>0.07198950818460378</v>
       </c>
       <c r="T28" t="n">
-        <v>0.05977645156554027</v>
+        <v>0.05078650748219903</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01946548784268272</v>
+        <v>0.008311648565762195</v>
       </c>
       <c r="V28" t="n">
-        <v>0.05685992299212494</v>
+        <v>0.01060810115310105</v>
       </c>
       <c r="W28" t="n">
-        <v>0.02979906559602703</v>
+        <v>0.03343440450623651</v>
       </c>
       <c r="X28" t="n">
-        <v>0.01483153395087793</v>
+        <v>0.01937583462044338</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.0303655168825721</v>
+        <v>0.03981660704030306</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.01238088024250512</v>
+        <v>0.01403373332951599</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.01036112222158822</v>
+        <v>0.01739462190384143</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.0564721757492381</v>
+        <v>0.07181333539451835</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.0412653701531461</v>
+        <v>0.0301287925928677</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.02964874898806377</v>
+        <v>0.00541037174762855</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.04972923875374932</v>
+        <v>0.07436991198466172</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.02274136331130074</v>
+        <v>0.06855340435046869</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.04931095271766445</v>
+        <v>0.03474956671350526</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.09534778545756929</v>
+        <v>0.1069109252595103</v>
       </c>
     </row>
     <row r="29">
@@ -3590,94 +3590,94 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.4662186412301861</v>
+        <v>0.692047955858366</v>
       </c>
       <c r="F29" t="n">
-        <v>0.06331728706215174</v>
+        <v>0.04663650606532696</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01901468642835508</v>
+        <v>0.03863374057833963</v>
       </c>
       <c r="H29" t="n">
-        <v>0.04661711696009084</v>
+        <v>0.04591740483905429</v>
       </c>
       <c r="I29" t="n">
-        <v>0.02599922262230532</v>
+        <v>0.0757398926753777</v>
       </c>
       <c r="J29" t="n">
-        <v>0.06980597135301335</v>
+        <v>0.01646306333591385</v>
       </c>
       <c r="K29" t="n">
-        <v>0.002690162386764945</v>
+        <v>0.01587204370030884</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0507121749031554</v>
+        <v>0.008606949250948518</v>
       </c>
       <c r="M29" t="n">
-        <v>0.02709580064559397</v>
+        <v>0.09373650301863029</v>
       </c>
       <c r="N29" t="n">
-        <v>0.08378977770112654</v>
+        <v>0.03377926025994901</v>
       </c>
       <c r="O29" t="n">
-        <v>0.0009425153526223417</v>
+        <v>0.01620635747807632</v>
       </c>
       <c r="P29" t="n">
-        <v>0.01002845493116073</v>
+        <v>0.007723045193275352</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.05796181196083071</v>
+        <v>0.02426087436406725</v>
       </c>
       <c r="R29" t="n">
-        <v>0.07778543630346733</v>
+        <v>0.0378551500214095</v>
       </c>
       <c r="S29" t="n">
-        <v>0.03373723876477035</v>
+        <v>0.02168163021012978</v>
       </c>
       <c r="T29" t="n">
-        <v>0.01112151784207912</v>
+        <v>0.04754893820092264</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0005945006370250975</v>
+        <v>0.02241077129424146</v>
       </c>
       <c r="V29" t="n">
-        <v>0.01606924995513472</v>
+        <v>0.02900118127252933</v>
       </c>
       <c r="W29" t="n">
-        <v>5.013754772509453e-05</v>
+        <v>0.03879019355617327</v>
       </c>
       <c r="X29" t="n">
-        <v>0.07880711902832588</v>
+        <v>0.02432893783547281</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.03603324683083566</v>
+        <v>0.005524866539021465</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.002749485517185146</v>
+        <v>0.01269881193131934</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.01368520887031537</v>
+        <v>0.09633190850331237</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.02555117653943773</v>
+        <v>0.08726099713475642</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.0084583529448665</v>
+        <v>0.01588545685083112</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.02787772078872357</v>
+        <v>0.03586878747918133</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.07664693480752592</v>
+        <v>0.01991727896584299</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.05067691732652113</v>
+        <v>0.04985282747366254</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.08218077398889027</v>
+        <v>0.03146662197192573</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.116251758135796</v>
+        <v>0.1338838393465525</v>
       </c>
     </row>
     <row r="30">
@@ -3700,94 +3700,94 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.1603340243496758</v>
+        <v>0.162022173944009</v>
       </c>
       <c r="F30" t="n">
-        <v>0.06944148646427477</v>
+        <v>0.01509695438919496</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02219293717054222</v>
+        <v>0.03766659645803262</v>
       </c>
       <c r="H30" t="n">
-        <v>0.02207746650316576</v>
+        <v>0.006687296105609881</v>
       </c>
       <c r="I30" t="n">
-        <v>0.076406929248675</v>
+        <v>0.0618076293097558</v>
       </c>
       <c r="J30" t="n">
-        <v>0.005302500619236191</v>
+        <v>0.02154764892528131</v>
       </c>
       <c r="K30" t="n">
-        <v>0.04993029921378828</v>
+        <v>0.07930686594739554</v>
       </c>
       <c r="L30" t="n">
-        <v>0.07021098912574922</v>
+        <v>0.0648877800521221</v>
       </c>
       <c r="M30" t="n">
-        <v>0.03774255920428689</v>
+        <v>0.07843711553393284</v>
       </c>
       <c r="N30" t="n">
-        <v>0.01927631821364296</v>
+        <v>0.0311186165749629</v>
       </c>
       <c r="O30" t="n">
-        <v>0.006476657360927499</v>
+        <v>0.003483746662718018</v>
       </c>
       <c r="P30" t="n">
-        <v>0.007457484272983053</v>
+        <v>0.03520437778935903</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.007379696187676874</v>
+        <v>0.02422424468989503</v>
       </c>
       <c r="R30" t="n">
-        <v>0.03732282930009579</v>
+        <v>0.06803895759923749</v>
       </c>
       <c r="S30" t="n">
-        <v>0.06881625666795939</v>
+        <v>0.01255715892674022</v>
       </c>
       <c r="T30" t="n">
-        <v>0.007985486725445612</v>
+        <v>0.02129704176356011</v>
       </c>
       <c r="U30" t="n">
-        <v>0.005347924338045261</v>
+        <v>0.0004311080721414774</v>
       </c>
       <c r="V30" t="n">
-        <v>0.0659037400325387</v>
+        <v>0.07807959015049905</v>
       </c>
       <c r="W30" t="n">
-        <v>0.02132869901728476</v>
+        <v>0.002984067687109297</v>
       </c>
       <c r="X30" t="n">
-        <v>0.05369943938661704</v>
+        <v>0.008229225348008734</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.0629426228121277</v>
+        <v>0.03009582350449461</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.0737109084255739</v>
+        <v>0.08066906104921862</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.003592511695689206</v>
+        <v>0.03287999081703751</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.02951840272714753</v>
+        <v>0.02741925544570871</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.02648477086573509</v>
+        <v>0.0225608485005365</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.01139389961885125</v>
+        <v>0.02056976923644023</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.05964182819070388</v>
+        <v>0.06467495477981119</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.006000983883771851</v>
+        <v>0.01319769327455795</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.07241437272746441</v>
+        <v>0.05684658140663809</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.06752697697604823</v>
+        <v>0.05603510954370651</v>
       </c>
     </row>
     <row r="31">
@@ -3810,94 +3810,94 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.1874842495219156</v>
+        <v>0.1983203182916619</v>
       </c>
       <c r="F31" t="n">
-        <v>0.02033171219094364</v>
+        <v>0.01103761108216182</v>
       </c>
       <c r="G31" t="n">
-        <v>0.007786517784495118</v>
+        <v>0.009758470915114833</v>
       </c>
       <c r="H31" t="n">
-        <v>0.01186860137811459</v>
+        <v>0.008514895234624332</v>
       </c>
       <c r="I31" t="n">
-        <v>0.07982714761033351</v>
+        <v>0.05563723105945263</v>
       </c>
       <c r="J31" t="n">
-        <v>0.07240418330785658</v>
+        <v>0.04603581813066576</v>
       </c>
       <c r="K31" t="n">
-        <v>0.03830595530199655</v>
+        <v>0.05119226823053866</v>
       </c>
       <c r="L31" t="n">
-        <v>0.009668132431261208</v>
+        <v>0.06136890106624979</v>
       </c>
       <c r="M31" t="n">
-        <v>0.007496591206111989</v>
+        <v>0.008824362521595075</v>
       </c>
       <c r="N31" t="n">
-        <v>0.06068231801162726</v>
+        <v>0.03213023032318763</v>
       </c>
       <c r="O31" t="n">
-        <v>0.01311719934074848</v>
+        <v>0.002142033736890561</v>
       </c>
       <c r="P31" t="n">
-        <v>0.06761857052514261</v>
+        <v>0.06785554773502887</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.03191964924165716</v>
+        <v>0.03479660602376491</v>
       </c>
       <c r="R31" t="n">
-        <v>0.06206340273991983</v>
+        <v>0.01517065678190905</v>
       </c>
       <c r="S31" t="n">
-        <v>0.01311415956775426</v>
+        <v>0.07115954312689447</v>
       </c>
       <c r="T31" t="n">
-        <v>0.02941985622868347</v>
+        <v>0.009850898312679752</v>
       </c>
       <c r="U31" t="n">
-        <v>0.004063731533958152</v>
+        <v>0.02053099782537183</v>
       </c>
       <c r="V31" t="n">
-        <v>0.06603223400071492</v>
+        <v>0.02799316625221221</v>
       </c>
       <c r="W31" t="n">
-        <v>0.01706617935100225</v>
+        <v>0.06151919023616069</v>
       </c>
       <c r="X31" t="n">
-        <v>0.0546292328015725</v>
+        <v>0.04371515824389186</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.05810540494628928</v>
+        <v>0.03230303671496235</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.01509853396010437</v>
+        <v>0.0222352827789386</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.05169526181060208</v>
+        <v>0.05773761977598355</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.04513016972498501</v>
+        <v>0.02388708084421019</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.001219011124932915</v>
+        <v>0.009969790504744683</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.03031548292980984</v>
+        <v>0.06139039085660252</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.005065566444708809</v>
+        <v>0.04577037352459853</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.07598734321532725</v>
+        <v>0.04799329193786148</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.0499678512893463</v>
+        <v>0.05947954622370336</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.07046002553209867</v>
+        <v>0.07033973392471024</v>
       </c>
     </row>
     <row r="32">
@@ -3920,94 +3920,94 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.1407725620200526</v>
+        <v>0.1623060074777852</v>
       </c>
       <c r="F32" t="n">
-        <v>0.01289419641277808</v>
+        <v>0.03781077486960969</v>
       </c>
       <c r="G32" t="n">
-        <v>0.007509991960084498</v>
+        <v>0.02157721331273814</v>
       </c>
       <c r="H32" t="n">
-        <v>0.01623960242701971</v>
+        <v>0.01683974861995446</v>
       </c>
       <c r="I32" t="n">
-        <v>0.08440146748608336</v>
+        <v>0.02025466324773436</v>
       </c>
       <c r="J32" t="n">
-        <v>0.001269377719833302</v>
+        <v>0.001769573541674672</v>
       </c>
       <c r="K32" t="n">
-        <v>0.05653201259235124</v>
+        <v>0.006206694904339279</v>
       </c>
       <c r="L32" t="n">
-        <v>0.01571563822384527</v>
+        <v>0.04488787260170973</v>
       </c>
       <c r="M32" t="n">
-        <v>0.09547209446778611</v>
+        <v>0.02445686286347356</v>
       </c>
       <c r="N32" t="n">
-        <v>0.01553933265584827</v>
+        <v>0.03217317259929404</v>
       </c>
       <c r="O32" t="n">
-        <v>0.01335594440563084</v>
+        <v>0.02044380409406023</v>
       </c>
       <c r="P32" t="n">
-        <v>0.0278702063029465</v>
+        <v>0.06845256507273721</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.009463547952647982</v>
+        <v>0.02146953303482728</v>
       </c>
       <c r="R32" t="n">
-        <v>0.04015401033335474</v>
+        <v>0.02417143462422722</v>
       </c>
       <c r="S32" t="n">
-        <v>0.009634587869604697</v>
+        <v>0.003996071409735341</v>
       </c>
       <c r="T32" t="n">
-        <v>0.008015381374872973</v>
+        <v>0.03397935612968837</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03306116581165312</v>
+        <v>0.05431126794201963</v>
       </c>
       <c r="V32" t="n">
-        <v>0.03075527193610503</v>
+        <v>0.007280210968690423</v>
       </c>
       <c r="W32" t="n">
-        <v>0.04650066469086866</v>
+        <v>0.06285206068416664</v>
       </c>
       <c r="X32" t="n">
-        <v>0.07982810551438006</v>
+        <v>0.05968758864273443</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.04846831632102492</v>
+        <v>0.06922410263366449</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.001779275729787086</v>
+        <v>0.005029925455028745</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.09773830509876213</v>
+        <v>0.05087978719770471</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.06661505364921551</v>
+        <v>0.08472689975468431</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.04647467381888108</v>
+        <v>0.06326299175903734</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.01648568275037687</v>
+        <v>0.05140671023123584</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.03380273008596268</v>
+        <v>0.07818042474275921</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.002513401649002249</v>
+        <v>0.0067219622368242</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.08190996075929298</v>
+        <v>0.02794672682564654</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.05362211516532654</v>
+        <v>0.079023832728689</v>
       </c>
     </row>
     <row r="33">
@@ -4030,94 +4030,94 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.4160271688769286</v>
+        <v>0.1623060074777852</v>
       </c>
       <c r="F33" t="n">
-        <v>0.006965685594004051</v>
+        <v>0.03781077486960969</v>
       </c>
       <c r="G33" t="n">
-        <v>0.002287818479262145</v>
+        <v>0.02157721331273814</v>
       </c>
       <c r="H33" t="n">
-        <v>0.04579008045184523</v>
+        <v>0.01683974861995446</v>
       </c>
       <c r="I33" t="n">
-        <v>0.07291441980227675</v>
+        <v>0.02025466324773436</v>
       </c>
       <c r="J33" t="n">
-        <v>0.006593096799290952</v>
+        <v>0.001769573541674672</v>
       </c>
       <c r="K33" t="n">
-        <v>0.04556714842107333</v>
+        <v>0.006206694904339279</v>
       </c>
       <c r="L33" t="n">
-        <v>0.03772638392436552</v>
+        <v>0.04488787260170973</v>
       </c>
       <c r="M33" t="n">
-        <v>0.04098621025489271</v>
+        <v>0.02445686286347356</v>
       </c>
       <c r="N33" t="n">
-        <v>0.02529474665069252</v>
+        <v>0.03217317259929404</v>
       </c>
       <c r="O33" t="n">
-        <v>0.04563449997826663</v>
+        <v>0.02044380409406023</v>
       </c>
       <c r="P33" t="n">
-        <v>0.01909837257969559</v>
+        <v>0.06845256507273721</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.0402682009544193</v>
+        <v>0.02146953303482728</v>
       </c>
       <c r="R33" t="n">
-        <v>0.08403933204804204</v>
+        <v>0.02417143462422722</v>
       </c>
       <c r="S33" t="n">
-        <v>0.07194528023611667</v>
+        <v>0.003996071409735341</v>
       </c>
       <c r="T33" t="n">
-        <v>0.008746961200781687</v>
+        <v>0.03397935612968837</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02305936157836029</v>
+        <v>0.05431126794201963</v>
       </c>
       <c r="V33" t="n">
-        <v>0.01856130676339176</v>
+        <v>0.007280210968690423</v>
       </c>
       <c r="W33" t="n">
-        <v>0.01262361149055175</v>
+        <v>0.06285206068416664</v>
       </c>
       <c r="X33" t="n">
-        <v>0.06628205612466218</v>
+        <v>0.05968758864273443</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.04395683625059431</v>
+        <v>0.06922410263366449</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.0526059968881909</v>
+        <v>0.005029925455028745</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.01793735571726496</v>
+        <v>0.05087978719770471</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.006914529692830094</v>
+        <v>0.08472689975468431</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.02261806216093869</v>
+        <v>0.06326299175903734</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.01939714886119433</v>
+        <v>0.05140671023123584</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.0582960353562356</v>
+        <v>0.07818042474275921</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.02734649828432164</v>
+        <v>0.0067219622368242</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.0765429634564383</v>
+        <v>0.02794672682564654</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.04560864291681201</v>
+        <v>0.079023832728689</v>
       </c>
     </row>
     <row r="34">
@@ -4140,94 +4140,94 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.1742086590678482</v>
+        <v>0.2101880772153054</v>
       </c>
       <c r="F34" t="n">
-        <v>0.01977544144273119</v>
+        <v>0.05244637120989543</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02342570065607634</v>
+        <v>0.02088010736537808</v>
       </c>
       <c r="H34" t="n">
-        <v>0.05681025516085374</v>
+        <v>0.0497812524382908</v>
       </c>
       <c r="I34" t="n">
-        <v>0.005113362557745986</v>
+        <v>0.06003021475702076</v>
       </c>
       <c r="J34" t="n">
-        <v>0.02000645697343436</v>
+        <v>0.06176045004002228</v>
       </c>
       <c r="K34" t="n">
-        <v>0.06960440874288448</v>
+        <v>0.0393753452950891</v>
       </c>
       <c r="L34" t="n">
-        <v>0.005096099133264477</v>
+        <v>0.00917803979361923</v>
       </c>
       <c r="M34" t="n">
-        <v>0.05367714947871424</v>
+        <v>0.04703768087519536</v>
       </c>
       <c r="N34" t="n">
-        <v>0.004305172954661305</v>
+        <v>0.05299488896725928</v>
       </c>
       <c r="O34" t="n">
-        <v>0.008580442426112455</v>
+        <v>0.05472914049836813</v>
       </c>
       <c r="P34" t="n">
-        <v>0.01451566911019934</v>
+        <v>0.00983383048117273</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.04517938462716928</v>
+        <v>0.03580887886836848</v>
       </c>
       <c r="R34" t="n">
-        <v>0.06435029953546732</v>
+        <v>0.01731647722832039</v>
       </c>
       <c r="S34" t="n">
-        <v>0.01027961293521685</v>
+        <v>0.003572765190818488</v>
       </c>
       <c r="T34" t="n">
-        <v>0.009301095829429718</v>
+        <v>0.01350432686036969</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08236943364125618</v>
+        <v>0.06447744729662455</v>
       </c>
       <c r="V34" t="n">
-        <v>0.04779607261412835</v>
+        <v>0.00596269462790335</v>
       </c>
       <c r="W34" t="n">
-        <v>0.07527328216843619</v>
+        <v>0.06385705311601193</v>
       </c>
       <c r="X34" t="n">
-        <v>0.002953018663906759</v>
+        <v>0.02338510217545971</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.08194837837548695</v>
+        <v>0.06488769746299454</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.01883130253051711</v>
+        <v>0.05469146678609126</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.007494456186082949</v>
+        <v>0.01221341715694028</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.08752122771960845</v>
+        <v>0.01100109279527214</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.04416796384148081</v>
+        <v>0.02186227984497988</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.018547163010906</v>
+        <v>0.017785644352118</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.03681706333436688</v>
+        <v>0.03302196341650998</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.01223307740315493</v>
+        <v>0.03158236006457587</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.0740270089467074</v>
+        <v>0.06702201103533034</v>
       </c>
       <c r="AH34" t="n">
-        <v>-0.0181228632988451</v>
+        <v>0.01047382111804239</v>
       </c>
     </row>
     <row r="35">
@@ -4250,94 +4250,94 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.2144080464322091</v>
+        <v>0.3071273223126018</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07921903867704372</v>
+        <v>0.09382811809111931</v>
       </c>
       <c r="G35" t="n">
-        <v>0.05157091680866644</v>
+        <v>0.03699034647084231</v>
       </c>
       <c r="H35" t="n">
-        <v>0.01019350341299666</v>
+        <v>0.0649110954386712</v>
       </c>
       <c r="I35" t="n">
-        <v>0.05667523714199872</v>
+        <v>0.02334841649889512</v>
       </c>
       <c r="J35" t="n">
-        <v>0.01998588001491164</v>
+        <v>0.0327540966936033</v>
       </c>
       <c r="K35" t="n">
-        <v>0.07857690565143052</v>
+        <v>0.02017098344330541</v>
       </c>
       <c r="L35" t="n">
-        <v>0.004625077435166909</v>
+        <v>0.002403821635400038</v>
       </c>
       <c r="M35" t="n">
-        <v>0.035682390640654</v>
+        <v>0.008234110592046465</v>
       </c>
       <c r="N35" t="n">
-        <v>0.004899456102391442</v>
+        <v>0.01728273153009214</v>
       </c>
       <c r="O35" t="n">
-        <v>0.07300516512947773</v>
+        <v>0.07938042283235852</v>
       </c>
       <c r="P35" t="n">
-        <v>0.06575469628463473</v>
+        <v>0.01265498898888386</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.007998256764555884</v>
+        <v>0.01612708273618224</v>
       </c>
       <c r="R35" t="n">
-        <v>0.01864209584152761</v>
+        <v>0.00295286859904488</v>
       </c>
       <c r="S35" t="n">
-        <v>0.004085842733808582</v>
+        <v>0.0208051994274898</v>
       </c>
       <c r="T35" t="n">
-        <v>0.001584641469957942</v>
+        <v>0.03402316178195414</v>
       </c>
       <c r="U35" t="n">
-        <v>0.06426525007328024</v>
+        <v>0.08249034437619007</v>
       </c>
       <c r="V35" t="n">
-        <v>0.01419470382499581</v>
+        <v>0.01925573013476407</v>
       </c>
       <c r="W35" t="n">
-        <v>0.04517586245044191</v>
+        <v>0.0253753128127259</v>
       </c>
       <c r="X35" t="n">
-        <v>0.01236111135070317</v>
+        <v>0.03135539133989411</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.002601879778519215</v>
+        <v>0.06994837844884506</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.03330787848422673</v>
+        <v>0.0700220904196579</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.005954748675499459</v>
+        <v>0.02652712755317365</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.01631134486759808</v>
+        <v>0.03758023563778759</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.02359949325123665</v>
+        <v>0.01452275034689106</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.07888739469524123</v>
+        <v>0.08730545894884975</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.05589098917838602</v>
+        <v>0.01817967439251338</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.07206126429582088</v>
+        <v>0.0459467949296726</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.06288897496482806</v>
+        <v>0.0056232658991462</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.0448639355258735</v>
+        <v>0.02997738422266027</v>
       </c>
     </row>
     <row r="36">
@@ -4360,94 +4360,94 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.137284329511183</v>
+        <v>0.1166614596960612</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0556827812177773</v>
+        <v>0.03266590940894978</v>
       </c>
       <c r="G36" t="n">
-        <v>0.04068320235183844</v>
+        <v>0.05319987738126123</v>
       </c>
       <c r="H36" t="n">
-        <v>0.01169056607866108</v>
+        <v>0.02752257575608828</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0061214934705065</v>
+        <v>0.008938518125617185</v>
       </c>
       <c r="J36" t="n">
-        <v>0.02293728182516669</v>
+        <v>0.06424964368909672</v>
       </c>
       <c r="K36" t="n">
-        <v>0.01444802200703416</v>
+        <v>0.0015406603089768</v>
       </c>
       <c r="L36" t="n">
-        <v>0.04881845715018743</v>
+        <v>0.05397483559846439</v>
       </c>
       <c r="M36" t="n">
-        <v>0.07161981787800459</v>
+        <v>0.04353959645871812</v>
       </c>
       <c r="N36" t="n">
-        <v>0.03402183034038772</v>
+        <v>0.03669881411302166</v>
       </c>
       <c r="O36" t="n">
-        <v>0.007230844083734951</v>
+        <v>0.03136352367600063</v>
       </c>
       <c r="P36" t="n">
-        <v>0.03981304760783491</v>
+        <v>0.04503919809430593</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.04837942717733938</v>
+        <v>0.01604371972761282</v>
       </c>
       <c r="R36" t="n">
-        <v>0.02423778742745207</v>
+        <v>0.01263780300201997</v>
       </c>
       <c r="S36" t="n">
-        <v>0.08130331134134514</v>
+        <v>0.05989359351001772</v>
       </c>
       <c r="T36" t="n">
-        <v>0.05675652928298751</v>
+        <v>0.0146957836310202</v>
       </c>
       <c r="U36" t="n">
-        <v>0.00562035244762799</v>
+        <v>0.06313394484842196</v>
       </c>
       <c r="V36" t="n">
-        <v>0.02575409803238921</v>
+        <v>0.05349096937563689</v>
       </c>
       <c r="W36" t="n">
-        <v>0.02170964891926992</v>
+        <v>0.05978804371983475</v>
       </c>
       <c r="X36" t="n">
-        <v>0.08451730668521039</v>
+        <v>0.05619987971515137</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.06709432841944328</v>
+        <v>0.05620078928751169</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.07862737994190119</v>
+        <v>0.04341695522404673</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.004804335848736015</v>
+        <v>0.0109842262605793</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.01694457262587433</v>
+        <v>0.04101183005520131</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.03411521164413505</v>
+        <v>0.001965527591879858</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.00350106233442273</v>
+        <v>0.0009733803115674273</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.02592785467601502</v>
+        <v>0.04351490396842361</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.02839331099392774</v>
+        <v>0.003150241688377338</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.03924613819078928</v>
+        <v>0.06416525547219623</v>
       </c>
       <c r="AH36" t="n">
-        <v>0.006833948126417453</v>
+        <v>-0.008973995070044096</v>
       </c>
     </row>
     <row r="37">
@@ -4470,94 +4470,94 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.4294399304812728</v>
+        <v>0.2223302673885317</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06151086762239452</v>
+        <v>0.07857909416431025</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03094301374327535</v>
+        <v>0.0006985026372892322</v>
       </c>
       <c r="H37" t="n">
-        <v>0.04796666997624236</v>
+        <v>0.06437298383163811</v>
       </c>
       <c r="I37" t="n">
-        <v>0.03668792971139533</v>
+        <v>0.01475500984362411</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0003310350811704998</v>
+        <v>0.03072320310733886</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0107748030098677</v>
+        <v>0.0554331880806078</v>
       </c>
       <c r="L37" t="n">
-        <v>0.02501156122462905</v>
+        <v>0.06902486373786815</v>
       </c>
       <c r="M37" t="n">
-        <v>0.01927071389053533</v>
+        <v>0.00388953343410624</v>
       </c>
       <c r="N37" t="n">
-        <v>0.06379666085744788</v>
+        <v>0.06339912150909602</v>
       </c>
       <c r="O37" t="n">
-        <v>0.06160564607019773</v>
+        <v>0.003307036347248727</v>
       </c>
       <c r="P37" t="n">
-        <v>0.04763315235856702</v>
+        <v>0.03614444594585637</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.02805803055642798</v>
+        <v>0.005846279425909171</v>
       </c>
       <c r="R37" t="n">
-        <v>0.02302292768003623</v>
+        <v>0.02206644776879855</v>
       </c>
       <c r="S37" t="n">
-        <v>0.006304597535437484</v>
+        <v>0.07022483620990658</v>
       </c>
       <c r="T37" t="n">
-        <v>0.03997090916492869</v>
+        <v>0.01458811760449977</v>
       </c>
       <c r="U37" t="n">
-        <v>0.07044778149745763</v>
+        <v>0.002292735321313166</v>
       </c>
       <c r="V37" t="n">
-        <v>0.001417468501146224</v>
+        <v>0.04259441571001986</v>
       </c>
       <c r="W37" t="n">
-        <v>0.06505652212859857</v>
+        <v>0.05000525750070951</v>
       </c>
       <c r="X37" t="n">
-        <v>0.06762081326218673</v>
+        <v>0.03620128222179277</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.003332058285083674</v>
+        <v>0.04106111564251289</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.06042256076451482</v>
+        <v>0.04411158493718992</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.004856333358307422</v>
+        <v>0.04996284062503394</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.06707173317342628</v>
+        <v>0.001970140078699698</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.0100238298008614</v>
+        <v>0.02859368432626109</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.0004551862578724325</v>
+        <v>0.002295612917871341</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.03971837014175547</v>
+        <v>0.06105372545466043</v>
       </c>
       <c r="AF37" t="n">
-        <v>0.05483239975863224</v>
+        <v>0.07038149377627791</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.05185642458760385</v>
+        <v>0.03642344783955982</v>
       </c>
       <c r="AH37" t="n">
-        <v>-0.008912709965029107</v>
+        <v>0.004457551931185209</v>
       </c>
     </row>
     <row r="38">
@@ -4580,94 +4580,94 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.1525903388996254</v>
+        <v>0.1579572897480324</v>
       </c>
       <c r="F38" t="n">
-        <v>0.006236725872544912</v>
+        <v>0.005615755667802836</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03842120566565299</v>
+        <v>0.03466132788130001</v>
       </c>
       <c r="H38" t="n">
-        <v>0.03576133031201663</v>
+        <v>0.03782571561385722</v>
       </c>
       <c r="I38" t="n">
-        <v>0.08555395123582098</v>
+        <v>0.07056115463084113</v>
       </c>
       <c r="J38" t="n">
-        <v>0.0002362346232096303</v>
+        <v>0.03744785028459378</v>
       </c>
       <c r="K38" t="n">
-        <v>0.04132799495489799</v>
+        <v>0.007165446865193307</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0284180698862584</v>
+        <v>0.07184268760939819</v>
       </c>
       <c r="M38" t="n">
-        <v>0.03998840997342277</v>
+        <v>0.06840257006899328</v>
       </c>
       <c r="N38" t="n">
-        <v>0.01750682530226114</v>
+        <v>0.01550963694778649</v>
       </c>
       <c r="O38" t="n">
-        <v>0.01724151887965404</v>
+        <v>0.01466610557986311</v>
       </c>
       <c r="P38" t="n">
-        <v>0.005883252172461291</v>
+        <v>0.007728116525668395</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.03996311204479184</v>
+        <v>0.05682660916944503</v>
       </c>
       <c r="R38" t="n">
-        <v>0.05342138061370443</v>
+        <v>0.06894360307787172</v>
       </c>
       <c r="S38" t="n">
-        <v>0.06127616135785524</v>
+        <v>0.009576287209056004</v>
       </c>
       <c r="T38" t="n">
-        <v>0.06959145113486748</v>
+        <v>0.03632473416346017</v>
       </c>
       <c r="U38" t="n">
-        <v>0.05356434868506191</v>
+        <v>0.07042456917581867</v>
       </c>
       <c r="V38" t="n">
-        <v>0.06303918751463146</v>
+        <v>0.06723433414982675</v>
       </c>
       <c r="W38" t="n">
-        <v>2.793892181580371e-05</v>
+        <v>0.01351626659778432</v>
       </c>
       <c r="X38" t="n">
-        <v>0.005915497915201712</v>
+        <v>0.06174930892367266</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.04695293916766087</v>
+        <v>0.05024181200571493</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.001715509796399527</v>
+        <v>0.03416354190346307</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.01934034851024996</v>
+        <v>0.002861438657684181</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.08291611279186811</v>
+        <v>0.07303913304528067</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.06797192883104454</v>
+        <v>0.006871671763323427</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.02253243200980911</v>
+        <v>0.009497529260511076</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.01059807934122964</v>
+        <v>0.03320447241071531</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.003913104753120703</v>
+        <v>0.01389979084044062</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.08068494773248711</v>
+        <v>0.02019852997063373</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.05364672900890752</v>
+        <v>0.0622025812485167</v>
       </c>
     </row>
     <row r="39">
@@ -4690,94 +4690,94 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.5692192597851657</v>
+        <v>0.7549285408473755</v>
       </c>
       <c r="F39" t="n">
-        <v>0.03328056046137873</v>
+        <v>0.006879481391939799</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03447674805345101</v>
+        <v>0.04391618269386605</v>
       </c>
       <c r="H39" t="n">
-        <v>0.004884795846128896</v>
+        <v>0.0105996850720441</v>
       </c>
       <c r="I39" t="n">
-        <v>0.02971008195802538</v>
+        <v>0.06089596597708929</v>
       </c>
       <c r="J39" t="n">
-        <v>6.2999846375408e-05</v>
+        <v>0.06906988031578931</v>
       </c>
       <c r="K39" t="n">
-        <v>0.07443425802883906</v>
+        <v>0.04304717342031747</v>
       </c>
       <c r="L39" t="n">
-        <v>0.01423555293428292</v>
+        <v>0.002796512104455765</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0467423727022452</v>
+        <v>0.0464018527809458</v>
       </c>
       <c r="N39" t="n">
-        <v>0.007938751378907137</v>
+        <v>0.02333662056052469</v>
       </c>
       <c r="O39" t="n">
-        <v>0.06118499452273311</v>
+        <v>0.0459788602522363</v>
       </c>
       <c r="P39" t="n">
-        <v>0.07528267085613732</v>
+        <v>0.08014957498496546</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.076972955515743</v>
+        <v>0.02898945808919647</v>
       </c>
       <c r="R39" t="n">
-        <v>0.04529468200092457</v>
+        <v>0.006928063987056198</v>
       </c>
       <c r="S39" t="n">
-        <v>0.001631237282901707</v>
+        <v>0.01268110621005779</v>
       </c>
       <c r="T39" t="n">
-        <v>0.03993323572260729</v>
+        <v>0.008479099414804934</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06495986387238384</v>
+        <v>0.01098123951446521</v>
       </c>
       <c r="V39" t="n">
-        <v>0.04863072514608881</v>
+        <v>0.03189029445934852</v>
       </c>
       <c r="W39" t="n">
-        <v>0.0280949449594607</v>
+        <v>0.05436318865395796</v>
       </c>
       <c r="X39" t="n">
-        <v>0.002952842463585314</v>
+        <v>0.03183366122265222</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.02127330070167597</v>
+        <v>0.03182946074744047</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.02694490434262111</v>
+        <v>0.0545000045512225</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.06479562271126049</v>
+        <v>0.07438029856926553</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.00837318493702935</v>
+        <v>0.005594209329188979</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.01398912622381223</v>
+        <v>0.008343306932269175</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.07278712840766238</v>
+        <v>0.08889237064328757</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.001960622053740671</v>
+        <v>0.04746604825773715</v>
       </c>
       <c r="AF39" t="n">
-        <v>0.0686892003407707</v>
+        <v>0.03795693390965348</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.03048263672922777</v>
+        <v>0.03181946595422182</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.03163237605066666</v>
+        <v>0.03849974700149494</v>
       </c>
     </row>
     <row r="40">
@@ -4800,94 +4800,94 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.1475328556130588</v>
+        <v>0.1448380715980617</v>
       </c>
       <c r="F40" t="n">
-        <v>0.01820785626290912</v>
+        <v>0.05066177508881357</v>
       </c>
       <c r="G40" t="n">
-        <v>0.00128952353611696</v>
+        <v>0.007561368985729638</v>
       </c>
       <c r="H40" t="n">
-        <v>0.06367240713543908</v>
+        <v>0.06222570495256462</v>
       </c>
       <c r="I40" t="n">
-        <v>0.05956878921981258</v>
+        <v>0.0518050849101603</v>
       </c>
       <c r="J40" t="n">
-        <v>0.003057906949724085</v>
+        <v>0.01998956185793275</v>
       </c>
       <c r="K40" t="n">
-        <v>0.004596423935838046</v>
+        <v>0.007722314101198798</v>
       </c>
       <c r="L40" t="n">
-        <v>0.01553845485045792</v>
+        <v>0.04335960831068317</v>
       </c>
       <c r="M40" t="n">
-        <v>0.03996759813420115</v>
+        <v>0.01981204226547609</v>
       </c>
       <c r="N40" t="n">
-        <v>0.03938685960332202</v>
+        <v>0.04749836892231384</v>
       </c>
       <c r="O40" t="n">
-        <v>0.04865575684996631</v>
+        <v>0.01084019048287872</v>
       </c>
       <c r="P40" t="n">
-        <v>0.01980823007959055</v>
+        <v>0.008598150385249819</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.008864240959991771</v>
+        <v>0.06212887604649999</v>
       </c>
       <c r="R40" t="n">
-        <v>0.007063887593621697</v>
+        <v>0.0445859455571872</v>
       </c>
       <c r="S40" t="n">
-        <v>0.0578487061576089</v>
+        <v>0.06878332598934331</v>
       </c>
       <c r="T40" t="n">
-        <v>0.01303813236669057</v>
+        <v>0.05539377692273338</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04090366756654317</v>
+        <v>0.03792116375015067</v>
       </c>
       <c r="V40" t="n">
-        <v>0.06643021609787648</v>
+        <v>0.04881909225990489</v>
       </c>
       <c r="W40" t="n">
-        <v>0.04887137015975156</v>
+        <v>0.0372263509347973</v>
       </c>
       <c r="X40" t="n">
-        <v>0.0582077530207247</v>
+        <v>0.01616037349309933</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.05328998029357806</v>
+        <v>0.06433334018476418</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.07121585087998937</v>
+        <v>0.006919760039997992</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.005761660394677081</v>
+        <v>0.01190815525643687</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.05970808841459847</v>
+        <v>0.03579074840622154</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.03897361558963722</v>
+        <v>0.06792505429793151</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.001774132606018983</v>
+        <v>0.0005903201450908047</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.04391661631321157</v>
+        <v>0.02481961934512472</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.03399148080648821</v>
+        <v>0.02892273763017926</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.07639079422161427</v>
+        <v>0.05769718947753578</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.08331649048196689</v>
+        <v>0.06282465743436066</v>
       </c>
     </row>
     <row r="41">
@@ -4910,94 +4910,94 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.5847371892619717</v>
+        <v>0.4292996807757385</v>
       </c>
       <c r="F41" t="n">
-        <v>0.06947486298674614</v>
+        <v>0.06534783208452369</v>
       </c>
       <c r="G41" t="n">
-        <v>0.002030848204375154</v>
+        <v>0.07996822524689842</v>
       </c>
       <c r="H41" t="n">
-        <v>0.008451024224244137</v>
+        <v>0.01337240105483748</v>
       </c>
       <c r="I41" t="n">
-        <v>0.01015443194627939</v>
+        <v>0.03323178224096993</v>
       </c>
       <c r="J41" t="n">
-        <v>4.624948373797876e-05</v>
+        <v>0.02532015762813034</v>
       </c>
       <c r="K41" t="n">
-        <v>0.006278779039456804</v>
+        <v>0.04386195951895937</v>
       </c>
       <c r="L41" t="n">
-        <v>0.04421489110829364</v>
+        <v>0.07606549284269888</v>
       </c>
       <c r="M41" t="n">
-        <v>0.004721680763461928</v>
+        <v>0.02037727981120866</v>
       </c>
       <c r="N41" t="n">
-        <v>0.06363374281511405</v>
+        <v>0.04478515471668455</v>
       </c>
       <c r="O41" t="n">
-        <v>0.07904927229298632</v>
+        <v>0.07469616464468434</v>
       </c>
       <c r="P41" t="n">
-        <v>0.04579228943173616</v>
+        <v>0.02027596504130048</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.05709272435922935</v>
+        <v>0.01041060857101327</v>
       </c>
       <c r="R41" t="n">
-        <v>0.01506544748352569</v>
+        <v>0.01457542186973426</v>
       </c>
       <c r="S41" t="n">
-        <v>0.03974999464880601</v>
+        <v>0.004980103491219145</v>
       </c>
       <c r="T41" t="n">
-        <v>0.0688350387463857</v>
+        <v>0.03747316171528065</v>
       </c>
       <c r="U41" t="n">
-        <v>0.07478525502961887</v>
+        <v>0.02453827480138528</v>
       </c>
       <c r="V41" t="n">
-        <v>0.02584854773101301</v>
+        <v>0.0004512456648061366</v>
       </c>
       <c r="W41" t="n">
-        <v>0.02807566662040882</v>
+        <v>0.03518504396420991</v>
       </c>
       <c r="X41" t="n">
-        <v>0.005106656783097322</v>
+        <v>0.007817624617494483</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.03911310847837973</v>
+        <v>0.00993667373667725</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.05032774384723798</v>
+        <v>0.03560049473358327</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.0534424356552886</v>
+        <v>0.07994656222296861</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.013047949659477</v>
+        <v>0.04908233936240358</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.00184206639953155</v>
+        <v>0.02475360792850693</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.08664559903437972</v>
+        <v>0.07726228068084022</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.04763063956367578</v>
+        <v>0.02053858944333159</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.0130557687120516</v>
+        <v>0.05583792150803105</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.04648728495146157</v>
+        <v>0.01430763085761821</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.09893546984896687</v>
+        <v>0.07710818430837971</v>
       </c>
     </row>
     <row r="42">
@@ -5020,94 +5020,94 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.1364915927030822</v>
+        <v>0.1405141733547932</v>
       </c>
       <c r="F42" t="n">
-        <v>0.006990248456947597</v>
+        <v>0.008894578294046603</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03501999241894554</v>
+        <v>0.04027064239119199</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0222576756034464</v>
+        <v>0.03713370159638779</v>
       </c>
       <c r="I42" t="n">
-        <v>0.004606181326832575</v>
+        <v>0.06051653062083426</v>
       </c>
       <c r="J42" t="n">
-        <v>0.03555847208378994</v>
+        <v>0.01680735653261323</v>
       </c>
       <c r="K42" t="n">
-        <v>0.01159861228313365</v>
+        <v>0.01197236861992597</v>
       </c>
       <c r="L42" t="n">
-        <v>0.01260264326356474</v>
+        <v>0.0701201941295819</v>
       </c>
       <c r="M42" t="n">
-        <v>0.002862567939421358</v>
+        <v>0.002598689707705726</v>
       </c>
       <c r="N42" t="n">
-        <v>0.04401237427299896</v>
+        <v>0.02812725236113462</v>
       </c>
       <c r="O42" t="n">
-        <v>0.06236713646134658</v>
+        <v>0.05625018251328257</v>
       </c>
       <c r="P42" t="n">
-        <v>0.05800581614204598</v>
+        <v>0.06053628111275651</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.05770175886020078</v>
+        <v>0.03580093497841889</v>
       </c>
       <c r="R42" t="n">
-        <v>0.04587440286932954</v>
+        <v>0.07272483970090789</v>
       </c>
       <c r="S42" t="n">
-        <v>0.05333665604864396</v>
+        <v>0.0451207633919982</v>
       </c>
       <c r="T42" t="n">
-        <v>0.04518812642388916</v>
+        <v>0.04081300061549024</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0117611803971317</v>
+        <v>0.0002166870424951556</v>
       </c>
       <c r="V42" t="n">
-        <v>0.06533020945210062</v>
+        <v>0.0727583774850485</v>
       </c>
       <c r="W42" t="n">
-        <v>0.0211320260840705</v>
+        <v>0.0156184016522741</v>
       </c>
       <c r="X42" t="n">
-        <v>0.04807610896501677</v>
+        <v>0.05668547454950353</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.06106983863463514</v>
+        <v>0.06031271204879535</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.001833868634171536</v>
+        <v>0.01067804003448315</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.05790378459336471</v>
+        <v>0.005002338934288602</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.04085507055836581</v>
+        <v>0.03177506078395735</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.07039665643869715</v>
+        <v>0.03911420654671214</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.009797987206897878</v>
+        <v>0.01760741064855351</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.01661786902120087</v>
+        <v>0.04156015779220352</v>
       </c>
       <c r="AF42" t="n">
-        <v>0.04771067920166847</v>
+        <v>0.05282005935483137</v>
       </c>
       <c r="AG42" t="n">
-        <v>0.04953205635814224</v>
+        <v>0.008163756560577426</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.05905396319170902</v>
+        <v>0.0535117737405689</v>
       </c>
     </row>
     <row r="43">
@@ -5130,94 +5130,94 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.3937847897221554</v>
+        <v>0.5452909476702806</v>
       </c>
       <c r="F43" t="n">
-        <v>0.00527966105227059</v>
+        <v>0.03550175830308636</v>
       </c>
       <c r="G43" t="n">
-        <v>0.04800072593177187</v>
+        <v>0.0632315235901329</v>
       </c>
       <c r="H43" t="n">
-        <v>0.04255862361592038</v>
+        <v>0.004932100124726445</v>
       </c>
       <c r="I43" t="n">
-        <v>0.03725148559002037</v>
+        <v>0.07528314785557351</v>
       </c>
       <c r="J43" t="n">
-        <v>0.04837023428391911</v>
+        <v>0.02402730143420298</v>
       </c>
       <c r="K43" t="n">
-        <v>0.05982045921283888</v>
+        <v>0.06651163772154089</v>
       </c>
       <c r="L43" t="n">
-        <v>0.01391766739178654</v>
+        <v>0.005839169243748978</v>
       </c>
       <c r="M43" t="n">
-        <v>0.06675375411564229</v>
+        <v>0.08179168478813971</v>
       </c>
       <c r="N43" t="n">
-        <v>0.01175583429442398</v>
+        <v>0.02578971777504213</v>
       </c>
       <c r="O43" t="n">
-        <v>0.07094280634004051</v>
+        <v>0.08747936812358605</v>
       </c>
       <c r="P43" t="n">
-        <v>0.006189579826111915</v>
+        <v>0.01378478225177289</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.03525094777532917</v>
+        <v>0.07485536752627504</v>
       </c>
       <c r="R43" t="n">
-        <v>0.07156321914115917</v>
+        <v>0.06042145855531292</v>
       </c>
       <c r="S43" t="n">
-        <v>0.00230704565680447</v>
+        <v>0.003308846102340829</v>
       </c>
       <c r="T43" t="n">
-        <v>0.07702719001581354</v>
+        <v>0.02582268294602432</v>
       </c>
       <c r="U43" t="n">
-        <v>0.005364372377255109</v>
+        <v>0.06633821371557243</v>
       </c>
       <c r="V43" t="n">
-        <v>0.0439525828575618</v>
+        <v>0.03519257147799488</v>
       </c>
       <c r="W43" t="n">
-        <v>0.02463009183755148</v>
+        <v>0.01125306609195062</v>
       </c>
       <c r="X43" t="n">
-        <v>0.04058251377993972</v>
+        <v>0.01257505336927009</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.02711010891222733</v>
+        <v>0.05727545728207415</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.007974857220812811</v>
+        <v>0.006313849428623956</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.02153555282830554</v>
+        <v>0.0005745016869916469</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.004771505787905366</v>
+        <v>0.003112148961790252</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.02414548974840236</v>
+        <v>0.01784260570538188</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.06633713890683703</v>
+        <v>0.05662834423303625</v>
       </c>
       <c r="AE43" t="n">
-        <v>0.0170713790525179</v>
+        <v>0.01881866261497278</v>
       </c>
       <c r="AF43" t="n">
-        <v>0.04480232672005394</v>
+        <v>0.003086392317315422</v>
       </c>
       <c r="AG43" t="n">
-        <v>0.07473284572677684</v>
+        <v>0.0624085867735197</v>
       </c>
       <c r="AH43" t="n">
-        <v>0.06829320679610898</v>
+        <v>0.06941806142794307</v>
       </c>
     </row>
     <row r="44">
@@ -5240,94 +5240,94 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.1264586305352577</v>
+        <v>0.1249719322182291</v>
       </c>
       <c r="F44" t="n">
-        <v>0.01635749013879318</v>
+        <v>0.03356651530609631</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0230432230296828</v>
+        <v>0.02988686835320077</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0635375799266821</v>
+        <v>0.04079698955002375</v>
       </c>
       <c r="I44" t="n">
-        <v>0.009605931322747584</v>
+        <v>0.02221951134025544</v>
       </c>
       <c r="J44" t="n">
-        <v>0.01835575855678757</v>
+        <v>0.01512336010230088</v>
       </c>
       <c r="K44" t="n">
-        <v>0.020400771548023</v>
+        <v>0.05151258837991904</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0153038984574069</v>
+        <v>0.02602571523817148</v>
       </c>
       <c r="M44" t="n">
-        <v>0.04694799947859914</v>
+        <v>0.05769037306211869</v>
       </c>
       <c r="N44" t="n">
-        <v>0.04573986816563062</v>
+        <v>0.01121861474584201</v>
       </c>
       <c r="O44" t="n">
-        <v>0.009441042346710619</v>
+        <v>0.03964577090075158</v>
       </c>
       <c r="P44" t="n">
-        <v>0.0585602953414755</v>
+        <v>0.01555487389521117</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.001493125025997039</v>
+        <v>0.0004916377458917866</v>
       </c>
       <c r="R44" t="n">
-        <v>0.02543746243504553</v>
+        <v>0.01102344112565322</v>
       </c>
       <c r="S44" t="n">
-        <v>0.006046817226762178</v>
+        <v>0.002665541721594886</v>
       </c>
       <c r="T44" t="n">
-        <v>0.05780476272997213</v>
+        <v>0.03238155534332552</v>
       </c>
       <c r="U44" t="n">
-        <v>0.004570969671560622</v>
+        <v>0.007455111697993592</v>
       </c>
       <c r="V44" t="n">
-        <v>0.07463641930935257</v>
+        <v>0.07043490894519458</v>
       </c>
       <c r="W44" t="n">
-        <v>0.05333407213431372</v>
+        <v>0.0433962550585666</v>
       </c>
       <c r="X44" t="n">
-        <v>0.008047825505448893</v>
+        <v>0.05190264763374298</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.07533424127331723</v>
+        <v>0.0554908121589943</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.03333326642134184</v>
+        <v>0.01379979836385234</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.05282465432299966</v>
+        <v>0.05134424821260902</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.06921628816793499</v>
+        <v>0.06688306504685923</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.02054372373736608</v>
+        <v>0.06822876710089597</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.03634445726927498</v>
+        <v>0.03842358092466373</v>
       </c>
       <c r="AE44" t="n">
-        <v>0.08250042273451827</v>
+        <v>0.06528010668654891</v>
       </c>
       <c r="AF44" t="n">
-        <v>0.005474322516610157</v>
+        <v>0.05328978553727827</v>
       </c>
       <c r="AG44" t="n">
-        <v>0.06576331120564523</v>
+        <v>0.02426755582244396</v>
       </c>
       <c r="AH44" t="n">
-        <v>0.1078934540452418</v>
+        <v>0.1004535807871566</v>
       </c>
     </row>
     <row r="45">
@@ -5350,94 +5350,94 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.2671144291516064</v>
+        <v>0.228331933609892</v>
       </c>
       <c r="F45" t="n">
-        <v>0.03016163984861875</v>
+        <v>0.0383826776006669</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0283537254990417</v>
+        <v>0.01929017633022902</v>
       </c>
       <c r="H45" t="n">
-        <v>0.06174042059460162</v>
+        <v>0.07277183616935819</v>
       </c>
       <c r="I45" t="n">
-        <v>0.00554865309341695</v>
+        <v>0.006688339312570649</v>
       </c>
       <c r="J45" t="n">
-        <v>0.02175964159427728</v>
+        <v>0.0399318130384937</v>
       </c>
       <c r="K45" t="n">
-        <v>0.03582632318992372</v>
+        <v>0.05051081985318692</v>
       </c>
       <c r="L45" t="n">
-        <v>0.009151544481268009</v>
+        <v>0.00130968337657078</v>
       </c>
       <c r="M45" t="n">
-        <v>0.02852534317847961</v>
+        <v>0.05639973597584419</v>
       </c>
       <c r="N45" t="n">
-        <v>0.01500848346639122</v>
+        <v>0.005617986299392297</v>
       </c>
       <c r="O45" t="n">
-        <v>0.06041829900167647</v>
+        <v>0.05757107426680098</v>
       </c>
       <c r="P45" t="n">
-        <v>0.02363668866576603</v>
+        <v>0.003250142803351185</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.1043869022203999</v>
+        <v>0.0833492854067686</v>
       </c>
       <c r="R45" t="n">
-        <v>0.01031959097589235</v>
+        <v>0.03714252422093672</v>
       </c>
       <c r="S45" t="n">
-        <v>0.03744679260791371</v>
+        <v>0.004062583822526668</v>
       </c>
       <c r="T45" t="n">
-        <v>0.005569864346830833</v>
+        <v>0.02565455014810466</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05039335222214553</v>
+        <v>0.05535298782451752</v>
       </c>
       <c r="V45" t="n">
-        <v>0.02444178088386167</v>
+        <v>0.04437810756946278</v>
       </c>
       <c r="W45" t="n">
-        <v>0.01057220703502262</v>
+        <v>0.02713492017607839</v>
       </c>
       <c r="X45" t="n">
-        <v>0.006752157977411997</v>
+        <v>0.08266014657176701</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.01558794769659942</v>
+        <v>0.08597419528093776</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.01835187768822477</v>
+        <v>0.006570531152089822</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.02429172104474363</v>
+        <v>0.02330117965888824</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.08561813678998503</v>
+        <v>0.001427447104490857</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.05189255142990003</v>
+        <v>0.0008906961707959342</v>
       </c>
       <c r="AD45" t="n">
-        <v>0.08615899854962539</v>
+        <v>0.04965018112004434</v>
       </c>
       <c r="AE45" t="n">
-        <v>0.02944089635648062</v>
+        <v>0.07043551492850958</v>
       </c>
       <c r="AF45" t="n">
-        <v>0.06576223690017299</v>
+        <v>0.03580973315413714</v>
       </c>
       <c r="AG45" t="n">
-        <v>0.05288222266132812</v>
+        <v>0.01448113066347902</v>
       </c>
       <c r="AH45" t="n">
-        <v>0.1255948523476704</v>
+        <v>0.1091476905107295</v>
       </c>
     </row>
     <row r="46">
@@ -5460,94 +5460,94 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.2702444856255158</v>
+        <v>0.2836098705373011</v>
       </c>
       <c r="F46" t="n">
-        <v>0.05986321795175392</v>
+        <v>0.01282946917025366</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06693214113096141</v>
+        <v>0.02515184504353241</v>
       </c>
       <c r="H46" t="n">
-        <v>0.01827262499893563</v>
+        <v>0.01987329710290853</v>
       </c>
       <c r="I46" t="n">
-        <v>0.03437998109210005</v>
+        <v>0.02848454178097774</v>
       </c>
       <c r="J46" t="n">
-        <v>0.01371131565481656</v>
+        <v>0.006279489413950268</v>
       </c>
       <c r="K46" t="n">
-        <v>0.02439924798710758</v>
+        <v>0.05742272766731788</v>
       </c>
       <c r="L46" t="n">
-        <v>0.03470427649246362</v>
+        <v>0.06736343724615688</v>
       </c>
       <c r="M46" t="n">
-        <v>0.002960837630619741</v>
+        <v>0.01063351838231027</v>
       </c>
       <c r="N46" t="n">
-        <v>0.07111526262538174</v>
+        <v>0.008055457136150575</v>
       </c>
       <c r="O46" t="n">
-        <v>0.002198221001798661</v>
+        <v>0.06413272870126278</v>
       </c>
       <c r="P46" t="n">
-        <v>0.0003423504810180764</v>
+        <v>0.0069321535136186</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.002738540150003098</v>
+        <v>0.04336889237008371</v>
       </c>
       <c r="R46" t="n">
-        <v>0.07178821121296743</v>
+        <v>0.08072483988183252</v>
       </c>
       <c r="S46" t="n">
-        <v>0.001107584971731399</v>
+        <v>0.06765397652039239</v>
       </c>
       <c r="T46" t="n">
-        <v>0.03397483568770116</v>
+        <v>0.005831126142560199</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04765205001340835</v>
+        <v>0.04491254768999625</v>
       </c>
       <c r="V46" t="n">
-        <v>0.054784726084409</v>
+        <v>0.002849280971682778</v>
       </c>
       <c r="W46" t="n">
-        <v>0.09604039040691308</v>
+        <v>0.04221979115181651</v>
       </c>
       <c r="X46" t="n">
-        <v>0.0441415956121541</v>
+        <v>0.0361999266018616</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.05090131111608381</v>
+        <v>0.04646031027049519</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.0803289279804736</v>
+        <v>0.06570141477232845</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.04253202509937969</v>
+        <v>0.06143154587083299</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.01162811719356671</v>
+        <v>0.001585201388585595</v>
       </c>
       <c r="AC46" t="n">
-        <v>0.0253787350789806</v>
+        <v>0.02505705662832668</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.02177702255139674</v>
+        <v>0.06481940129663799</v>
       </c>
       <c r="AE46" t="n">
-        <v>0.06804950909595792</v>
+        <v>0.08248705436975912</v>
       </c>
       <c r="AF46" t="n">
-        <v>0.01142873463289528</v>
+        <v>0.01419933436255297</v>
       </c>
       <c r="AG46" t="n">
-        <v>0.006868206065021252</v>
+        <v>0.007339634551815652</v>
       </c>
       <c r="AH46" t="n">
-        <v>-0.003496426028974831</v>
+        <v>0.01849816019712222</v>
       </c>
     </row>
     <row r="47">
@@ -5570,94 +5570,94 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1.176668833116474</v>
+        <v>0.6997145297295888</v>
       </c>
       <c r="F47" t="n">
-        <v>0.04473500363996547</v>
+        <v>0.08169965437707843</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04320102461112861</v>
+        <v>0.04593140474134793</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0165740398552593</v>
+        <v>0.06908679191285111</v>
       </c>
       <c r="I47" t="n">
-        <v>0.01849654998964392</v>
+        <v>0.04790169771217011</v>
       </c>
       <c r="J47" t="n">
-        <v>0.06119201416419796</v>
+        <v>0.05127477391764263</v>
       </c>
       <c r="K47" t="n">
-        <v>0.04235352095723138</v>
+        <v>0.06119459189578148</v>
       </c>
       <c r="L47" t="n">
-        <v>0.00211852836030572</v>
+        <v>0.001862564659695239</v>
       </c>
       <c r="M47" t="n">
-        <v>0.06536847447162193</v>
+        <v>0.02566733556276301</v>
       </c>
       <c r="N47" t="n">
-        <v>0.06768597966983234</v>
+        <v>0.004854344981044268</v>
       </c>
       <c r="O47" t="n">
-        <v>0.0259754345161635</v>
+        <v>0.08030655183751542</v>
       </c>
       <c r="P47" t="n">
-        <v>0.07391837623320749</v>
+        <v>0.0008772841268186375</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.05012578161503782</v>
+        <v>0.04066165318125733</v>
       </c>
       <c r="R47" t="n">
-        <v>0.005682922968145512</v>
+        <v>0.03467664797025049</v>
       </c>
       <c r="S47" t="n">
-        <v>0.01864257803949882</v>
+        <v>0.0562428582849276</v>
       </c>
       <c r="T47" t="n">
-        <v>0.007760976307513006</v>
+        <v>0.02273733723677408</v>
       </c>
       <c r="U47" t="n">
-        <v>0.003997051817456162</v>
+        <v>0.0109685874152075</v>
       </c>
       <c r="V47" t="n">
-        <v>0.01202004106705839</v>
+        <v>0.07961924728880017</v>
       </c>
       <c r="W47" t="n">
-        <v>0.07546644326106541</v>
+        <v>0.001289955360947155</v>
       </c>
       <c r="X47" t="n">
-        <v>0.001837267524764233</v>
+        <v>0.002861890048505895</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.07596939103595735</v>
+        <v>0.03887578179307667</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.0418334653400001</v>
+        <v>0.0008402970650882646</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.02565660869138289</v>
+        <v>0.03054826466727851</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.03555378055746362</v>
+        <v>0.02062753143193219</v>
       </c>
       <c r="AC47" t="n">
-        <v>0.02640302758092256</v>
+        <v>0.05789217475236543</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.004417310524518347</v>
+        <v>0.04724692136930261</v>
       </c>
       <c r="AE47" t="n">
-        <v>0.05691778970191289</v>
+        <v>0.01304739945280083</v>
       </c>
       <c r="AF47" t="n">
-        <v>0.02163733009449552</v>
+        <v>0.009310952919292211</v>
       </c>
       <c r="AG47" t="n">
-        <v>0.07445928740424976</v>
+        <v>0.06189550403748473</v>
       </c>
       <c r="AH47" t="n">
-        <v>-0.01689249050160457</v>
+        <v>-0.004335443576684862</v>
       </c>
     </row>
     <row r="48">
@@ -5680,94 +5680,94 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.1474940448214686</v>
+        <v>0.1449669663276752</v>
       </c>
       <c r="F48" t="n">
-        <v>0.03760566332881135</v>
+        <v>0.02827426999667634</v>
       </c>
       <c r="G48" t="n">
-        <v>0.002873245589998236</v>
+        <v>0.06336316686827402</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0766581059052811</v>
+        <v>0.04821021371807693</v>
       </c>
       <c r="I48" t="n">
-        <v>0.03840641509191987</v>
+        <v>0.03263413923158905</v>
       </c>
       <c r="J48" t="n">
-        <v>0.075802455861121</v>
+        <v>0.05573140505393209</v>
       </c>
       <c r="K48" t="n">
-        <v>0.01136591433157165</v>
+        <v>0.02634332797973478</v>
       </c>
       <c r="L48" t="n">
-        <v>0.01473250444579674</v>
+        <v>0.01833635647220462</v>
       </c>
       <c r="M48" t="n">
-        <v>0.07532404601150687</v>
+        <v>0.03230769116403465</v>
       </c>
       <c r="N48" t="n">
-        <v>0.0633786180636582</v>
+        <v>0.06183239706263222</v>
       </c>
       <c r="O48" t="n">
-        <v>0.07539398836550984</v>
+        <v>0.066142361471279</v>
       </c>
       <c r="P48" t="n">
-        <v>0.01165375071530274</v>
+        <v>0.01335576003460264</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.05353453290876256</v>
+        <v>0.05058921399607919</v>
       </c>
       <c r="R48" t="n">
-        <v>0.02358323415411159</v>
+        <v>0.04381354314055994</v>
       </c>
       <c r="S48" t="n">
-        <v>0.003872390301352304</v>
+        <v>0.0152649113592666</v>
       </c>
       <c r="T48" t="n">
-        <v>0.04132935771656052</v>
+        <v>0.01549108821944425</v>
       </c>
       <c r="U48" t="n">
-        <v>0.01460550405645098</v>
+        <v>0.01163267961313723</v>
       </c>
       <c r="V48" t="n">
-        <v>0.002553019039578352</v>
+        <v>0.05728903628005907</v>
       </c>
       <c r="W48" t="n">
-        <v>0.00697538549400731</v>
+        <v>0.05784903223850942</v>
       </c>
       <c r="X48" t="n">
-        <v>0.06424055400829062</v>
+        <v>0.05760198447615686</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.06990177471495533</v>
+        <v>0.04660739506380887</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.01339395943454905</v>
+        <v>0.036170868740352</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.008876656485456111</v>
+        <v>0.006702457724820207</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.06576651700768833</v>
+        <v>0.05977947514527778</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.01336747918452181</v>
+        <v>0.04035913134414721</v>
       </c>
       <c r="AD48" t="n">
-        <v>0.02614969305766414</v>
+        <v>0.01397767270073938</v>
       </c>
       <c r="AE48" t="n">
-        <v>0.0267407973525171</v>
+        <v>0.004117136676495387</v>
       </c>
       <c r="AF48" t="n">
-        <v>0.06795715567706913</v>
+        <v>0.01249917997021472</v>
       </c>
       <c r="AG48" t="n">
-        <v>0.01395728169598733</v>
+        <v>0.02372410425789563</v>
       </c>
       <c r="AH48" t="n">
-        <v>-0.01535615523704638</v>
+        <v>-0.009835836566473627</v>
       </c>
     </row>
     <row r="49">
@@ -5790,94 +5790,94 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.2261234902151471</v>
+        <v>0.2452987081502256</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0755024770155055</v>
+        <v>0.03569410536868168</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04579494017906514</v>
+        <v>0.01936326359794473</v>
       </c>
       <c r="H49" t="n">
-        <v>0.04441903560900571</v>
+        <v>0.02087132453512971</v>
       </c>
       <c r="I49" t="n">
-        <v>0.05493465187527649</v>
+        <v>0.00765845549608662</v>
       </c>
       <c r="J49" t="n">
-        <v>0.07949778882711972</v>
+        <v>0.08949013336496177</v>
       </c>
       <c r="K49" t="n">
-        <v>0.0813796342006378</v>
+        <v>0.09391500478636647</v>
       </c>
       <c r="L49" t="n">
-        <v>0.01053449215726542</v>
+        <v>0.01230210185538969</v>
       </c>
       <c r="M49" t="n">
-        <v>0.003353610561829263</v>
+        <v>0.01687183740534566</v>
       </c>
       <c r="N49" t="n">
-        <v>0.03603991982480934</v>
+        <v>0.02489305273646174</v>
       </c>
       <c r="O49" t="n">
-        <v>0.02532647165098263</v>
+        <v>0.04016196621187755</v>
       </c>
       <c r="P49" t="n">
-        <v>0.008325030558567245</v>
+        <v>0.001736376954599891</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.06539820785321146</v>
+        <v>0.03299133876644868</v>
       </c>
       <c r="R49" t="n">
-        <v>0.06601903590683496</v>
+        <v>0.01484309061518211</v>
       </c>
       <c r="S49" t="n">
-        <v>0.005240433731517724</v>
+        <v>0.009898913376095041</v>
       </c>
       <c r="T49" t="n">
-        <v>0.01410848712286813</v>
+        <v>0.04141517598232978</v>
       </c>
       <c r="U49" t="n">
-        <v>0.0008522439864298481</v>
+        <v>0.04619636356938333</v>
       </c>
       <c r="V49" t="n">
-        <v>0.0360101375376688</v>
+        <v>0.05928280913453767</v>
       </c>
       <c r="W49" t="n">
-        <v>0.05815564287692252</v>
+        <v>0.0976903171963165</v>
       </c>
       <c r="X49" t="n">
-        <v>0.04504648096802529</v>
+        <v>0.05705440678617295</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.05594696907244968</v>
+        <v>0.06559707374896923</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.0352832914014276</v>
+        <v>0.03565346787794377</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.00479602378825566</v>
+        <v>0.008099676445989282</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.04412718687721134</v>
+        <v>0.01043851645334913</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.0226978239655091</v>
+        <v>0.000210727057463199</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.01728583550802399</v>
+        <v>0.02721689575085179</v>
       </c>
       <c r="AE49" t="n">
-        <v>0.03336217003406757</v>
+        <v>0.01376843340766969</v>
       </c>
       <c r="AF49" t="n">
-        <v>0.01159824319726349</v>
+        <v>0.01608881505769647</v>
       </c>
       <c r="AG49" t="n">
-        <v>0.01896373371224871</v>
+        <v>0.1005963564607559</v>
       </c>
       <c r="AH49" t="n">
-        <v>-0.009968117821884599</v>
+        <v>0.01222607316051134</v>
       </c>
     </row>
     <row r="50">
@@ -5900,94 +5900,94 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.1372364339575559</v>
+        <v>0.1377383812201788</v>
       </c>
       <c r="F50" t="n">
-        <v>0.06873331366024897</v>
+        <v>0.002949609063181393</v>
       </c>
       <c r="G50" t="n">
-        <v>0.06754803382510623</v>
+        <v>0.01382454168075621</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0216492149847738</v>
+        <v>0.04456515609572019</v>
       </c>
       <c r="I50" t="n">
-        <v>0.00162980193036384</v>
+        <v>0.007435436794164467</v>
       </c>
       <c r="J50" t="n">
-        <v>0.006040972509782308</v>
+        <v>0.01836264280018288</v>
       </c>
       <c r="K50" t="n">
-        <v>0.00405901371978535</v>
+        <v>0.007945831833354256</v>
       </c>
       <c r="L50" t="n">
-        <v>0.06728186753985392</v>
+        <v>0.05911358229156957</v>
       </c>
       <c r="M50" t="n">
-        <v>0.005019065175340108</v>
+        <v>0.01209986007917778</v>
       </c>
       <c r="N50" t="n">
-        <v>0.04031007488204857</v>
+        <v>0.01232805137599723</v>
       </c>
       <c r="O50" t="n">
-        <v>0.05624653800543155</v>
+        <v>0.0721705021665353</v>
       </c>
       <c r="P50" t="n">
-        <v>0.03417187631791777</v>
+        <v>0.03838883319842844</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.0629284800605239</v>
+        <v>0.07104536013737556</v>
       </c>
       <c r="R50" t="n">
-        <v>0.05388969782109174</v>
+        <v>0.04313647053273363</v>
       </c>
       <c r="S50" t="n">
-        <v>0.05399949522742838</v>
+        <v>0.06848341822616223</v>
       </c>
       <c r="T50" t="n">
-        <v>0.008243194640350629</v>
+        <v>0.05752478168031636</v>
       </c>
       <c r="U50" t="n">
-        <v>0.0325507818448531</v>
+        <v>0.01068341723822408</v>
       </c>
       <c r="V50" t="n">
-        <v>0.0630281913602426</v>
+        <v>0.03426766499522251</v>
       </c>
       <c r="W50" t="n">
-        <v>0.008715736900273411</v>
+        <v>0.0003093279378206934</v>
       </c>
       <c r="X50" t="n">
-        <v>0.04234002622574935</v>
+        <v>0.06068775958053106</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.01260683398870149</v>
+        <v>0.02431357977528515</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.04641232200650632</v>
+        <v>0.03588526594880854</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.06269963327604994</v>
+        <v>0.06643865244587327</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.06233960802668374</v>
+        <v>0.0589866184562557</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.01584011511867341</v>
+        <v>0.07522383963118771</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.04597767690920475</v>
+        <v>0.001394797751792926</v>
       </c>
       <c r="AE50" t="n">
-        <v>0.04700976477235096</v>
+        <v>0.07026386902665413</v>
       </c>
       <c r="AF50" t="n">
-        <v>0.00408621487241572</v>
+        <v>0.02420534772692504</v>
       </c>
       <c r="AG50" t="n">
-        <v>0.004642454398248223</v>
+        <v>0.00796578152976366</v>
       </c>
       <c r="AH50" t="n">
-        <v>0.1452862551936347</v>
+        <v>0.1402935395337438</v>
       </c>
     </row>
     <row r="51">
@@ -6010,94 +6010,94 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.2360621761020209</v>
+        <v>0.1933329272457222</v>
       </c>
       <c r="F51" t="n">
-        <v>0.003108190139594488</v>
+        <v>0.03589798735069651</v>
       </c>
       <c r="G51" t="n">
-        <v>0.06646422200117029</v>
+        <v>0.04938953460745395</v>
       </c>
       <c r="H51" t="n">
-        <v>0.07030398744073095</v>
+        <v>0.05010631376213449</v>
       </c>
       <c r="I51" t="n">
-        <v>0.07263900833334544</v>
+        <v>0.01675358144932589</v>
       </c>
       <c r="J51" t="n">
-        <v>0.002592314538777416</v>
+        <v>0.06510248412929333</v>
       </c>
       <c r="K51" t="n">
-        <v>0.07838663619049252</v>
+        <v>0.06140188218912331</v>
       </c>
       <c r="L51" t="n">
-        <v>0.01707288863317198</v>
+        <v>0.0484919453690224</v>
       </c>
       <c r="M51" t="n">
-        <v>0.004138837053465563</v>
+        <v>0.01148465249965334</v>
       </c>
       <c r="N51" t="n">
-        <v>0.06640809466275785</v>
+        <v>0.07319676021096243</v>
       </c>
       <c r="O51" t="n">
-        <v>0.01846096082856772</v>
+        <v>0.002704110030841757</v>
       </c>
       <c r="P51" t="n">
-        <v>0.007056946481812698</v>
+        <v>0.06770723183968333</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.04623317730720644</v>
+        <v>0.03735464074781109</v>
       </c>
       <c r="R51" t="n">
-        <v>0.0287076229087067</v>
+        <v>0.004846347006632998</v>
       </c>
       <c r="S51" t="n">
-        <v>0.03149723470320232</v>
+        <v>0.008014459930050344</v>
       </c>
       <c r="T51" t="n">
-        <v>0.00246003263493477</v>
+        <v>0.04326673657928809</v>
       </c>
       <c r="U51" t="n">
-        <v>0.007019665410948309</v>
+        <v>0.01556227594871766</v>
       </c>
       <c r="V51" t="n">
-        <v>0.06842617814707951</v>
+        <v>0.001610268761625718</v>
       </c>
       <c r="W51" t="n">
-        <v>0.02096148611425278</v>
+        <v>0.006782105522482958</v>
       </c>
       <c r="X51" t="n">
-        <v>0.02392985341366904</v>
+        <v>0.002862041617096646</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.06036252451246236</v>
+        <v>0.05600079795015705</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.009353078693184686</v>
+        <v>0.04768707340429804</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.05076261340060761</v>
+        <v>0.0682013377519097</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.03091686459274128</v>
+        <v>0.008895089865111561</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.05748317152421326</v>
+        <v>0.07596079287882467</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.05226985566286189</v>
+        <v>0.05398844720739535</v>
       </c>
       <c r="AE51" t="n">
-        <v>0.08116336252857204</v>
+        <v>0.03356511591529338</v>
       </c>
       <c r="AF51" t="n">
-        <v>0.0006841456127582201</v>
+        <v>0.01493125821056869</v>
       </c>
       <c r="AG51" t="n">
-        <v>0.02113704652871199</v>
+        <v>0.03823472726454551</v>
       </c>
       <c r="AH51" t="n">
-        <v>0.1318562817745093</v>
+        <v>0.1550049061531065</v>
       </c>
     </row>
     <row r="52">
@@ -6120,94 +6120,94 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.1571150869098548</v>
+        <v>0.1554676892331854</v>
       </c>
       <c r="F52" t="n">
-        <v>0.04238319684154785</v>
+        <v>0.05379348007102041</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06089199315464797</v>
+        <v>0.05115604303386474</v>
       </c>
       <c r="H52" t="n">
-        <v>0.003784425098425744</v>
+        <v>0.02436286556927044</v>
       </c>
       <c r="I52" t="n">
-        <v>0.05101412463060316</v>
+        <v>0.05615216532387948</v>
       </c>
       <c r="J52" t="n">
-        <v>0.0158520579297321</v>
+        <v>0.06727777198100995</v>
       </c>
       <c r="K52" t="n">
-        <v>0.01388727110244352</v>
+        <v>0.02173182715221004</v>
       </c>
       <c r="L52" t="n">
-        <v>0.05556118029168478</v>
+        <v>0.03287645591786254</v>
       </c>
       <c r="M52" t="n">
-        <v>0.0516361332186324</v>
+        <v>0.06715129118844114</v>
       </c>
       <c r="N52" t="n">
-        <v>0.0037394885119798</v>
+        <v>0.002493833449320439</v>
       </c>
       <c r="O52" t="n">
-        <v>0.0121605119071637</v>
+        <v>0.006547732068423746</v>
       </c>
       <c r="P52" t="n">
-        <v>0.06574166793623826</v>
+        <v>0.05363172294018746</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.04563098643817008</v>
+        <v>0.02078955006453998</v>
       </c>
       <c r="R52" t="n">
-        <v>0.02557511875962805</v>
+        <v>0.01378778610514328</v>
       </c>
       <c r="S52" t="n">
-        <v>0.04881583891314419</v>
+        <v>0.06151497740534198</v>
       </c>
       <c r="T52" t="n">
-        <v>0.04361552804655799</v>
+        <v>0.02109569129309302</v>
       </c>
       <c r="U52" t="n">
-        <v>0.0339287554011336</v>
+        <v>0.0177739879906676</v>
       </c>
       <c r="V52" t="n">
-        <v>0.07140052032354235</v>
+        <v>0.04598674119971675</v>
       </c>
       <c r="W52" t="n">
-        <v>0.05025785597307994</v>
+        <v>0.05326319328399313</v>
       </c>
       <c r="X52" t="n">
-        <v>0.03423600418942748</v>
+        <v>0.03238808756450115</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.02490160679301912</v>
+        <v>0.005776082761510398</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.02428777649675046</v>
+        <v>0.0002001190679332091</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.003120414462274538</v>
+        <v>0.02602716747803326</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.02522035791178964</v>
+        <v>0.05570170097416366</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.04555305407072377</v>
+        <v>0.03142612914063736</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.02417927827273517</v>
+        <v>0.06859076721965851</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.062679645572531</v>
+        <v>0.04156425818171883</v>
       </c>
       <c r="AF52" t="n">
-        <v>0.05911229802591726</v>
+        <v>0.05395364179220673</v>
       </c>
       <c r="AG52" t="n">
-        <v>0.0008329097264760813</v>
+        <v>0.01298492978165071</v>
       </c>
       <c r="AH52" t="n">
-        <v>0.06418068579779181</v>
+        <v>0.07965484767475919</v>
       </c>
     </row>
     <row r="53">
@@ -6230,94 +6230,94 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.514889900055163</v>
+        <v>0.5969163966264445</v>
       </c>
       <c r="F53" t="n">
-        <v>0.02302707111680146</v>
+        <v>0.06803786138421532</v>
       </c>
       <c r="G53" t="n">
-        <v>0.008652542628235439</v>
+        <v>0.00694713997717142</v>
       </c>
       <c r="H53" t="n">
-        <v>0.01445915859541707</v>
+        <v>0.01661102252076832</v>
       </c>
       <c r="I53" t="n">
-        <v>0.03413600935297671</v>
+        <v>0.01365679345149966</v>
       </c>
       <c r="J53" t="n">
-        <v>0.05831477899462596</v>
+        <v>0.02595834800636606</v>
       </c>
       <c r="K53" t="n">
-        <v>0.01077648525183414</v>
+        <v>0.0881867499355591</v>
       </c>
       <c r="L53" t="n">
-        <v>0.00680868358180348</v>
+        <v>0.04185792170137484</v>
       </c>
       <c r="M53" t="n">
-        <v>0.01594464716451524</v>
+        <v>0.05896412652333061</v>
       </c>
       <c r="N53" t="n">
-        <v>0.08943694290636051</v>
+        <v>0.08550614771653149</v>
       </c>
       <c r="O53" t="n">
-        <v>0.01106068301024029</v>
+        <v>0.01849266899669859</v>
       </c>
       <c r="P53" t="n">
-        <v>0.005155052417302941</v>
+        <v>0.01762166864138989</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.02864903044676901</v>
+        <v>0.02987177636790601</v>
       </c>
       <c r="R53" t="n">
-        <v>0.08094259745022479</v>
+        <v>0.01363748272355989</v>
       </c>
       <c r="S53" t="n">
-        <v>0.08146102444113303</v>
+        <v>0.01114144698410411</v>
       </c>
       <c r="T53" t="n">
-        <v>0.05888165503989783</v>
+        <v>0.09397966600157492</v>
       </c>
       <c r="U53" t="n">
-        <v>0.04562910267289826</v>
+        <v>0.07994267629242872</v>
       </c>
       <c r="V53" t="n">
-        <v>0.01453499489590189</v>
+        <v>0.002098317374533267</v>
       </c>
       <c r="W53" t="n">
-        <v>0.06557996292511056</v>
+        <v>0.06084381821422866</v>
       </c>
       <c r="X53" t="n">
-        <v>0.01751596296348597</v>
+        <v>0.01062683018568218</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.02483956722019188</v>
+        <v>0.07614362489520929</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.04406000861075046</v>
+        <v>0.01288488085209867</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.02283962960504283</v>
+        <v>0.0655888834679068</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.04184885414718886</v>
+        <v>0.008464862726228572</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.02542901569242114</v>
+        <v>0.0465768571391742</v>
       </c>
       <c r="AD53" t="n">
-        <v>0.08595066733134153</v>
+        <v>0.000317060885152863</v>
       </c>
       <c r="AE53" t="n">
-        <v>0.009457036440525394</v>
+        <v>0.03253464374241438</v>
       </c>
       <c r="AF53" t="n">
-        <v>0.05316306605669582</v>
+        <v>0.007034801012160451</v>
       </c>
       <c r="AG53" t="n">
-        <v>0.0214457690403073</v>
+        <v>0.00647192228073166</v>
       </c>
       <c r="AH53" t="n">
-        <v>0.0772003200424225</v>
+        <v>0.06837753631612511</v>
       </c>
     </row>
     <row r="54">
@@ -6340,94 +6340,94 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.1820293252205225</v>
+        <v>0.1820614241817845</v>
       </c>
       <c r="F54" t="n">
-        <v>0.005705014412580015</v>
+        <v>0.005079079049266869</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05023616499497682</v>
+        <v>0.04528508061172733</v>
       </c>
       <c r="H54" t="n">
-        <v>0.02755370120706956</v>
+        <v>0.01020616663174649</v>
       </c>
       <c r="I54" t="n">
-        <v>0.004464555693812628</v>
+        <v>0.004915114496096243</v>
       </c>
       <c r="J54" t="n">
-        <v>0.01794120408804976</v>
+        <v>0.03083823185383315</v>
       </c>
       <c r="K54" t="n">
-        <v>0.08262986427917082</v>
+        <v>0.02064598722106468</v>
       </c>
       <c r="L54" t="n">
-        <v>0.04659721975444256</v>
+        <v>0.05772929777477259</v>
       </c>
       <c r="M54" t="n">
-        <v>0.002745483201474085</v>
+        <v>0.01537585229586692</v>
       </c>
       <c r="N54" t="n">
-        <v>0.08130962767482922</v>
+        <v>0.07182597706446663</v>
       </c>
       <c r="O54" t="n">
-        <v>0.02805080032107894</v>
+        <v>0.006088807257535806</v>
       </c>
       <c r="P54" t="n">
-        <v>0.05014565302832152</v>
+        <v>0.02917674148859695</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.02516886793119066</v>
+        <v>0.03373834678409274</v>
       </c>
       <c r="R54" t="n">
-        <v>0.0517154454004613</v>
+        <v>0.06739181239350987</v>
       </c>
       <c r="S54" t="n">
-        <v>0.05373670848827635</v>
+        <v>0.04759908752843307</v>
       </c>
       <c r="T54" t="n">
-        <v>0.08222248597029114</v>
+        <v>0.03631217979356476</v>
       </c>
       <c r="U54" t="n">
-        <v>0.005896558521978823</v>
+        <v>0.03077857858162893</v>
       </c>
       <c r="V54" t="n">
-        <v>0.07227905822311928</v>
+        <v>0.01890681786267462</v>
       </c>
       <c r="W54" t="n">
-        <v>0.04722479790915823</v>
+        <v>0.07883925944996016</v>
       </c>
       <c r="X54" t="n">
-        <v>0.04552031174289189</v>
+        <v>0.03962689849427943</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.03526163248148863</v>
+        <v>0.01551974869377683</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.01820997043199434</v>
+        <v>0.01005178166430663</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.003589871488992102</v>
+        <v>0.05716765219420337</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.01250466619104629</v>
+        <v>0.03847192132872021</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.01576561827208094</v>
+        <v>0.01545080123871461</v>
       </c>
       <c r="AD54" t="n">
-        <v>0.003910099103894712</v>
+        <v>0.05157108571635453</v>
       </c>
       <c r="AE54" t="n">
-        <v>0.0262848667322995</v>
+        <v>0.02926948492198256</v>
       </c>
       <c r="AF54" t="n">
-        <v>0.02303598988480401</v>
+        <v>0.05354955366129487</v>
       </c>
       <c r="AG54" t="n">
-        <v>0.080293762570226</v>
+        <v>0.07858865394752913</v>
       </c>
       <c r="AH54" t="n">
-        <v>-0.08360645623790813</v>
+        <v>-0.1069902304093575</v>
       </c>
     </row>
     <row r="55">
@@ -6450,94 +6450,94 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.2431095123028836</v>
+        <v>0.2519354671421242</v>
       </c>
       <c r="F55" t="n">
-        <v>0.008600507444969993</v>
+        <v>0.006600410523696044</v>
       </c>
       <c r="G55" t="n">
-        <v>0.04426636424945424</v>
+        <v>0.0005813630484622757</v>
       </c>
       <c r="H55" t="n">
-        <v>0.08029848587670907</v>
+        <v>0.04335324662034477</v>
       </c>
       <c r="I55" t="n">
-        <v>0.001299792882387998</v>
+        <v>0.001142574070563339</v>
       </c>
       <c r="J55" t="n">
-        <v>0.005307553384937917</v>
+        <v>0.04552024650868351</v>
       </c>
       <c r="K55" t="n">
-        <v>0.06324834643033514</v>
+        <v>0.02771557020772363</v>
       </c>
       <c r="L55" t="n">
-        <v>0.03347993572706423</v>
+        <v>0.05566206904928941</v>
       </c>
       <c r="M55" t="n">
-        <v>0.0280058230700115</v>
+        <v>0.02663692520505249</v>
       </c>
       <c r="N55" t="n">
-        <v>0.004097665215668086</v>
+        <v>0.01347646451282857</v>
       </c>
       <c r="O55" t="n">
-        <v>0.05076053110129573</v>
+        <v>0.05763717925586077</v>
       </c>
       <c r="P55" t="n">
-        <v>0.01821976445066771</v>
+        <v>0.00638231597597222</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.07255180815846533</v>
+        <v>0.05652165167395797</v>
       </c>
       <c r="R55" t="n">
-        <v>0.007972296625989294</v>
+        <v>0.02766250684379029</v>
       </c>
       <c r="S55" t="n">
-        <v>0.07057160995852242</v>
+        <v>0.04272025707683147</v>
       </c>
       <c r="T55" t="n">
-        <v>0.0005203501940696537</v>
+        <v>0.05358194651157758</v>
       </c>
       <c r="U55" t="n">
-        <v>0.01348590114111091</v>
+        <v>0.05739681907002572</v>
       </c>
       <c r="V55" t="n">
-        <v>0.07377726755312239</v>
+        <v>0.01045856269837458</v>
       </c>
       <c r="W55" t="n">
-        <v>0.06189929629834801</v>
+        <v>0.06943435465563283</v>
       </c>
       <c r="X55" t="n">
-        <v>0.01502691665658032</v>
+        <v>0.01465486919635145</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.02202820127072693</v>
+        <v>0.0003047556655216523</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.06174793710678064</v>
+        <v>0.05673546681773421</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.007821759854234826</v>
+        <v>0.06914912692566565</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.09612356720084998</v>
+        <v>0.05205235468818291</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.006587908134627875</v>
+        <v>0.01306298530893264</v>
       </c>
       <c r="AD55" t="n">
-        <v>0.04904641070773907</v>
+        <v>0.06957266294193896</v>
       </c>
       <c r="AE55" t="n">
-        <v>0.019780012946172</v>
+        <v>0.0413574801995165</v>
       </c>
       <c r="AF55" t="n">
-        <v>0.02479018799815231</v>
+        <v>0.01721568011481803</v>
       </c>
       <c r="AG55" t="n">
-        <v>0.05868379836100645</v>
+        <v>0.06341015463267062</v>
       </c>
       <c r="AH55" t="n">
-        <v>-0.08146435915804266</v>
+        <v>-0.09731671039542743</v>
       </c>
     </row>
     <row r="56">
@@ -6560,94 +6560,94 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.2270240920340486</v>
+        <v>0.230144758666548</v>
       </c>
       <c r="F56" t="n">
-        <v>0.05010358698186642</v>
+        <v>0.06145439516629542</v>
       </c>
       <c r="G56" t="n">
-        <v>0.001342214094105277</v>
+        <v>0.0004557017530418357</v>
       </c>
       <c r="H56" t="n">
-        <v>0.02575559829289656</v>
+        <v>0.0296011433068846</v>
       </c>
       <c r="I56" t="n">
-        <v>0.0005723053604021096</v>
+        <v>0.003652009898069091</v>
       </c>
       <c r="J56" t="n">
-        <v>0.05156544007044955</v>
+        <v>0.06641349508619925</v>
       </c>
       <c r="K56" t="n">
-        <v>0.01044332917265556</v>
+        <v>0.02092089138500187</v>
       </c>
       <c r="L56" t="n">
-        <v>0.04758020751531468</v>
+        <v>0.02863633946941066</v>
       </c>
       <c r="M56" t="n">
-        <v>0.04656216011960088</v>
+        <v>0.05536353074485131</v>
       </c>
       <c r="N56" t="n">
-        <v>0.003748078994400468</v>
+        <v>0.0429169889721138</v>
       </c>
       <c r="O56" t="n">
-        <v>0.006537468977056312</v>
+        <v>0.002717070113764918</v>
       </c>
       <c r="P56" t="n">
-        <v>0.0369436965103069</v>
+        <v>0.01846158353133216</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.03020644587593967</v>
+        <v>0.01573436976116606</v>
       </c>
       <c r="R56" t="n">
-        <v>0.06312613098657677</v>
+        <v>0.02219657768933651</v>
       </c>
       <c r="S56" t="n">
-        <v>6.589439772677003e-05</v>
+        <v>0.0367194897044029</v>
       </c>
       <c r="T56" t="n">
-        <v>0.05902194206868336</v>
+        <v>0.05404704475095885</v>
       </c>
       <c r="U56" t="n">
-        <v>0.01165717879832203</v>
+        <v>0.04241821165224666</v>
       </c>
       <c r="V56" t="n">
-        <v>0.01282429347146523</v>
+        <v>0.01958364826428459</v>
       </c>
       <c r="W56" t="n">
-        <v>0.02013782196458198</v>
+        <v>0.06780636722583032</v>
       </c>
       <c r="X56" t="n">
-        <v>0.007650352830590615</v>
+        <v>0.006293692301025795</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.08199684358705446</v>
+        <v>0.06410329449370063</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.01490777698177059</v>
+        <v>0.02229972778637296</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.01274545564391483</v>
+        <v>0.05029806874341979</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.06518056462008895</v>
+        <v>0.05046989229129485</v>
       </c>
       <c r="AC56" t="n">
-        <v>0.07620462939237188</v>
+        <v>0.01079419463357346</v>
       </c>
       <c r="AD56" t="n">
-        <v>0.07922750769341709</v>
+        <v>0.04248832834227614</v>
       </c>
       <c r="AE56" t="n">
-        <v>0.05439069517267037</v>
+        <v>0.05426421420451773</v>
       </c>
       <c r="AF56" t="n">
-        <v>0.05495617194703467</v>
+        <v>0.04493809941446157</v>
       </c>
       <c r="AG56" t="n">
-        <v>0.07454620847873598</v>
+        <v>0.06495162931416629</v>
       </c>
       <c r="AH56" t="n">
-        <v>0.1469627072998695</v>
+        <v>0.1689111944398531</v>
       </c>
     </row>
     <row r="57">
@@ -6670,97 +6670,97 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.270541538377139</v>
+        <v>0.2477388650636094</v>
       </c>
       <c r="F57" t="n">
-        <v>0.08368798865850995</v>
+        <v>0.07054697856173241</v>
       </c>
       <c r="G57" t="n">
-        <v>0.08920520457767822</v>
+        <v>0.02566131977239914</v>
       </c>
       <c r="H57" t="n">
-        <v>0.05852719116234691</v>
+        <v>0.02934741063508163</v>
       </c>
       <c r="I57" t="n">
-        <v>0.0004821332281651122</v>
+        <v>0.0003218349889376614</v>
       </c>
       <c r="J57" t="n">
-        <v>0.003091036185111379</v>
+        <v>0.003755470690575499</v>
       </c>
       <c r="K57" t="n">
-        <v>0.05341569437625704</v>
+        <v>0.05789538928413163</v>
       </c>
       <c r="L57" t="n">
-        <v>0.03629662991733317</v>
+        <v>0.0734258001911705</v>
       </c>
       <c r="M57" t="n">
-        <v>0.01898674474850697</v>
+        <v>0.0001632284850574136</v>
       </c>
       <c r="N57" t="n">
-        <v>0.02003873614871605</v>
+        <v>0.009715944556843426</v>
       </c>
       <c r="O57" t="n">
-        <v>0.07173863242380592</v>
+        <v>0.03679096663628179</v>
       </c>
       <c r="P57" t="n">
-        <v>0.04881807806908117</v>
+        <v>0.02612551826645171</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.09147447053048839</v>
+        <v>0.06911598930766773</v>
       </c>
       <c r="R57" t="n">
-        <v>0.02713865761300153</v>
+        <v>0.0732206092400934</v>
       </c>
       <c r="S57" t="n">
-        <v>0.05310806149385344</v>
+        <v>0.03368587292531531</v>
       </c>
       <c r="T57" t="n">
-        <v>0.05355323722969526</v>
+        <v>0.0524380219022259</v>
       </c>
       <c r="U57" t="n">
-        <v>0.01739656321639464</v>
+        <v>0.05099358567923305</v>
       </c>
       <c r="V57" t="n">
-        <v>0.02216116220404103</v>
+        <v>0.01468329021922265</v>
       </c>
       <c r="W57" t="n">
-        <v>0.004548718763668884</v>
+        <v>0.04176645192054728</v>
       </c>
       <c r="X57" t="n">
-        <v>0.0001976528866848207</v>
+        <v>0.02399967849667921</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.01707014319591498</v>
+        <v>0.02293311776573245</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.009178971683700968</v>
+        <v>0.05311922882593709</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.02399394774731936</v>
+        <v>0.05023992422412022</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.08797510774901299</v>
+        <v>0.07380045185111755</v>
       </c>
       <c r="AC57" t="n">
-        <v>0.05643630217482635</v>
+        <v>0.01035386175913837</v>
       </c>
       <c r="AD57" t="n">
-        <v>0.02307266486028595</v>
+        <v>0.009981940578447682</v>
       </c>
       <c r="AE57" t="n">
-        <v>0.006616680366584317</v>
+        <v>0.02450654992175893</v>
       </c>
       <c r="AF57" t="n">
-        <v>0.006187154342048388</v>
+        <v>0.01476447330565914</v>
       </c>
       <c r="AG57" t="n">
-        <v>0.01560243444696678</v>
+        <v>0.04664709000844123</v>
       </c>
       <c r="AH57" t="n">
-        <v>0.1659851477786685</v>
+        <v>0.1648522972030135</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>